--- a/Báo Cáo/Tuần 3/PhacThaoChiTiet_ThemLichChieu.xlsx
+++ b/Báo Cáo/Tuần 3/PhacThaoChiTiet_ThemLichChieu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
@@ -2844,6 +2844,34 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2883,30 +2911,139 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2916,9 +3053,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2928,82 +3062,496 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3069,534 +3617,29 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3604,99 +3647,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3740,7 +3740,7 @@
         <xdr:cNvPr id="25" name="Group 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3759,7 +3759,7 @@
           <xdr:cNvPr id="2" name="Picture 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3828,7 +3828,7 @@
           <xdr:cNvPr id="4" name="Rectangle 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3880,7 +3880,7 @@
           <xdr:cNvPr id="5" name="Rectangle 4459">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3934,7 +3934,7 @@
           <xdr:cNvPr id="6" name="Text Box 4320">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4029,7 +4029,7 @@
           <xdr:cNvPr id="7" name="Line 4328">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4078,7 +4078,7 @@
           <xdr:cNvPr id="8" name="Line 4328">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4127,7 +4127,7 @@
           <xdr:cNvPr id="9" name="Text Box 4324">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4198,7 +4198,7 @@
           <xdr:cNvPr id="10" name="Picture 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4267,7 +4267,7 @@
           <xdr:cNvPr id="11" name="AutoShape 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4316,7 +4316,7 @@
           <xdr:cNvPr id="14" name="Elbow Connector 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4368,7 +4368,7 @@
           <xdr:cNvPr id="12" name="AutoShape 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4417,7 +4417,7 @@
           <xdr:cNvPr id="13" name="Elbow Connector 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4469,7 +4469,7 @@
           <xdr:cNvPr id="17" name="AutoShape 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4518,7 +4518,7 @@
           <xdr:cNvPr id="18" name="Elbow Connector 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4572,7 +4572,7 @@
           <xdr:cNvPr id="20" name="AutoShape 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4621,7 +4621,7 @@
           <xdr:cNvPr id="21" name="Elbow Connector 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4673,7 +4673,7 @@
           <xdr:cNvPr id="31" name="AutoShape 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4722,7 +4722,7 @@
           <xdr:cNvPr id="32" name="Elbow Connector 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4810,7 +4810,7 @@
           <xdr:cNvPr id="4" name="Group 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4829,7 +4829,7 @@
             <xdr:cNvPr id="12" name="Group 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4848,7 +4848,7 @@
               <xdr:cNvPr id="7" name="Group 6">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4867,7 +4867,7 @@
                 <xdr:cNvPr id="3" name="Group 2">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4886,7 +4886,7 @@
                   <xdr:cNvPr id="17" name="Rectangle 16">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -4942,7 +4942,7 @@
                   <xdr:cNvPr id="19" name="TextBox 18">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -4997,7 +4997,7 @@
                   <xdr:cNvPr id="20" name="Rounded Rectangle 19">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -5066,7 +5066,7 @@
                   <xdr:cNvPr id="21" name="Rounded Rectangle 20">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -5146,7 +5146,7 @@
                   <xdr:cNvPr id="23" name="Rectangle 22">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -5205,7 +5205,7 @@
                   <xdr:cNvPr id="42" name="TextBox 41">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -5259,7 +5259,7 @@
                   <xdr:cNvPr id="43" name="TextBox 42">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -5313,7 +5313,7 @@
                   <xdr:cNvPr id="51" name="Rounded Rectangle 50">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -5390,7 +5390,7 @@
                   <xdr:cNvPr id="52" name="TextBox 51">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -5442,7 +5442,7 @@
                   <xdr:cNvPr id="53" name="Rounded Rectangle 52">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -5527,7 +5527,7 @@
                   <xdr:cNvPr id="54" name="TextBox 53">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000036000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -5580,7 +5580,7 @@
                 <xdr:cNvPr id="5" name="Rectangle 4">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -5627,7 +5627,7 @@
               <xdr:cNvPr id="11" name="Picture 10">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5657,7 +5657,7 @@
             <xdr:cNvPr id="25" name="Picture 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5686,7 +5686,7 @@
             <xdr:cNvPr id="26" name="Picture 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5715,7 +5715,7 @@
             <xdr:cNvPr id="27" name="Picture 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5744,7 +5744,7 @@
             <xdr:cNvPr id="28" name="Picture 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5774,7 +5774,7 @@
           <xdr:cNvPr id="24" name="Shape 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6167,7 +6167,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6177,7 +6177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A113" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A113" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="AJ119" sqref="AJ119"/>
     </sheetView>
   </sheetViews>
@@ -6194,635 +6194,635 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15" thickTop="1">
-      <c r="A1" s="356" t="s">
+      <c r="A1" s="364" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="358"/>
-      <c r="J1" s="365" t="s">
+      <c r="B1" s="365"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
+      <c r="I1" s="366"/>
+      <c r="J1" s="373" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="366"/>
-      <c r="L1" s="366"/>
-      <c r="M1" s="366"/>
-      <c r="N1" s="366"/>
-      <c r="O1" s="367"/>
-      <c r="P1" s="365" t="s">
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
+      <c r="N1" s="374"/>
+      <c r="O1" s="375"/>
+      <c r="P1" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="366"/>
-      <c r="R1" s="366"/>
-      <c r="S1" s="366"/>
-      <c r="T1" s="366"/>
-      <c r="U1" s="367"/>
-      <c r="V1" s="374" t="s">
+      <c r="Q1" s="374"/>
+      <c r="R1" s="374"/>
+      <c r="S1" s="374"/>
+      <c r="T1" s="374"/>
+      <c r="U1" s="375"/>
+      <c r="V1" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="375"/>
-      <c r="X1" s="375"/>
-      <c r="Y1" s="375"/>
-      <c r="Z1" s="376"/>
-      <c r="AA1" s="380" t="s">
+      <c r="W1" s="389"/>
+      <c r="X1" s="389"/>
+      <c r="Y1" s="389"/>
+      <c r="Z1" s="390"/>
+      <c r="AA1" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="366"/>
-      <c r="AC1" s="366"/>
-      <c r="AD1" s="366"/>
-      <c r="AE1" s="366"/>
-      <c r="AF1" s="366"/>
-      <c r="AG1" s="366"/>
-      <c r="AH1" s="366"/>
-      <c r="AI1" s="366"/>
-      <c r="AJ1" s="366"/>
-      <c r="AK1" s="366"/>
-      <c r="AL1" s="367"/>
-      <c r="AM1" s="384" t="s">
+      <c r="AB1" s="374"/>
+      <c r="AC1" s="374"/>
+      <c r="AD1" s="374"/>
+      <c r="AE1" s="374"/>
+      <c r="AF1" s="374"/>
+      <c r="AG1" s="374"/>
+      <c r="AH1" s="374"/>
+      <c r="AI1" s="374"/>
+      <c r="AJ1" s="374"/>
+      <c r="AK1" s="374"/>
+      <c r="AL1" s="375"/>
+      <c r="AM1" s="396" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="385"/>
-      <c r="AO1" s="386" t="s">
+      <c r="AN1" s="397"/>
+      <c r="AO1" s="402" t="s">
         <v>99</v>
       </c>
-      <c r="AP1" s="387"/>
-      <c r="AQ1" s="388"/>
-      <c r="AR1" s="384" t="s">
+      <c r="AP1" s="403"/>
+      <c r="AQ1" s="404"/>
+      <c r="AR1" s="396" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="385"/>
-      <c r="AT1" s="389">
+      <c r="AS1" s="397"/>
+      <c r="AT1" s="413">
         <v>45056</v>
       </c>
-      <c r="AU1" s="390"/>
-      <c r="AV1" s="390"/>
-      <c r="AW1" s="391"/>
+      <c r="AU1" s="414"/>
+      <c r="AV1" s="414"/>
+      <c r="AW1" s="415"/>
     </row>
     <row r="2" spans="1:49">
-      <c r="A2" s="359"/>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="361"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="560"/>
-      <c r="L2" s="560"/>
-      <c r="M2" s="560"/>
-      <c r="N2" s="560"/>
-      <c r="O2" s="370"/>
-      <c r="P2" s="368"/>
-      <c r="Q2" s="560"/>
-      <c r="R2" s="560"/>
-      <c r="S2" s="560"/>
-      <c r="T2" s="560"/>
-      <c r="U2" s="370"/>
-      <c r="V2" s="561"/>
-      <c r="W2" s="562"/>
-      <c r="X2" s="562"/>
-      <c r="Y2" s="562"/>
-      <c r="Z2" s="563"/>
-      <c r="AA2" s="564"/>
-      <c r="AB2" s="560"/>
-      <c r="AC2" s="560"/>
-      <c r="AD2" s="560"/>
-      <c r="AE2" s="560"/>
-      <c r="AF2" s="560"/>
-      <c r="AG2" s="560"/>
-      <c r="AH2" s="560"/>
-      <c r="AI2" s="560"/>
-      <c r="AJ2" s="560"/>
-      <c r="AK2" s="560"/>
-      <c r="AL2" s="370"/>
-      <c r="AM2" s="392" t="s">
+      <c r="A2" s="367"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="368"/>
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="376"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="378"/>
+      <c r="P2" s="376"/>
+      <c r="Q2" s="377"/>
+      <c r="R2" s="377"/>
+      <c r="S2" s="377"/>
+      <c r="T2" s="377"/>
+      <c r="U2" s="378"/>
+      <c r="V2" s="391"/>
+      <c r="W2" s="392"/>
+      <c r="X2" s="392"/>
+      <c r="Y2" s="392"/>
+      <c r="Z2" s="393"/>
+      <c r="AA2" s="395"/>
+      <c r="AB2" s="377"/>
+      <c r="AC2" s="377"/>
+      <c r="AD2" s="377"/>
+      <c r="AE2" s="377"/>
+      <c r="AF2" s="377"/>
+      <c r="AG2" s="377"/>
+      <c r="AH2" s="377"/>
+      <c r="AI2" s="377"/>
+      <c r="AJ2" s="377"/>
+      <c r="AK2" s="377"/>
+      <c r="AL2" s="378"/>
+      <c r="AM2" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="393"/>
-      <c r="AO2" s="394"/>
-      <c r="AP2" s="395"/>
-      <c r="AQ2" s="396"/>
-      <c r="AR2" s="392" t="s">
+      <c r="AN2" s="406"/>
+      <c r="AO2" s="407"/>
+      <c r="AP2" s="408"/>
+      <c r="AQ2" s="409"/>
+      <c r="AR2" s="405" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="393"/>
-      <c r="AT2" s="397"/>
-      <c r="AU2" s="398"/>
-      <c r="AV2" s="398"/>
-      <c r="AW2" s="399"/>
+      <c r="AS2" s="406"/>
+      <c r="AT2" s="410"/>
+      <c r="AU2" s="411"/>
+      <c r="AV2" s="411"/>
+      <c r="AW2" s="412"/>
     </row>
     <row r="3" spans="1:49" ht="15" thickBot="1">
-      <c r="A3" s="362"/>
-      <c r="B3" s="363"/>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
-      <c r="I3" s="364"/>
-      <c r="J3" s="371"/>
-      <c r="K3" s="372"/>
-      <c r="L3" s="372"/>
-      <c r="M3" s="372"/>
-      <c r="N3" s="372"/>
-      <c r="O3" s="373"/>
-      <c r="P3" s="371"/>
-      <c r="Q3" s="372"/>
-      <c r="R3" s="372"/>
-      <c r="S3" s="372"/>
-      <c r="T3" s="372"/>
-      <c r="U3" s="373"/>
-      <c r="V3" s="400" t="s">
+      <c r="A3" s="370"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="371"/>
+      <c r="H3" s="371"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="379"/>
+      <c r="K3" s="380"/>
+      <c r="L3" s="380"/>
+      <c r="M3" s="380"/>
+      <c r="N3" s="380"/>
+      <c r="O3" s="381"/>
+      <c r="P3" s="379"/>
+      <c r="Q3" s="380"/>
+      <c r="R3" s="380"/>
+      <c r="S3" s="380"/>
+      <c r="T3" s="380"/>
+      <c r="U3" s="381"/>
+      <c r="V3" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="401"/>
-      <c r="X3" s="401"/>
-      <c r="Y3" s="401"/>
-      <c r="Z3" s="402"/>
-      <c r="AA3" s="403" t="s">
+      <c r="W3" s="386"/>
+      <c r="X3" s="386"/>
+      <c r="Y3" s="386"/>
+      <c r="Z3" s="387"/>
+      <c r="AA3" s="382" t="s">
         <v>128</v>
       </c>
-      <c r="AB3" s="404"/>
-      <c r="AC3" s="404"/>
-      <c r="AD3" s="404"/>
-      <c r="AE3" s="404"/>
-      <c r="AF3" s="404"/>
-      <c r="AG3" s="405"/>
-      <c r="AH3" s="406" t="s">
+      <c r="AB3" s="383"/>
+      <c r="AC3" s="383"/>
+      <c r="AD3" s="383"/>
+      <c r="AE3" s="383"/>
+      <c r="AF3" s="383"/>
+      <c r="AG3" s="384"/>
+      <c r="AH3" s="398" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="407"/>
-      <c r="AJ3" s="407"/>
-      <c r="AK3" s="407"/>
-      <c r="AL3" s="408"/>
-      <c r="AM3" s="403" t="s">
+      <c r="AI3" s="399"/>
+      <c r="AJ3" s="399"/>
+      <c r="AK3" s="399"/>
+      <c r="AL3" s="400"/>
+      <c r="AM3" s="382" t="s">
         <v>98</v>
       </c>
-      <c r="AN3" s="404"/>
-      <c r="AO3" s="404"/>
-      <c r="AP3" s="404"/>
-      <c r="AQ3" s="404"/>
-      <c r="AR3" s="404"/>
-      <c r="AS3" s="404"/>
-      <c r="AT3" s="404"/>
-      <c r="AU3" s="404"/>
-      <c r="AV3" s="404"/>
-      <c r="AW3" s="430"/>
+      <c r="AN3" s="383"/>
+      <c r="AO3" s="383"/>
+      <c r="AP3" s="383"/>
+      <c r="AQ3" s="383"/>
+      <c r="AR3" s="383"/>
+      <c r="AS3" s="383"/>
+      <c r="AT3" s="383"/>
+      <c r="AU3" s="383"/>
+      <c r="AV3" s="383"/>
+      <c r="AW3" s="401"/>
     </row>
     <row r="4" spans="1:49" ht="15" thickTop="1">
       <c r="A4" s="222"/>
     </row>
     <row r="6" spans="1:49">
-      <c r="B6" s="557" t="s">
+      <c r="B6" s="416" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="558"/>
-      <c r="D6" s="558"/>
-      <c r="E6" s="558"/>
-      <c r="F6" s="558"/>
-      <c r="G6" s="558"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="558"/>
-      <c r="J6" s="558"/>
-      <c r="K6" s="558"/>
-      <c r="L6" s="558"/>
-      <c r="M6" s="558"/>
-      <c r="N6" s="558"/>
-      <c r="O6" s="558"/>
-      <c r="P6" s="558"/>
-      <c r="Q6" s="558"/>
-      <c r="R6" s="558"/>
-      <c r="S6" s="558"/>
-      <c r="T6" s="558"/>
-      <c r="U6" s="558"/>
-      <c r="V6" s="558"/>
-      <c r="W6" s="558"/>
-      <c r="X6" s="558"/>
-      <c r="Y6" s="558"/>
-      <c r="Z6" s="558"/>
-      <c r="AA6" s="558"/>
-      <c r="AB6" s="558"/>
-      <c r="AC6" s="558"/>
-      <c r="AD6" s="558"/>
-      <c r="AE6" s="558"/>
-      <c r="AF6" s="558"/>
-      <c r="AG6" s="558"/>
-      <c r="AH6" s="558"/>
-      <c r="AI6" s="558"/>
-      <c r="AJ6" s="558"/>
-      <c r="AK6" s="558"/>
-      <c r="AL6" s="558"/>
-      <c r="AM6" s="558"/>
-      <c r="AN6" s="558"/>
-      <c r="AO6" s="558"/>
-      <c r="AP6" s="558"/>
-      <c r="AQ6" s="558"/>
-      <c r="AR6" s="558"/>
-      <c r="AS6" s="558"/>
-      <c r="AT6" s="558"/>
-      <c r="AU6" s="558"/>
-      <c r="AV6" s="558"/>
+      <c r="C6" s="417"/>
+      <c r="D6" s="417"/>
+      <c r="E6" s="417"/>
+      <c r="F6" s="417"/>
+      <c r="G6" s="417"/>
+      <c r="H6" s="417"/>
+      <c r="I6" s="417"/>
+      <c r="J6" s="417"/>
+      <c r="K6" s="417"/>
+      <c r="L6" s="417"/>
+      <c r="M6" s="417"/>
+      <c r="N6" s="417"/>
+      <c r="O6" s="417"/>
+      <c r="P6" s="417"/>
+      <c r="Q6" s="417"/>
+      <c r="R6" s="417"/>
+      <c r="S6" s="417"/>
+      <c r="T6" s="417"/>
+      <c r="U6" s="417"/>
+      <c r="V6" s="417"/>
+      <c r="W6" s="417"/>
+      <c r="X6" s="417"/>
+      <c r="Y6" s="417"/>
+      <c r="Z6" s="417"/>
+      <c r="AA6" s="417"/>
+      <c r="AB6" s="417"/>
+      <c r="AC6" s="417"/>
+      <c r="AD6" s="417"/>
+      <c r="AE6" s="417"/>
+      <c r="AF6" s="417"/>
+      <c r="AG6" s="417"/>
+      <c r="AH6" s="417"/>
+      <c r="AI6" s="417"/>
+      <c r="AJ6" s="417"/>
+      <c r="AK6" s="417"/>
+      <c r="AL6" s="417"/>
+      <c r="AM6" s="417"/>
+      <c r="AN6" s="417"/>
+      <c r="AO6" s="417"/>
+      <c r="AP6" s="417"/>
+      <c r="AQ6" s="417"/>
+      <c r="AR6" s="417"/>
+      <c r="AS6" s="417"/>
+      <c r="AT6" s="417"/>
+      <c r="AU6" s="417"/>
+      <c r="AV6" s="417"/>
     </row>
     <row r="7" spans="1:49">
-      <c r="B7" s="558"/>
-      <c r="C7" s="558"/>
-      <c r="D7" s="558"/>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="558"/>
-      <c r="J7" s="558"/>
-      <c r="K7" s="558"/>
-      <c r="L7" s="558"/>
-      <c r="M7" s="558"/>
-      <c r="N7" s="558"/>
-      <c r="O7" s="558"/>
-      <c r="P7" s="558"/>
-      <c r="Q7" s="558"/>
-      <c r="R7" s="558"/>
-      <c r="S7" s="558"/>
-      <c r="T7" s="558"/>
-      <c r="U7" s="558"/>
-      <c r="V7" s="558"/>
-      <c r="W7" s="558"/>
-      <c r="X7" s="558"/>
-      <c r="Y7" s="558"/>
-      <c r="Z7" s="558"/>
-      <c r="AA7" s="558"/>
-      <c r="AB7" s="558"/>
-      <c r="AC7" s="558"/>
-      <c r="AD7" s="558"/>
-      <c r="AE7" s="558"/>
-      <c r="AF7" s="558"/>
-      <c r="AG7" s="558"/>
-      <c r="AH7" s="558"/>
-      <c r="AI7" s="558"/>
-      <c r="AJ7" s="558"/>
-      <c r="AK7" s="558"/>
-      <c r="AL7" s="558"/>
-      <c r="AM7" s="558"/>
-      <c r="AN7" s="558"/>
-      <c r="AO7" s="558"/>
-      <c r="AP7" s="558"/>
-      <c r="AQ7" s="558"/>
-      <c r="AR7" s="558"/>
-      <c r="AS7" s="558"/>
-      <c r="AT7" s="558"/>
-      <c r="AU7" s="558"/>
-      <c r="AV7" s="558"/>
+      <c r="B7" s="417"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
+      <c r="F7" s="417"/>
+      <c r="G7" s="417"/>
+      <c r="H7" s="417"/>
+      <c r="I7" s="417"/>
+      <c r="J7" s="417"/>
+      <c r="K7" s="417"/>
+      <c r="L7" s="417"/>
+      <c r="M7" s="417"/>
+      <c r="N7" s="417"/>
+      <c r="O7" s="417"/>
+      <c r="P7" s="417"/>
+      <c r="Q7" s="417"/>
+      <c r="R7" s="417"/>
+      <c r="S7" s="417"/>
+      <c r="T7" s="417"/>
+      <c r="U7" s="417"/>
+      <c r="V7" s="417"/>
+      <c r="W7" s="417"/>
+      <c r="X7" s="417"/>
+      <c r="Y7" s="417"/>
+      <c r="Z7" s="417"/>
+      <c r="AA7" s="417"/>
+      <c r="AB7" s="417"/>
+      <c r="AC7" s="417"/>
+      <c r="AD7" s="417"/>
+      <c r="AE7" s="417"/>
+      <c r="AF7" s="417"/>
+      <c r="AG7" s="417"/>
+      <c r="AH7" s="417"/>
+      <c r="AI7" s="417"/>
+      <c r="AJ7" s="417"/>
+      <c r="AK7" s="417"/>
+      <c r="AL7" s="417"/>
+      <c r="AM7" s="417"/>
+      <c r="AN7" s="417"/>
+      <c r="AO7" s="417"/>
+      <c r="AP7" s="417"/>
+      <c r="AQ7" s="417"/>
+      <c r="AR7" s="417"/>
+      <c r="AS7" s="417"/>
+      <c r="AT7" s="417"/>
+      <c r="AU7" s="417"/>
+      <c r="AV7" s="417"/>
     </row>
     <row r="8" spans="1:49">
-      <c r="B8" s="558"/>
-      <c r="C8" s="558"/>
-      <c r="D8" s="558"/>
-      <c r="E8" s="558"/>
-      <c r="F8" s="558"/>
-      <c r="G8" s="558"/>
-      <c r="H8" s="558"/>
-      <c r="I8" s="558"/>
-      <c r="J8" s="558"/>
-      <c r="K8" s="558"/>
-      <c r="L8" s="558"/>
-      <c r="M8" s="558"/>
-      <c r="N8" s="558"/>
-      <c r="O8" s="558"/>
-      <c r="P8" s="558"/>
-      <c r="Q8" s="558"/>
-      <c r="R8" s="558"/>
-      <c r="S8" s="558"/>
-      <c r="T8" s="558"/>
-      <c r="U8" s="558"/>
-      <c r="V8" s="558"/>
-      <c r="W8" s="558"/>
-      <c r="X8" s="558"/>
-      <c r="Y8" s="558"/>
-      <c r="Z8" s="558"/>
-      <c r="AA8" s="558"/>
-      <c r="AB8" s="558"/>
-      <c r="AC8" s="558"/>
-      <c r="AD8" s="558"/>
-      <c r="AE8" s="558"/>
-      <c r="AF8" s="558"/>
-      <c r="AG8" s="558"/>
-      <c r="AH8" s="558"/>
-      <c r="AI8" s="558"/>
-      <c r="AJ8" s="558"/>
-      <c r="AK8" s="558"/>
-      <c r="AL8" s="558"/>
-      <c r="AM8" s="558"/>
-      <c r="AN8" s="558"/>
-      <c r="AO8" s="558"/>
-      <c r="AP8" s="558"/>
-      <c r="AQ8" s="558"/>
-      <c r="AR8" s="558"/>
-      <c r="AS8" s="558"/>
-      <c r="AT8" s="558"/>
-      <c r="AU8" s="558"/>
-      <c r="AV8" s="558"/>
+      <c r="B8" s="417"/>
+      <c r="C8" s="417"/>
+      <c r="D8" s="417"/>
+      <c r="E8" s="417"/>
+      <c r="F8" s="417"/>
+      <c r="G8" s="417"/>
+      <c r="H8" s="417"/>
+      <c r="I8" s="417"/>
+      <c r="J8" s="417"/>
+      <c r="K8" s="417"/>
+      <c r="L8" s="417"/>
+      <c r="M8" s="417"/>
+      <c r="N8" s="417"/>
+      <c r="O8" s="417"/>
+      <c r="P8" s="417"/>
+      <c r="Q8" s="417"/>
+      <c r="R8" s="417"/>
+      <c r="S8" s="417"/>
+      <c r="T8" s="417"/>
+      <c r="U8" s="417"/>
+      <c r="V8" s="417"/>
+      <c r="W8" s="417"/>
+      <c r="X8" s="417"/>
+      <c r="Y8" s="417"/>
+      <c r="Z8" s="417"/>
+      <c r="AA8" s="417"/>
+      <c r="AB8" s="417"/>
+      <c r="AC8" s="417"/>
+      <c r="AD8" s="417"/>
+      <c r="AE8" s="417"/>
+      <c r="AF8" s="417"/>
+      <c r="AG8" s="417"/>
+      <c r="AH8" s="417"/>
+      <c r="AI8" s="417"/>
+      <c r="AJ8" s="417"/>
+      <c r="AK8" s="417"/>
+      <c r="AL8" s="417"/>
+      <c r="AM8" s="417"/>
+      <c r="AN8" s="417"/>
+      <c r="AO8" s="417"/>
+      <c r="AP8" s="417"/>
+      <c r="AQ8" s="417"/>
+      <c r="AR8" s="417"/>
+      <c r="AS8" s="417"/>
+      <c r="AT8" s="417"/>
+      <c r="AU8" s="417"/>
+      <c r="AV8" s="417"/>
     </row>
     <row r="9" spans="1:49">
-      <c r="B9" s="558"/>
-      <c r="C9" s="558"/>
-      <c r="D9" s="558"/>
-      <c r="E9" s="558"/>
-      <c r="F9" s="558"/>
-      <c r="G9" s="558"/>
-      <c r="H9" s="558"/>
-      <c r="I9" s="558"/>
-      <c r="J9" s="558"/>
-      <c r="K9" s="558"/>
-      <c r="L9" s="558"/>
-      <c r="M9" s="558"/>
-      <c r="N9" s="558"/>
-      <c r="O9" s="558"/>
-      <c r="P9" s="558"/>
-      <c r="Q9" s="558"/>
-      <c r="R9" s="558"/>
-      <c r="S9" s="558"/>
-      <c r="T9" s="558"/>
-      <c r="U9" s="558"/>
-      <c r="V9" s="558"/>
-      <c r="W9" s="558"/>
-      <c r="X9" s="558"/>
-      <c r="Y9" s="558"/>
-      <c r="Z9" s="558"/>
-      <c r="AA9" s="558"/>
-      <c r="AB9" s="558"/>
-      <c r="AC9" s="558"/>
-      <c r="AD9" s="558"/>
-      <c r="AE9" s="558"/>
-      <c r="AF9" s="558"/>
-      <c r="AG9" s="558"/>
-      <c r="AH9" s="558"/>
-      <c r="AI9" s="558"/>
-      <c r="AJ9" s="558"/>
-      <c r="AK9" s="558"/>
-      <c r="AL9" s="558"/>
-      <c r="AM9" s="558"/>
-      <c r="AN9" s="558"/>
-      <c r="AO9" s="558"/>
-      <c r="AP9" s="558"/>
-      <c r="AQ9" s="558"/>
-      <c r="AR9" s="558"/>
-      <c r="AS9" s="558"/>
-      <c r="AT9" s="558"/>
-      <c r="AU9" s="558"/>
-      <c r="AV9" s="558"/>
+      <c r="B9" s="417"/>
+      <c r="C9" s="417"/>
+      <c r="D9" s="417"/>
+      <c r="E9" s="417"/>
+      <c r="F9" s="417"/>
+      <c r="G9" s="417"/>
+      <c r="H9" s="417"/>
+      <c r="I9" s="417"/>
+      <c r="J9" s="417"/>
+      <c r="K9" s="417"/>
+      <c r="L9" s="417"/>
+      <c r="M9" s="417"/>
+      <c r="N9" s="417"/>
+      <c r="O9" s="417"/>
+      <c r="P9" s="417"/>
+      <c r="Q9" s="417"/>
+      <c r="R9" s="417"/>
+      <c r="S9" s="417"/>
+      <c r="T9" s="417"/>
+      <c r="U9" s="417"/>
+      <c r="V9" s="417"/>
+      <c r="W9" s="417"/>
+      <c r="X9" s="417"/>
+      <c r="Y9" s="417"/>
+      <c r="Z9" s="417"/>
+      <c r="AA9" s="417"/>
+      <c r="AB9" s="417"/>
+      <c r="AC9" s="417"/>
+      <c r="AD9" s="417"/>
+      <c r="AE9" s="417"/>
+      <c r="AF9" s="417"/>
+      <c r="AG9" s="417"/>
+      <c r="AH9" s="417"/>
+      <c r="AI9" s="417"/>
+      <c r="AJ9" s="417"/>
+      <c r="AK9" s="417"/>
+      <c r="AL9" s="417"/>
+      <c r="AM9" s="417"/>
+      <c r="AN9" s="417"/>
+      <c r="AO9" s="417"/>
+      <c r="AP9" s="417"/>
+      <c r="AQ9" s="417"/>
+      <c r="AR9" s="417"/>
+      <c r="AS9" s="417"/>
+      <c r="AT9" s="417"/>
+      <c r="AU9" s="417"/>
+      <c r="AV9" s="417"/>
     </row>
     <row r="10" spans="1:49">
-      <c r="B10" s="558"/>
-      <c r="C10" s="558"/>
-      <c r="D10" s="558"/>
-      <c r="E10" s="558"/>
-      <c r="F10" s="558"/>
-      <c r="G10" s="558"/>
-      <c r="H10" s="558"/>
-      <c r="I10" s="558"/>
-      <c r="J10" s="558"/>
-      <c r="K10" s="558"/>
-      <c r="L10" s="558"/>
-      <c r="M10" s="558"/>
-      <c r="N10" s="558"/>
-      <c r="O10" s="558"/>
-      <c r="P10" s="558"/>
-      <c r="Q10" s="558"/>
-      <c r="R10" s="558"/>
-      <c r="S10" s="558"/>
-      <c r="T10" s="558"/>
-      <c r="U10" s="558"/>
-      <c r="V10" s="558"/>
-      <c r="W10" s="558"/>
-      <c r="X10" s="558"/>
-      <c r="Y10" s="558"/>
-      <c r="Z10" s="558"/>
-      <c r="AA10" s="558"/>
-      <c r="AB10" s="558"/>
-      <c r="AC10" s="558"/>
-      <c r="AD10" s="558"/>
-      <c r="AE10" s="558"/>
-      <c r="AF10" s="558"/>
-      <c r="AG10" s="558"/>
-      <c r="AH10" s="558"/>
-      <c r="AI10" s="558"/>
-      <c r="AJ10" s="558"/>
-      <c r="AK10" s="558"/>
-      <c r="AL10" s="558"/>
-      <c r="AM10" s="558"/>
-      <c r="AN10" s="558"/>
-      <c r="AO10" s="558"/>
-      <c r="AP10" s="558"/>
-      <c r="AQ10" s="558"/>
-      <c r="AR10" s="558"/>
-      <c r="AS10" s="558"/>
-      <c r="AT10" s="558"/>
-      <c r="AU10" s="558"/>
-      <c r="AV10" s="558"/>
+      <c r="B10" s="417"/>
+      <c r="C10" s="417"/>
+      <c r="D10" s="417"/>
+      <c r="E10" s="417"/>
+      <c r="F10" s="417"/>
+      <c r="G10" s="417"/>
+      <c r="H10" s="417"/>
+      <c r="I10" s="417"/>
+      <c r="J10" s="417"/>
+      <c r="K10" s="417"/>
+      <c r="L10" s="417"/>
+      <c r="M10" s="417"/>
+      <c r="N10" s="417"/>
+      <c r="O10" s="417"/>
+      <c r="P10" s="417"/>
+      <c r="Q10" s="417"/>
+      <c r="R10" s="417"/>
+      <c r="S10" s="417"/>
+      <c r="T10" s="417"/>
+      <c r="U10" s="417"/>
+      <c r="V10" s="417"/>
+      <c r="W10" s="417"/>
+      <c r="X10" s="417"/>
+      <c r="Y10" s="417"/>
+      <c r="Z10" s="417"/>
+      <c r="AA10" s="417"/>
+      <c r="AB10" s="417"/>
+      <c r="AC10" s="417"/>
+      <c r="AD10" s="417"/>
+      <c r="AE10" s="417"/>
+      <c r="AF10" s="417"/>
+      <c r="AG10" s="417"/>
+      <c r="AH10" s="417"/>
+      <c r="AI10" s="417"/>
+      <c r="AJ10" s="417"/>
+      <c r="AK10" s="417"/>
+      <c r="AL10" s="417"/>
+      <c r="AM10" s="417"/>
+      <c r="AN10" s="417"/>
+      <c r="AO10" s="417"/>
+      <c r="AP10" s="417"/>
+      <c r="AQ10" s="417"/>
+      <c r="AR10" s="417"/>
+      <c r="AS10" s="417"/>
+      <c r="AT10" s="417"/>
+      <c r="AU10" s="417"/>
+      <c r="AV10" s="417"/>
     </row>
     <row r="12" spans="1:49">
-      <c r="B12" s="559" t="s">
+      <c r="B12" s="418" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="559"/>
-      <c r="D12" s="559"/>
-      <c r="E12" s="559"/>
-      <c r="F12" s="559"/>
-      <c r="G12" s="559"/>
-      <c r="H12" s="559"/>
-      <c r="I12" s="559"/>
-      <c r="J12" s="559"/>
-      <c r="K12" s="559"/>
-      <c r="L12" s="559"/>
-      <c r="M12" s="559"/>
-      <c r="N12" s="559"/>
-      <c r="O12" s="559"/>
-      <c r="P12" s="559"/>
-      <c r="Q12" s="559"/>
-      <c r="R12" s="559"/>
-      <c r="S12" s="559"/>
-      <c r="T12" s="559"/>
-      <c r="U12" s="559"/>
-      <c r="V12" s="559"/>
-      <c r="W12" s="559"/>
-      <c r="X12" s="559"/>
-      <c r="Y12" s="559"/>
-      <c r="Z12" s="559"/>
-      <c r="AA12" s="559"/>
-      <c r="AB12" s="559"/>
-      <c r="AC12" s="559"/>
-      <c r="AD12" s="559"/>
-      <c r="AE12" s="559"/>
-      <c r="AF12" s="559"/>
-      <c r="AG12" s="559"/>
-      <c r="AH12" s="559"/>
-      <c r="AI12" s="559"/>
-      <c r="AJ12" s="559"/>
-      <c r="AK12" s="559"/>
-      <c r="AL12" s="559"/>
-      <c r="AM12" s="559"/>
-      <c r="AN12" s="559"/>
-      <c r="AO12" s="559"/>
-      <c r="AP12" s="559"/>
-      <c r="AQ12" s="559"/>
-      <c r="AR12" s="559"/>
-      <c r="AS12" s="559"/>
-      <c r="AT12" s="559"/>
-      <c r="AU12" s="559"/>
-      <c r="AV12" s="559"/>
+      <c r="C12" s="418"/>
+      <c r="D12" s="418"/>
+      <c r="E12" s="418"/>
+      <c r="F12" s="418"/>
+      <c r="G12" s="418"/>
+      <c r="H12" s="418"/>
+      <c r="I12" s="418"/>
+      <c r="J12" s="418"/>
+      <c r="K12" s="418"/>
+      <c r="L12" s="418"/>
+      <c r="M12" s="418"/>
+      <c r="N12" s="418"/>
+      <c r="O12" s="418"/>
+      <c r="P12" s="418"/>
+      <c r="Q12" s="418"/>
+      <c r="R12" s="418"/>
+      <c r="S12" s="418"/>
+      <c r="T12" s="418"/>
+      <c r="U12" s="418"/>
+      <c r="V12" s="418"/>
+      <c r="W12" s="418"/>
+      <c r="X12" s="418"/>
+      <c r="Y12" s="418"/>
+      <c r="Z12" s="418"/>
+      <c r="AA12" s="418"/>
+      <c r="AB12" s="418"/>
+      <c r="AC12" s="418"/>
+      <c r="AD12" s="418"/>
+      <c r="AE12" s="418"/>
+      <c r="AF12" s="418"/>
+      <c r="AG12" s="418"/>
+      <c r="AH12" s="418"/>
+      <c r="AI12" s="418"/>
+      <c r="AJ12" s="418"/>
+      <c r="AK12" s="418"/>
+      <c r="AL12" s="418"/>
+      <c r="AM12" s="418"/>
+      <c r="AN12" s="418"/>
+      <c r="AO12" s="418"/>
+      <c r="AP12" s="418"/>
+      <c r="AQ12" s="418"/>
+      <c r="AR12" s="418"/>
+      <c r="AS12" s="418"/>
+      <c r="AT12" s="418"/>
+      <c r="AU12" s="418"/>
+      <c r="AV12" s="418"/>
     </row>
     <row r="13" spans="1:49">
-      <c r="B13" s="559"/>
-      <c r="C13" s="559"/>
-      <c r="D13" s="559"/>
-      <c r="E13" s="559"/>
-      <c r="F13" s="559"/>
-      <c r="G13" s="559"/>
-      <c r="H13" s="559"/>
-      <c r="I13" s="559"/>
-      <c r="J13" s="559"/>
-      <c r="K13" s="559"/>
-      <c r="L13" s="559"/>
-      <c r="M13" s="559"/>
-      <c r="N13" s="559"/>
-      <c r="O13" s="559"/>
-      <c r="P13" s="559"/>
-      <c r="Q13" s="559"/>
-      <c r="R13" s="559"/>
-      <c r="S13" s="559"/>
-      <c r="T13" s="559"/>
-      <c r="U13" s="559"/>
-      <c r="V13" s="559"/>
-      <c r="W13" s="559"/>
-      <c r="X13" s="559"/>
-      <c r="Y13" s="559"/>
-      <c r="Z13" s="559"/>
-      <c r="AA13" s="559"/>
-      <c r="AB13" s="559"/>
-      <c r="AC13" s="559"/>
-      <c r="AD13" s="559"/>
-      <c r="AE13" s="559"/>
-      <c r="AF13" s="559"/>
-      <c r="AG13" s="559"/>
-      <c r="AH13" s="559"/>
-      <c r="AI13" s="559"/>
-      <c r="AJ13" s="559"/>
-      <c r="AK13" s="559"/>
-      <c r="AL13" s="559"/>
-      <c r="AM13" s="559"/>
-      <c r="AN13" s="559"/>
-      <c r="AO13" s="559"/>
-      <c r="AP13" s="559"/>
-      <c r="AQ13" s="559"/>
-      <c r="AR13" s="559"/>
-      <c r="AS13" s="559"/>
-      <c r="AT13" s="559"/>
-      <c r="AU13" s="559"/>
-      <c r="AV13" s="559"/>
+      <c r="B13" s="418"/>
+      <c r="C13" s="418"/>
+      <c r="D13" s="418"/>
+      <c r="E13" s="418"/>
+      <c r="F13" s="418"/>
+      <c r="G13" s="418"/>
+      <c r="H13" s="418"/>
+      <c r="I13" s="418"/>
+      <c r="J13" s="418"/>
+      <c r="K13" s="418"/>
+      <c r="L13" s="418"/>
+      <c r="M13" s="418"/>
+      <c r="N13" s="418"/>
+      <c r="O13" s="418"/>
+      <c r="P13" s="418"/>
+      <c r="Q13" s="418"/>
+      <c r="R13" s="418"/>
+      <c r="S13" s="418"/>
+      <c r="T13" s="418"/>
+      <c r="U13" s="418"/>
+      <c r="V13" s="418"/>
+      <c r="W13" s="418"/>
+      <c r="X13" s="418"/>
+      <c r="Y13" s="418"/>
+      <c r="Z13" s="418"/>
+      <c r="AA13" s="418"/>
+      <c r="AB13" s="418"/>
+      <c r="AC13" s="418"/>
+      <c r="AD13" s="418"/>
+      <c r="AE13" s="418"/>
+      <c r="AF13" s="418"/>
+      <c r="AG13" s="418"/>
+      <c r="AH13" s="418"/>
+      <c r="AI13" s="418"/>
+      <c r="AJ13" s="418"/>
+      <c r="AK13" s="418"/>
+      <c r="AL13" s="418"/>
+      <c r="AM13" s="418"/>
+      <c r="AN13" s="418"/>
+      <c r="AO13" s="418"/>
+      <c r="AP13" s="418"/>
+      <c r="AQ13" s="418"/>
+      <c r="AR13" s="418"/>
+      <c r="AS13" s="418"/>
+      <c r="AT13" s="418"/>
+      <c r="AU13" s="418"/>
+      <c r="AV13" s="418"/>
     </row>
     <row r="14" spans="1:49">
-      <c r="B14" s="559"/>
-      <c r="C14" s="559"/>
-      <c r="D14" s="559"/>
-      <c r="E14" s="559"/>
-      <c r="F14" s="559"/>
-      <c r="G14" s="559"/>
-      <c r="H14" s="559"/>
-      <c r="I14" s="559"/>
-      <c r="J14" s="559"/>
-      <c r="K14" s="559"/>
-      <c r="L14" s="559"/>
-      <c r="M14" s="559"/>
-      <c r="N14" s="559"/>
-      <c r="O14" s="559"/>
-      <c r="P14" s="559"/>
-      <c r="Q14" s="559"/>
-      <c r="R14" s="559"/>
-      <c r="S14" s="559"/>
-      <c r="T14" s="559"/>
-      <c r="U14" s="559"/>
-      <c r="V14" s="559"/>
-      <c r="W14" s="559"/>
-      <c r="X14" s="559"/>
-      <c r="Y14" s="559"/>
-      <c r="Z14" s="559"/>
-      <c r="AA14" s="559"/>
-      <c r="AB14" s="559"/>
-      <c r="AC14" s="559"/>
-      <c r="AD14" s="559"/>
-      <c r="AE14" s="559"/>
-      <c r="AF14" s="559"/>
-      <c r="AG14" s="559"/>
-      <c r="AH14" s="559"/>
-      <c r="AI14" s="559"/>
-      <c r="AJ14" s="559"/>
-      <c r="AK14" s="559"/>
-      <c r="AL14" s="559"/>
-      <c r="AM14" s="559"/>
-      <c r="AN14" s="559"/>
-      <c r="AO14" s="559"/>
-      <c r="AP14" s="559"/>
-      <c r="AQ14" s="559"/>
-      <c r="AR14" s="559"/>
-      <c r="AS14" s="559"/>
-      <c r="AT14" s="559"/>
-      <c r="AU14" s="559"/>
-      <c r="AV14" s="559"/>
+      <c r="B14" s="418"/>
+      <c r="C14" s="418"/>
+      <c r="D14" s="418"/>
+      <c r="E14" s="418"/>
+      <c r="F14" s="418"/>
+      <c r="G14" s="418"/>
+      <c r="H14" s="418"/>
+      <c r="I14" s="418"/>
+      <c r="J14" s="418"/>
+      <c r="K14" s="418"/>
+      <c r="L14" s="418"/>
+      <c r="M14" s="418"/>
+      <c r="N14" s="418"/>
+      <c r="O14" s="418"/>
+      <c r="P14" s="418"/>
+      <c r="Q14" s="418"/>
+      <c r="R14" s="418"/>
+      <c r="S14" s="418"/>
+      <c r="T14" s="418"/>
+      <c r="U14" s="418"/>
+      <c r="V14" s="418"/>
+      <c r="W14" s="418"/>
+      <c r="X14" s="418"/>
+      <c r="Y14" s="418"/>
+      <c r="Z14" s="418"/>
+      <c r="AA14" s="418"/>
+      <c r="AB14" s="418"/>
+      <c r="AC14" s="418"/>
+      <c r="AD14" s="418"/>
+      <c r="AE14" s="418"/>
+      <c r="AF14" s="418"/>
+      <c r="AG14" s="418"/>
+      <c r="AH14" s="418"/>
+      <c r="AI14" s="418"/>
+      <c r="AJ14" s="418"/>
+      <c r="AK14" s="418"/>
+      <c r="AL14" s="418"/>
+      <c r="AM14" s="418"/>
+      <c r="AN14" s="418"/>
+      <c r="AO14" s="418"/>
+      <c r="AP14" s="418"/>
+      <c r="AQ14" s="418"/>
+      <c r="AR14" s="418"/>
+      <c r="AS14" s="418"/>
+      <c r="AT14" s="418"/>
+      <c r="AU14" s="418"/>
+      <c r="AV14" s="418"/>
     </row>
     <row r="15" spans="1:49">
-      <c r="B15" s="559"/>
-      <c r="C15" s="559"/>
-      <c r="D15" s="559"/>
-      <c r="E15" s="559"/>
-      <c r="F15" s="559"/>
-      <c r="G15" s="559"/>
-      <c r="H15" s="559"/>
-      <c r="I15" s="559"/>
-      <c r="J15" s="559"/>
-      <c r="K15" s="559"/>
-      <c r="L15" s="559"/>
-      <c r="M15" s="559"/>
-      <c r="N15" s="559"/>
-      <c r="O15" s="559"/>
-      <c r="P15" s="559"/>
-      <c r="Q15" s="559"/>
-      <c r="R15" s="559"/>
-      <c r="S15" s="559"/>
-      <c r="T15" s="559"/>
-      <c r="U15" s="559"/>
-      <c r="V15" s="559"/>
-      <c r="W15" s="559"/>
-      <c r="X15" s="559"/>
-      <c r="Y15" s="559"/>
-      <c r="Z15" s="559"/>
-      <c r="AA15" s="559"/>
-      <c r="AB15" s="559"/>
-      <c r="AC15" s="559"/>
-      <c r="AD15" s="559"/>
-      <c r="AE15" s="559"/>
-      <c r="AF15" s="559"/>
-      <c r="AG15" s="559"/>
-      <c r="AH15" s="559"/>
-      <c r="AI15" s="559"/>
-      <c r="AJ15" s="559"/>
-      <c r="AK15" s="559"/>
-      <c r="AL15" s="559"/>
-      <c r="AM15" s="559"/>
-      <c r="AN15" s="559"/>
-      <c r="AO15" s="559"/>
-      <c r="AP15" s="559"/>
-      <c r="AQ15" s="559"/>
-      <c r="AR15" s="559"/>
-      <c r="AS15" s="559"/>
-      <c r="AT15" s="559"/>
-      <c r="AU15" s="559"/>
-      <c r="AV15" s="559"/>
+      <c r="B15" s="418"/>
+      <c r="C15" s="418"/>
+      <c r="D15" s="418"/>
+      <c r="E15" s="418"/>
+      <c r="F15" s="418"/>
+      <c r="G15" s="418"/>
+      <c r="H15" s="418"/>
+      <c r="I15" s="418"/>
+      <c r="J15" s="418"/>
+      <c r="K15" s="418"/>
+      <c r="L15" s="418"/>
+      <c r="M15" s="418"/>
+      <c r="N15" s="418"/>
+      <c r="O15" s="418"/>
+      <c r="P15" s="418"/>
+      <c r="Q15" s="418"/>
+      <c r="R15" s="418"/>
+      <c r="S15" s="418"/>
+      <c r="T15" s="418"/>
+      <c r="U15" s="418"/>
+      <c r="V15" s="418"/>
+      <c r="W15" s="418"/>
+      <c r="X15" s="418"/>
+      <c r="Y15" s="418"/>
+      <c r="Z15" s="418"/>
+      <c r="AA15" s="418"/>
+      <c r="AB15" s="418"/>
+      <c r="AC15" s="418"/>
+      <c r="AD15" s="418"/>
+      <c r="AE15" s="418"/>
+      <c r="AF15" s="418"/>
+      <c r="AG15" s="418"/>
+      <c r="AH15" s="418"/>
+      <c r="AI15" s="418"/>
+      <c r="AJ15" s="418"/>
+      <c r="AK15" s="418"/>
+      <c r="AL15" s="418"/>
+      <c r="AM15" s="418"/>
+      <c r="AN15" s="418"/>
+      <c r="AO15" s="418"/>
+      <c r="AP15" s="418"/>
+      <c r="AQ15" s="418"/>
+      <c r="AR15" s="418"/>
+      <c r="AS15" s="418"/>
+      <c r="AT15" s="418"/>
+      <c r="AU15" s="418"/>
+      <c r="AV15" s="418"/>
     </row>
     <row r="21" spans="16:25">
       <c r="P21" s="26" t="s">
@@ -6918,187 +6918,187 @@
     </row>
     <row r="33" spans="1:49" ht="15" thickBot="1"/>
     <row r="34" spans="1:49" ht="15" customHeight="1" thickTop="1">
-      <c r="A34" s="356" t="s">
+      <c r="A34" s="364" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="357"/>
-      <c r="C34" s="357"/>
-      <c r="D34" s="357"/>
-      <c r="E34" s="357"/>
-      <c r="F34" s="357"/>
-      <c r="G34" s="357"/>
-      <c r="H34" s="357"/>
-      <c r="I34" s="358"/>
-      <c r="J34" s="365" t="s">
+      <c r="B34" s="365"/>
+      <c r="C34" s="365"/>
+      <c r="D34" s="365"/>
+      <c r="E34" s="365"/>
+      <c r="F34" s="365"/>
+      <c r="G34" s="365"/>
+      <c r="H34" s="365"/>
+      <c r="I34" s="366"/>
+      <c r="J34" s="373" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="366"/>
-      <c r="L34" s="366"/>
-      <c r="M34" s="366"/>
-      <c r="N34" s="366"/>
-      <c r="O34" s="367"/>
-      <c r="P34" s="365" t="s">
+      <c r="K34" s="374"/>
+      <c r="L34" s="374"/>
+      <c r="M34" s="374"/>
+      <c r="N34" s="374"/>
+      <c r="O34" s="375"/>
+      <c r="P34" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="366"/>
-      <c r="R34" s="366"/>
-      <c r="S34" s="366"/>
-      <c r="T34" s="366"/>
-      <c r="U34" s="367"/>
-      <c r="V34" s="374" t="s">
+      <c r="Q34" s="374"/>
+      <c r="R34" s="374"/>
+      <c r="S34" s="374"/>
+      <c r="T34" s="374"/>
+      <c r="U34" s="375"/>
+      <c r="V34" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="W34" s="375"/>
-      <c r="X34" s="375"/>
-      <c r="Y34" s="375"/>
-      <c r="Z34" s="376"/>
-      <c r="AA34" s="380" t="s">
+      <c r="W34" s="389"/>
+      <c r="X34" s="389"/>
+      <c r="Y34" s="389"/>
+      <c r="Z34" s="390"/>
+      <c r="AA34" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="AB34" s="366"/>
-      <c r="AC34" s="366"/>
-      <c r="AD34" s="366"/>
-      <c r="AE34" s="366"/>
-      <c r="AF34" s="366"/>
-      <c r="AG34" s="366"/>
-      <c r="AH34" s="366"/>
-      <c r="AI34" s="366"/>
-      <c r="AJ34" s="366"/>
-      <c r="AK34" s="366"/>
-      <c r="AL34" s="367"/>
-      <c r="AM34" s="384" t="s">
+      <c r="AB34" s="374"/>
+      <c r="AC34" s="374"/>
+      <c r="AD34" s="374"/>
+      <c r="AE34" s="374"/>
+      <c r="AF34" s="374"/>
+      <c r="AG34" s="374"/>
+      <c r="AH34" s="374"/>
+      <c r="AI34" s="374"/>
+      <c r="AJ34" s="374"/>
+      <c r="AK34" s="374"/>
+      <c r="AL34" s="375"/>
+      <c r="AM34" s="396" t="s">
         <v>4</v>
       </c>
-      <c r="AN34" s="385"/>
-      <c r="AO34" s="386" t="s">
+      <c r="AN34" s="397"/>
+      <c r="AO34" s="402" t="s">
         <v>99</v>
       </c>
-      <c r="AP34" s="387"/>
-      <c r="AQ34" s="388"/>
-      <c r="AR34" s="384" t="s">
+      <c r="AP34" s="403"/>
+      <c r="AQ34" s="404"/>
+      <c r="AR34" s="396" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="385"/>
-      <c r="AT34" s="389">
+      <c r="AS34" s="397"/>
+      <c r="AT34" s="413">
         <v>45056</v>
       </c>
-      <c r="AU34" s="390"/>
-      <c r="AV34" s="390"/>
-      <c r="AW34" s="391"/>
+      <c r="AU34" s="414"/>
+      <c r="AV34" s="414"/>
+      <c r="AW34" s="415"/>
     </row>
     <row r="35" spans="1:49">
-      <c r="A35" s="359"/>
-      <c r="B35" s="360"/>
-      <c r="C35" s="360"/>
-      <c r="D35" s="360"/>
-      <c r="E35" s="360"/>
-      <c r="F35" s="360"/>
-      <c r="G35" s="360"/>
-      <c r="H35" s="360"/>
-      <c r="I35" s="361"/>
-      <c r="J35" s="368"/>
-      <c r="K35" s="369"/>
-      <c r="L35" s="369"/>
-      <c r="M35" s="369"/>
-      <c r="N35" s="369"/>
-      <c r="O35" s="370"/>
-      <c r="P35" s="368"/>
-      <c r="Q35" s="369"/>
-      <c r="R35" s="369"/>
-      <c r="S35" s="369"/>
-      <c r="T35" s="369"/>
-      <c r="U35" s="370"/>
-      <c r="V35" s="377"/>
-      <c r="W35" s="378"/>
-      <c r="X35" s="378"/>
-      <c r="Y35" s="378"/>
-      <c r="Z35" s="379"/>
-      <c r="AA35" s="381"/>
-      <c r="AB35" s="382"/>
-      <c r="AC35" s="382"/>
-      <c r="AD35" s="382"/>
-      <c r="AE35" s="382"/>
-      <c r="AF35" s="382"/>
-      <c r="AG35" s="382"/>
-      <c r="AH35" s="382"/>
-      <c r="AI35" s="382"/>
-      <c r="AJ35" s="382"/>
-      <c r="AK35" s="382"/>
-      <c r="AL35" s="383"/>
-      <c r="AM35" s="392" t="s">
+      <c r="A35" s="367"/>
+      <c r="B35" s="368"/>
+      <c r="C35" s="368"/>
+      <c r="D35" s="368"/>
+      <c r="E35" s="368"/>
+      <c r="F35" s="368"/>
+      <c r="G35" s="368"/>
+      <c r="H35" s="368"/>
+      <c r="I35" s="369"/>
+      <c r="J35" s="376"/>
+      <c r="K35" s="419"/>
+      <c r="L35" s="419"/>
+      <c r="M35" s="419"/>
+      <c r="N35" s="419"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="376"/>
+      <c r="Q35" s="419"/>
+      <c r="R35" s="419"/>
+      <c r="S35" s="419"/>
+      <c r="T35" s="419"/>
+      <c r="U35" s="378"/>
+      <c r="V35" s="420"/>
+      <c r="W35" s="421"/>
+      <c r="X35" s="421"/>
+      <c r="Y35" s="421"/>
+      <c r="Z35" s="422"/>
+      <c r="AA35" s="423"/>
+      <c r="AB35" s="424"/>
+      <c r="AC35" s="424"/>
+      <c r="AD35" s="424"/>
+      <c r="AE35" s="424"/>
+      <c r="AF35" s="424"/>
+      <c r="AG35" s="424"/>
+      <c r="AH35" s="424"/>
+      <c r="AI35" s="424"/>
+      <c r="AJ35" s="424"/>
+      <c r="AK35" s="424"/>
+      <c r="AL35" s="425"/>
+      <c r="AM35" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="AN35" s="393"/>
-      <c r="AO35" s="394"/>
-      <c r="AP35" s="395"/>
-      <c r="AQ35" s="396"/>
-      <c r="AR35" s="392" t="s">
+      <c r="AN35" s="406"/>
+      <c r="AO35" s="407"/>
+      <c r="AP35" s="408"/>
+      <c r="AQ35" s="409"/>
+      <c r="AR35" s="405" t="s">
         <v>7</v>
       </c>
-      <c r="AS35" s="393"/>
-      <c r="AT35" s="397"/>
-      <c r="AU35" s="398"/>
-      <c r="AV35" s="398"/>
-      <c r="AW35" s="399"/>
+      <c r="AS35" s="406"/>
+      <c r="AT35" s="410"/>
+      <c r="AU35" s="411"/>
+      <c r="AV35" s="411"/>
+      <c r="AW35" s="412"/>
     </row>
     <row r="36" spans="1:49" ht="15" thickBot="1">
-      <c r="A36" s="362"/>
-      <c r="B36" s="363"/>
-      <c r="C36" s="363"/>
-      <c r="D36" s="363"/>
-      <c r="E36" s="363"/>
-      <c r="F36" s="363"/>
-      <c r="G36" s="363"/>
-      <c r="H36" s="363"/>
-      <c r="I36" s="364"/>
-      <c r="J36" s="371"/>
-      <c r="K36" s="372"/>
-      <c r="L36" s="372"/>
-      <c r="M36" s="372"/>
-      <c r="N36" s="372"/>
-      <c r="O36" s="373"/>
-      <c r="P36" s="371"/>
-      <c r="Q36" s="372"/>
-      <c r="R36" s="372"/>
-      <c r="S36" s="372"/>
-      <c r="T36" s="372"/>
-      <c r="U36" s="373"/>
-      <c r="V36" s="400" t="s">
+      <c r="A36" s="370"/>
+      <c r="B36" s="371"/>
+      <c r="C36" s="371"/>
+      <c r="D36" s="371"/>
+      <c r="E36" s="371"/>
+      <c r="F36" s="371"/>
+      <c r="G36" s="371"/>
+      <c r="H36" s="371"/>
+      <c r="I36" s="372"/>
+      <c r="J36" s="379"/>
+      <c r="K36" s="380"/>
+      <c r="L36" s="380"/>
+      <c r="M36" s="380"/>
+      <c r="N36" s="380"/>
+      <c r="O36" s="381"/>
+      <c r="P36" s="379"/>
+      <c r="Q36" s="380"/>
+      <c r="R36" s="380"/>
+      <c r="S36" s="380"/>
+      <c r="T36" s="380"/>
+      <c r="U36" s="381"/>
+      <c r="V36" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="W36" s="401"/>
-      <c r="X36" s="401"/>
-      <c r="Y36" s="401"/>
-      <c r="Z36" s="402"/>
-      <c r="AA36" s="403" t="s">
+      <c r="W36" s="386"/>
+      <c r="X36" s="386"/>
+      <c r="Y36" s="386"/>
+      <c r="Z36" s="387"/>
+      <c r="AA36" s="382" t="s">
         <v>128</v>
       </c>
-      <c r="AB36" s="404"/>
-      <c r="AC36" s="404"/>
-      <c r="AD36" s="404"/>
-      <c r="AE36" s="404"/>
-      <c r="AF36" s="404"/>
-      <c r="AG36" s="405"/>
-      <c r="AH36" s="406" t="s">
+      <c r="AB36" s="383"/>
+      <c r="AC36" s="383"/>
+      <c r="AD36" s="383"/>
+      <c r="AE36" s="383"/>
+      <c r="AF36" s="383"/>
+      <c r="AG36" s="384"/>
+      <c r="AH36" s="398" t="s">
         <v>9</v>
       </c>
-      <c r="AI36" s="407"/>
-      <c r="AJ36" s="407"/>
-      <c r="AK36" s="407"/>
-      <c r="AL36" s="408"/>
-      <c r="AM36" s="403" t="s">
+      <c r="AI36" s="399"/>
+      <c r="AJ36" s="399"/>
+      <c r="AK36" s="399"/>
+      <c r="AL36" s="400"/>
+      <c r="AM36" s="382" t="s">
         <v>98</v>
       </c>
-      <c r="AN36" s="404"/>
-      <c r="AO36" s="404"/>
-      <c r="AP36" s="404"/>
-      <c r="AQ36" s="404"/>
-      <c r="AR36" s="404"/>
-      <c r="AS36" s="404"/>
-      <c r="AT36" s="404"/>
-      <c r="AU36" s="404"/>
-      <c r="AV36" s="404"/>
-      <c r="AW36" s="430"/>
+      <c r="AN36" s="383"/>
+      <c r="AO36" s="383"/>
+      <c r="AP36" s="383"/>
+      <c r="AQ36" s="383"/>
+      <c r="AR36" s="383"/>
+      <c r="AS36" s="383"/>
+      <c r="AT36" s="383"/>
+      <c r="AU36" s="383"/>
+      <c r="AV36" s="383"/>
+      <c r="AW36" s="401"/>
     </row>
     <row r="37" spans="1:49" ht="15" thickTop="1">
       <c r="A37" s="223"/>
@@ -7257,1356 +7257,1356 @@
     </row>
     <row r="40" spans="1:49">
       <c r="A40" s="223"/>
-      <c r="B40" s="536" t="s">
+      <c r="B40" s="426" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="537"/>
-      <c r="D40" s="540" t="s">
+      <c r="C40" s="427"/>
+      <c r="D40" s="430" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="541"/>
-      <c r="F40" s="541"/>
-      <c r="G40" s="541"/>
-      <c r="H40" s="542"/>
-      <c r="I40" s="536" t="s">
+      <c r="E40" s="431"/>
+      <c r="F40" s="431"/>
+      <c r="G40" s="431"/>
+      <c r="H40" s="432"/>
+      <c r="I40" s="426" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="546"/>
-      <c r="K40" s="546"/>
-      <c r="L40" s="546"/>
-      <c r="M40" s="546"/>
-      <c r="N40" s="546"/>
-      <c r="O40" s="546"/>
-      <c r="P40" s="546"/>
-      <c r="Q40" s="546"/>
-      <c r="R40" s="546"/>
-      <c r="S40" s="546"/>
-      <c r="T40" s="546"/>
-      <c r="U40" s="546"/>
-      <c r="V40" s="546"/>
-      <c r="W40" s="546"/>
-      <c r="X40" s="546"/>
-      <c r="Y40" s="546"/>
-      <c r="Z40" s="537"/>
-      <c r="AA40" s="540" t="s">
+      <c r="J40" s="436"/>
+      <c r="K40" s="436"/>
+      <c r="L40" s="436"/>
+      <c r="M40" s="436"/>
+      <c r="N40" s="436"/>
+      <c r="O40" s="436"/>
+      <c r="P40" s="436"/>
+      <c r="Q40" s="436"/>
+      <c r="R40" s="436"/>
+      <c r="S40" s="436"/>
+      <c r="T40" s="436"/>
+      <c r="U40" s="436"/>
+      <c r="V40" s="436"/>
+      <c r="W40" s="436"/>
+      <c r="X40" s="436"/>
+      <c r="Y40" s="436"/>
+      <c r="Z40" s="427"/>
+      <c r="AA40" s="430" t="s">
         <v>6</v>
       </c>
-      <c r="AB40" s="541"/>
-      <c r="AC40" s="541"/>
-      <c r="AD40" s="542"/>
-      <c r="AE40" s="551"/>
-      <c r="AF40" s="552"/>
-      <c r="AG40" s="552"/>
-      <c r="AH40" s="552"/>
-      <c r="AI40" s="552"/>
-      <c r="AJ40" s="552"/>
-      <c r="AK40" s="552"/>
-      <c r="AL40" s="552"/>
-      <c r="AM40" s="553"/>
-      <c r="AN40" s="554"/>
-      <c r="AO40" s="555"/>
-      <c r="AP40" s="555"/>
-      <c r="AQ40" s="555"/>
-      <c r="AR40" s="555"/>
-      <c r="AS40" s="555"/>
-      <c r="AT40" s="555"/>
-      <c r="AU40" s="555"/>
-      <c r="AV40" s="556"/>
+      <c r="AB40" s="431"/>
+      <c r="AC40" s="431"/>
+      <c r="AD40" s="432"/>
+      <c r="AE40" s="441"/>
+      <c r="AF40" s="442"/>
+      <c r="AG40" s="442"/>
+      <c r="AH40" s="442"/>
+      <c r="AI40" s="442"/>
+      <c r="AJ40" s="442"/>
+      <c r="AK40" s="442"/>
+      <c r="AL40" s="442"/>
+      <c r="AM40" s="443"/>
+      <c r="AN40" s="444"/>
+      <c r="AO40" s="445"/>
+      <c r="AP40" s="445"/>
+      <c r="AQ40" s="445"/>
+      <c r="AR40" s="445"/>
+      <c r="AS40" s="445"/>
+      <c r="AT40" s="445"/>
+      <c r="AU40" s="445"/>
+      <c r="AV40" s="446"/>
       <c r="AW40" s="223"/>
     </row>
     <row r="41" spans="1:49">
       <c r="A41" s="223"/>
-      <c r="B41" s="538"/>
-      <c r="C41" s="539"/>
-      <c r="D41" s="543"/>
-      <c r="E41" s="544"/>
-      <c r="F41" s="544"/>
-      <c r="G41" s="544"/>
-      <c r="H41" s="545"/>
-      <c r="I41" s="538"/>
-      <c r="J41" s="547"/>
-      <c r="K41" s="547"/>
-      <c r="L41" s="547"/>
-      <c r="M41" s="547"/>
-      <c r="N41" s="547"/>
-      <c r="O41" s="547"/>
-      <c r="P41" s="547"/>
-      <c r="Q41" s="547"/>
-      <c r="R41" s="547"/>
-      <c r="S41" s="547"/>
-      <c r="T41" s="547"/>
-      <c r="U41" s="547"/>
-      <c r="V41" s="547"/>
-      <c r="W41" s="547"/>
-      <c r="X41" s="547"/>
-      <c r="Y41" s="547"/>
-      <c r="Z41" s="539"/>
-      <c r="AA41" s="548"/>
-      <c r="AB41" s="549"/>
-      <c r="AC41" s="549"/>
-      <c r="AD41" s="550"/>
-      <c r="AE41" s="551" t="s">
+      <c r="B41" s="428"/>
+      <c r="C41" s="429"/>
+      <c r="D41" s="433"/>
+      <c r="E41" s="434"/>
+      <c r="F41" s="434"/>
+      <c r="G41" s="434"/>
+      <c r="H41" s="435"/>
+      <c r="I41" s="428"/>
+      <c r="J41" s="437"/>
+      <c r="K41" s="437"/>
+      <c r="L41" s="437"/>
+      <c r="M41" s="437"/>
+      <c r="N41" s="437"/>
+      <c r="O41" s="437"/>
+      <c r="P41" s="437"/>
+      <c r="Q41" s="437"/>
+      <c r="R41" s="437"/>
+      <c r="S41" s="437"/>
+      <c r="T41" s="437"/>
+      <c r="U41" s="437"/>
+      <c r="V41" s="437"/>
+      <c r="W41" s="437"/>
+      <c r="X41" s="437"/>
+      <c r="Y41" s="437"/>
+      <c r="Z41" s="429"/>
+      <c r="AA41" s="438"/>
+      <c r="AB41" s="439"/>
+      <c r="AC41" s="439"/>
+      <c r="AD41" s="440"/>
+      <c r="AE41" s="441" t="s">
         <v>25</v>
       </c>
-      <c r="AF41" s="552"/>
-      <c r="AG41" s="552"/>
-      <c r="AH41" s="552"/>
-      <c r="AI41" s="553"/>
-      <c r="AJ41" s="551" t="s">
+      <c r="AF41" s="442"/>
+      <c r="AG41" s="442"/>
+      <c r="AH41" s="442"/>
+      <c r="AI41" s="443"/>
+      <c r="AJ41" s="441" t="s">
         <v>26</v>
       </c>
-      <c r="AK41" s="552"/>
-      <c r="AL41" s="552"/>
-      <c r="AM41" s="553"/>
-      <c r="AN41" s="551" t="s">
+      <c r="AK41" s="442"/>
+      <c r="AL41" s="442"/>
+      <c r="AM41" s="443"/>
+      <c r="AN41" s="441" t="s">
         <v>25</v>
       </c>
-      <c r="AO41" s="552"/>
-      <c r="AP41" s="552"/>
-      <c r="AQ41" s="552"/>
-      <c r="AR41" s="553"/>
-      <c r="AS41" s="551" t="s">
+      <c r="AO41" s="442"/>
+      <c r="AP41" s="442"/>
+      <c r="AQ41" s="442"/>
+      <c r="AR41" s="443"/>
+      <c r="AS41" s="441" t="s">
         <v>26</v>
       </c>
-      <c r="AT41" s="552"/>
-      <c r="AU41" s="552"/>
-      <c r="AV41" s="553"/>
+      <c r="AT41" s="442"/>
+      <c r="AU41" s="442"/>
+      <c r="AV41" s="443"/>
       <c r="AW41" s="223"/>
     </row>
     <row r="42" spans="1:49">
       <c r="A42" s="223"/>
-      <c r="B42" s="468">
+      <c r="B42" s="447">
         <v>1</v>
       </c>
-      <c r="C42" s="469"/>
-      <c r="D42" s="472">
+      <c r="C42" s="448"/>
+      <c r="D42" s="451">
         <v>45056</v>
       </c>
-      <c r="E42" s="473"/>
-      <c r="F42" s="473"/>
-      <c r="G42" s="473"/>
-      <c r="H42" s="474"/>
-      <c r="I42" s="478" t="s">
+      <c r="E42" s="452"/>
+      <c r="F42" s="452"/>
+      <c r="G42" s="452"/>
+      <c r="H42" s="453"/>
+      <c r="I42" s="457" t="s">
         <v>167</v>
       </c>
-      <c r="J42" s="479"/>
-      <c r="K42" s="479"/>
-      <c r="L42" s="479"/>
-      <c r="M42" s="479"/>
-      <c r="N42" s="479"/>
-      <c r="O42" s="479"/>
-      <c r="P42" s="479"/>
-      <c r="Q42" s="479"/>
-      <c r="R42" s="479"/>
-      <c r="S42" s="479"/>
-      <c r="T42" s="479"/>
-      <c r="U42" s="479"/>
-      <c r="V42" s="479"/>
-      <c r="W42" s="479"/>
-      <c r="X42" s="479"/>
-      <c r="Y42" s="479"/>
-      <c r="Z42" s="480"/>
-      <c r="AA42" s="484" t="s">
+      <c r="J42" s="458"/>
+      <c r="K42" s="458"/>
+      <c r="L42" s="458"/>
+      <c r="M42" s="458"/>
+      <c r="N42" s="458"/>
+      <c r="O42" s="458"/>
+      <c r="P42" s="458"/>
+      <c r="Q42" s="458"/>
+      <c r="R42" s="458"/>
+      <c r="S42" s="458"/>
+      <c r="T42" s="458"/>
+      <c r="U42" s="458"/>
+      <c r="V42" s="458"/>
+      <c r="W42" s="458"/>
+      <c r="X42" s="458"/>
+      <c r="Y42" s="458"/>
+      <c r="Z42" s="459"/>
+      <c r="AA42" s="463" t="s">
         <v>99</v>
       </c>
-      <c r="AB42" s="485"/>
-      <c r="AC42" s="485"/>
-      <c r="AD42" s="486"/>
-      <c r="AE42" s="490">
+      <c r="AB42" s="464"/>
+      <c r="AC42" s="464"/>
+      <c r="AD42" s="465"/>
+      <c r="AE42" s="469">
         <v>45056</v>
       </c>
-      <c r="AF42" s="491"/>
-      <c r="AG42" s="491"/>
-      <c r="AH42" s="491"/>
-      <c r="AI42" s="492"/>
-      <c r="AJ42" s="484" t="s">
+      <c r="AF42" s="470"/>
+      <c r="AG42" s="470"/>
+      <c r="AH42" s="470"/>
+      <c r="AI42" s="471"/>
+      <c r="AJ42" s="463" t="s">
         <v>63</v>
       </c>
-      <c r="AK42" s="485"/>
-      <c r="AL42" s="485"/>
-      <c r="AM42" s="486"/>
-      <c r="AN42" s="496"/>
-      <c r="AO42" s="497"/>
-      <c r="AP42" s="497"/>
-      <c r="AQ42" s="497"/>
-      <c r="AR42" s="498"/>
-      <c r="AS42" s="502"/>
-      <c r="AT42" s="503"/>
-      <c r="AU42" s="503"/>
-      <c r="AV42" s="504"/>
+      <c r="AK42" s="464"/>
+      <c r="AL42" s="464"/>
+      <c r="AM42" s="465"/>
+      <c r="AN42" s="475"/>
+      <c r="AO42" s="476"/>
+      <c r="AP42" s="476"/>
+      <c r="AQ42" s="476"/>
+      <c r="AR42" s="477"/>
+      <c r="AS42" s="481"/>
+      <c r="AT42" s="482"/>
+      <c r="AU42" s="482"/>
+      <c r="AV42" s="483"/>
       <c r="AW42" s="223"/>
     </row>
     <row r="43" spans="1:49">
       <c r="A43" s="223"/>
-      <c r="B43" s="470"/>
-      <c r="C43" s="471"/>
-      <c r="D43" s="475"/>
-      <c r="E43" s="476"/>
-      <c r="F43" s="476"/>
-      <c r="G43" s="476"/>
-      <c r="H43" s="477"/>
-      <c r="I43" s="481"/>
-      <c r="J43" s="482"/>
-      <c r="K43" s="482"/>
-      <c r="L43" s="482"/>
-      <c r="M43" s="482"/>
-      <c r="N43" s="482"/>
-      <c r="O43" s="482"/>
-      <c r="P43" s="482"/>
-      <c r="Q43" s="482"/>
-      <c r="R43" s="482"/>
-      <c r="S43" s="482"/>
-      <c r="T43" s="482"/>
-      <c r="U43" s="482"/>
-      <c r="V43" s="482"/>
-      <c r="W43" s="482"/>
-      <c r="X43" s="482"/>
-      <c r="Y43" s="482"/>
-      <c r="Z43" s="483"/>
-      <c r="AA43" s="487"/>
-      <c r="AB43" s="488"/>
-      <c r="AC43" s="488"/>
-      <c r="AD43" s="489"/>
-      <c r="AE43" s="493"/>
-      <c r="AF43" s="494"/>
-      <c r="AG43" s="494"/>
-      <c r="AH43" s="494"/>
-      <c r="AI43" s="495"/>
-      <c r="AJ43" s="487"/>
-      <c r="AK43" s="488"/>
-      <c r="AL43" s="488"/>
-      <c r="AM43" s="489"/>
-      <c r="AN43" s="499"/>
-      <c r="AO43" s="500"/>
-      <c r="AP43" s="500"/>
-      <c r="AQ43" s="500"/>
-      <c r="AR43" s="501"/>
-      <c r="AS43" s="505"/>
-      <c r="AT43" s="506"/>
-      <c r="AU43" s="506"/>
-      <c r="AV43" s="507"/>
+      <c r="B43" s="449"/>
+      <c r="C43" s="450"/>
+      <c r="D43" s="454"/>
+      <c r="E43" s="455"/>
+      <c r="F43" s="455"/>
+      <c r="G43" s="455"/>
+      <c r="H43" s="456"/>
+      <c r="I43" s="460"/>
+      <c r="J43" s="461"/>
+      <c r="K43" s="461"/>
+      <c r="L43" s="461"/>
+      <c r="M43" s="461"/>
+      <c r="N43" s="461"/>
+      <c r="O43" s="461"/>
+      <c r="P43" s="461"/>
+      <c r="Q43" s="461"/>
+      <c r="R43" s="461"/>
+      <c r="S43" s="461"/>
+      <c r="T43" s="461"/>
+      <c r="U43" s="461"/>
+      <c r="V43" s="461"/>
+      <c r="W43" s="461"/>
+      <c r="X43" s="461"/>
+      <c r="Y43" s="461"/>
+      <c r="Z43" s="462"/>
+      <c r="AA43" s="466"/>
+      <c r="AB43" s="467"/>
+      <c r="AC43" s="467"/>
+      <c r="AD43" s="468"/>
+      <c r="AE43" s="472"/>
+      <c r="AF43" s="473"/>
+      <c r="AG43" s="473"/>
+      <c r="AH43" s="473"/>
+      <c r="AI43" s="474"/>
+      <c r="AJ43" s="466"/>
+      <c r="AK43" s="467"/>
+      <c r="AL43" s="467"/>
+      <c r="AM43" s="468"/>
+      <c r="AN43" s="478"/>
+      <c r="AO43" s="479"/>
+      <c r="AP43" s="479"/>
+      <c r="AQ43" s="479"/>
+      <c r="AR43" s="480"/>
+      <c r="AS43" s="484"/>
+      <c r="AT43" s="485"/>
+      <c r="AU43" s="485"/>
+      <c r="AV43" s="486"/>
       <c r="AW43" s="223"/>
     </row>
     <row r="44" spans="1:49">
       <c r="A44" s="223"/>
-      <c r="B44" s="508"/>
-      <c r="C44" s="509"/>
-      <c r="D44" s="512"/>
-      <c r="E44" s="513"/>
-      <c r="F44" s="513"/>
-      <c r="G44" s="513"/>
-      <c r="H44" s="514"/>
-      <c r="I44" s="518"/>
-      <c r="J44" s="519"/>
-      <c r="K44" s="519"/>
-      <c r="L44" s="519"/>
-      <c r="M44" s="519"/>
-      <c r="N44" s="519"/>
-      <c r="O44" s="519"/>
-      <c r="P44" s="519"/>
-      <c r="Q44" s="519"/>
-      <c r="R44" s="519"/>
-      <c r="S44" s="519"/>
-      <c r="T44" s="519"/>
-      <c r="U44" s="519"/>
-      <c r="V44" s="519"/>
-      <c r="W44" s="519"/>
-      <c r="X44" s="519"/>
-      <c r="Y44" s="519"/>
-      <c r="Z44" s="520"/>
-      <c r="AA44" s="524"/>
-      <c r="AB44" s="525"/>
-      <c r="AC44" s="525"/>
-      <c r="AD44" s="526"/>
-      <c r="AE44" s="530"/>
-      <c r="AF44" s="531"/>
-      <c r="AG44" s="531"/>
-      <c r="AH44" s="531"/>
-      <c r="AI44" s="532"/>
-      <c r="AJ44" s="524"/>
-      <c r="AK44" s="525"/>
-      <c r="AL44" s="525"/>
-      <c r="AM44" s="526"/>
-      <c r="AN44" s="530"/>
-      <c r="AO44" s="531"/>
-      <c r="AP44" s="531"/>
-      <c r="AQ44" s="531"/>
-      <c r="AR44" s="532"/>
-      <c r="AS44" s="524"/>
-      <c r="AT44" s="525"/>
-      <c r="AU44" s="525"/>
-      <c r="AV44" s="526"/>
+      <c r="B44" s="487"/>
+      <c r="C44" s="488"/>
+      <c r="D44" s="491"/>
+      <c r="E44" s="492"/>
+      <c r="F44" s="492"/>
+      <c r="G44" s="492"/>
+      <c r="H44" s="493"/>
+      <c r="I44" s="497"/>
+      <c r="J44" s="498"/>
+      <c r="K44" s="498"/>
+      <c r="L44" s="498"/>
+      <c r="M44" s="498"/>
+      <c r="N44" s="498"/>
+      <c r="O44" s="498"/>
+      <c r="P44" s="498"/>
+      <c r="Q44" s="498"/>
+      <c r="R44" s="498"/>
+      <c r="S44" s="498"/>
+      <c r="T44" s="498"/>
+      <c r="U44" s="498"/>
+      <c r="V44" s="498"/>
+      <c r="W44" s="498"/>
+      <c r="X44" s="498"/>
+      <c r="Y44" s="498"/>
+      <c r="Z44" s="499"/>
+      <c r="AA44" s="503"/>
+      <c r="AB44" s="504"/>
+      <c r="AC44" s="504"/>
+      <c r="AD44" s="505"/>
+      <c r="AE44" s="509"/>
+      <c r="AF44" s="510"/>
+      <c r="AG44" s="510"/>
+      <c r="AH44" s="510"/>
+      <c r="AI44" s="511"/>
+      <c r="AJ44" s="503"/>
+      <c r="AK44" s="504"/>
+      <c r="AL44" s="504"/>
+      <c r="AM44" s="505"/>
+      <c r="AN44" s="509"/>
+      <c r="AO44" s="510"/>
+      <c r="AP44" s="510"/>
+      <c r="AQ44" s="510"/>
+      <c r="AR44" s="511"/>
+      <c r="AS44" s="503"/>
+      <c r="AT44" s="504"/>
+      <c r="AU44" s="504"/>
+      <c r="AV44" s="505"/>
       <c r="AW44" s="223"/>
     </row>
     <row r="45" spans="1:49">
       <c r="A45" s="223"/>
-      <c r="B45" s="510"/>
-      <c r="C45" s="511"/>
-      <c r="D45" s="515"/>
-      <c r="E45" s="516"/>
-      <c r="F45" s="516"/>
-      <c r="G45" s="516"/>
-      <c r="H45" s="517"/>
-      <c r="I45" s="521"/>
-      <c r="J45" s="522"/>
-      <c r="K45" s="522"/>
-      <c r="L45" s="522"/>
-      <c r="M45" s="522"/>
-      <c r="N45" s="522"/>
-      <c r="O45" s="522"/>
-      <c r="P45" s="522"/>
-      <c r="Q45" s="522"/>
-      <c r="R45" s="522"/>
-      <c r="S45" s="522"/>
-      <c r="T45" s="522"/>
-      <c r="U45" s="522"/>
-      <c r="V45" s="522"/>
-      <c r="W45" s="522"/>
-      <c r="X45" s="522"/>
-      <c r="Y45" s="522"/>
-      <c r="Z45" s="523"/>
-      <c r="AA45" s="527"/>
-      <c r="AB45" s="528"/>
-      <c r="AC45" s="528"/>
-      <c r="AD45" s="529"/>
-      <c r="AE45" s="533"/>
-      <c r="AF45" s="534"/>
-      <c r="AG45" s="534"/>
-      <c r="AH45" s="534"/>
-      <c r="AI45" s="535"/>
-      <c r="AJ45" s="527"/>
-      <c r="AK45" s="528"/>
-      <c r="AL45" s="528"/>
-      <c r="AM45" s="529"/>
-      <c r="AN45" s="533"/>
-      <c r="AO45" s="534"/>
-      <c r="AP45" s="534"/>
-      <c r="AQ45" s="534"/>
-      <c r="AR45" s="535"/>
-      <c r="AS45" s="527"/>
-      <c r="AT45" s="528"/>
-      <c r="AU45" s="528"/>
-      <c r="AV45" s="529"/>
+      <c r="B45" s="489"/>
+      <c r="C45" s="490"/>
+      <c r="D45" s="494"/>
+      <c r="E45" s="495"/>
+      <c r="F45" s="495"/>
+      <c r="G45" s="495"/>
+      <c r="H45" s="496"/>
+      <c r="I45" s="500"/>
+      <c r="J45" s="501"/>
+      <c r="K45" s="501"/>
+      <c r="L45" s="501"/>
+      <c r="M45" s="501"/>
+      <c r="N45" s="501"/>
+      <c r="O45" s="501"/>
+      <c r="P45" s="501"/>
+      <c r="Q45" s="501"/>
+      <c r="R45" s="501"/>
+      <c r="S45" s="501"/>
+      <c r="T45" s="501"/>
+      <c r="U45" s="501"/>
+      <c r="V45" s="501"/>
+      <c r="W45" s="501"/>
+      <c r="X45" s="501"/>
+      <c r="Y45" s="501"/>
+      <c r="Z45" s="502"/>
+      <c r="AA45" s="506"/>
+      <c r="AB45" s="507"/>
+      <c r="AC45" s="507"/>
+      <c r="AD45" s="508"/>
+      <c r="AE45" s="512"/>
+      <c r="AF45" s="513"/>
+      <c r="AG45" s="513"/>
+      <c r="AH45" s="513"/>
+      <c r="AI45" s="514"/>
+      <c r="AJ45" s="506"/>
+      <c r="AK45" s="507"/>
+      <c r="AL45" s="507"/>
+      <c r="AM45" s="508"/>
+      <c r="AN45" s="512"/>
+      <c r="AO45" s="513"/>
+      <c r="AP45" s="513"/>
+      <c r="AQ45" s="513"/>
+      <c r="AR45" s="514"/>
+      <c r="AS45" s="506"/>
+      <c r="AT45" s="507"/>
+      <c r="AU45" s="507"/>
+      <c r="AV45" s="508"/>
       <c r="AW45" s="223"/>
     </row>
     <row r="46" spans="1:49">
       <c r="A46" s="223"/>
-      <c r="B46" s="431"/>
-      <c r="C46" s="432"/>
-      <c r="D46" s="433"/>
-      <c r="E46" s="434"/>
-      <c r="F46" s="434"/>
-      <c r="G46" s="434"/>
-      <c r="H46" s="435"/>
-      <c r="I46" s="436"/>
-      <c r="J46" s="437"/>
-      <c r="K46" s="437"/>
-      <c r="L46" s="437"/>
-      <c r="M46" s="437"/>
-      <c r="N46" s="437"/>
-      <c r="O46" s="437"/>
-      <c r="P46" s="437"/>
-      <c r="Q46" s="437"/>
-      <c r="R46" s="437"/>
-      <c r="S46" s="437"/>
-      <c r="T46" s="437"/>
-      <c r="U46" s="437"/>
-      <c r="V46" s="437"/>
-      <c r="W46" s="437"/>
-      <c r="X46" s="437"/>
-      <c r="Y46" s="437"/>
-      <c r="Z46" s="438"/>
-      <c r="AA46" s="439"/>
-      <c r="AB46" s="440"/>
-      <c r="AC46" s="440"/>
-      <c r="AD46" s="441"/>
-      <c r="AE46" s="433"/>
-      <c r="AF46" s="434"/>
-      <c r="AG46" s="434"/>
-      <c r="AH46" s="434"/>
-      <c r="AI46" s="435"/>
-      <c r="AJ46" s="439"/>
-      <c r="AK46" s="440"/>
-      <c r="AL46" s="440"/>
-      <c r="AM46" s="441"/>
-      <c r="AN46" s="433"/>
-      <c r="AO46" s="434"/>
-      <c r="AP46" s="434"/>
-      <c r="AQ46" s="434"/>
-      <c r="AR46" s="435"/>
-      <c r="AS46" s="439"/>
-      <c r="AT46" s="442"/>
-      <c r="AU46" s="442"/>
-      <c r="AV46" s="441"/>
+      <c r="B46" s="515"/>
+      <c r="C46" s="516"/>
+      <c r="D46" s="517"/>
+      <c r="E46" s="518"/>
+      <c r="F46" s="518"/>
+      <c r="G46" s="518"/>
+      <c r="H46" s="519"/>
+      <c r="I46" s="520"/>
+      <c r="J46" s="521"/>
+      <c r="K46" s="521"/>
+      <c r="L46" s="521"/>
+      <c r="M46" s="521"/>
+      <c r="N46" s="521"/>
+      <c r="O46" s="521"/>
+      <c r="P46" s="521"/>
+      <c r="Q46" s="521"/>
+      <c r="R46" s="521"/>
+      <c r="S46" s="521"/>
+      <c r="T46" s="521"/>
+      <c r="U46" s="521"/>
+      <c r="V46" s="521"/>
+      <c r="W46" s="521"/>
+      <c r="X46" s="521"/>
+      <c r="Y46" s="521"/>
+      <c r="Z46" s="522"/>
+      <c r="AA46" s="523"/>
+      <c r="AB46" s="524"/>
+      <c r="AC46" s="524"/>
+      <c r="AD46" s="525"/>
+      <c r="AE46" s="517"/>
+      <c r="AF46" s="518"/>
+      <c r="AG46" s="518"/>
+      <c r="AH46" s="518"/>
+      <c r="AI46" s="519"/>
+      <c r="AJ46" s="523"/>
+      <c r="AK46" s="524"/>
+      <c r="AL46" s="524"/>
+      <c r="AM46" s="525"/>
+      <c r="AN46" s="517"/>
+      <c r="AO46" s="518"/>
+      <c r="AP46" s="518"/>
+      <c r="AQ46" s="518"/>
+      <c r="AR46" s="519"/>
+      <c r="AS46" s="523"/>
+      <c r="AT46" s="526"/>
+      <c r="AU46" s="526"/>
+      <c r="AV46" s="525"/>
       <c r="AW46" s="223"/>
     </row>
     <row r="47" spans="1:49">
       <c r="A47" s="223"/>
-      <c r="B47" s="431"/>
-      <c r="C47" s="432"/>
-      <c r="D47" s="433"/>
-      <c r="E47" s="434"/>
-      <c r="F47" s="434"/>
-      <c r="G47" s="434"/>
-      <c r="H47" s="435"/>
-      <c r="I47" s="436"/>
-      <c r="J47" s="437"/>
-      <c r="K47" s="437"/>
-      <c r="L47" s="437"/>
-      <c r="M47" s="437"/>
-      <c r="N47" s="437"/>
-      <c r="O47" s="437"/>
-      <c r="P47" s="437"/>
-      <c r="Q47" s="437"/>
-      <c r="R47" s="437"/>
-      <c r="S47" s="437"/>
-      <c r="T47" s="437"/>
-      <c r="U47" s="437"/>
-      <c r="V47" s="437"/>
-      <c r="W47" s="437"/>
-      <c r="X47" s="437"/>
-      <c r="Y47" s="437"/>
-      <c r="Z47" s="438"/>
-      <c r="AA47" s="439"/>
-      <c r="AB47" s="440"/>
-      <c r="AC47" s="440"/>
-      <c r="AD47" s="441"/>
-      <c r="AE47" s="433"/>
-      <c r="AF47" s="434"/>
-      <c r="AG47" s="434"/>
-      <c r="AH47" s="434"/>
-      <c r="AI47" s="435"/>
-      <c r="AJ47" s="439"/>
-      <c r="AK47" s="440"/>
-      <c r="AL47" s="440"/>
-      <c r="AM47" s="441"/>
-      <c r="AN47" s="433"/>
-      <c r="AO47" s="434"/>
-      <c r="AP47" s="434"/>
-      <c r="AQ47" s="434"/>
-      <c r="AR47" s="435"/>
-      <c r="AS47" s="439"/>
-      <c r="AT47" s="442"/>
-      <c r="AU47" s="442"/>
-      <c r="AV47" s="441"/>
+      <c r="B47" s="515"/>
+      <c r="C47" s="516"/>
+      <c r="D47" s="517"/>
+      <c r="E47" s="518"/>
+      <c r="F47" s="518"/>
+      <c r="G47" s="518"/>
+      <c r="H47" s="519"/>
+      <c r="I47" s="520"/>
+      <c r="J47" s="521"/>
+      <c r="K47" s="521"/>
+      <c r="L47" s="521"/>
+      <c r="M47" s="521"/>
+      <c r="N47" s="521"/>
+      <c r="O47" s="521"/>
+      <c r="P47" s="521"/>
+      <c r="Q47" s="521"/>
+      <c r="R47" s="521"/>
+      <c r="S47" s="521"/>
+      <c r="T47" s="521"/>
+      <c r="U47" s="521"/>
+      <c r="V47" s="521"/>
+      <c r="W47" s="521"/>
+      <c r="X47" s="521"/>
+      <c r="Y47" s="521"/>
+      <c r="Z47" s="522"/>
+      <c r="AA47" s="523"/>
+      <c r="AB47" s="524"/>
+      <c r="AC47" s="524"/>
+      <c r="AD47" s="525"/>
+      <c r="AE47" s="517"/>
+      <c r="AF47" s="518"/>
+      <c r="AG47" s="518"/>
+      <c r="AH47" s="518"/>
+      <c r="AI47" s="519"/>
+      <c r="AJ47" s="523"/>
+      <c r="AK47" s="524"/>
+      <c r="AL47" s="524"/>
+      <c r="AM47" s="525"/>
+      <c r="AN47" s="517"/>
+      <c r="AO47" s="518"/>
+      <c r="AP47" s="518"/>
+      <c r="AQ47" s="518"/>
+      <c r="AR47" s="519"/>
+      <c r="AS47" s="523"/>
+      <c r="AT47" s="526"/>
+      <c r="AU47" s="526"/>
+      <c r="AV47" s="525"/>
       <c r="AW47" s="223"/>
     </row>
     <row r="48" spans="1:49">
       <c r="A48" s="223"/>
-      <c r="B48" s="456"/>
-      <c r="C48" s="457"/>
-      <c r="D48" s="458"/>
-      <c r="E48" s="459"/>
-      <c r="F48" s="459"/>
-      <c r="G48" s="459"/>
-      <c r="H48" s="460"/>
-      <c r="I48" s="461"/>
-      <c r="J48" s="462"/>
-      <c r="K48" s="462"/>
-      <c r="L48" s="462"/>
-      <c r="M48" s="462"/>
-      <c r="N48" s="462"/>
-      <c r="O48" s="462"/>
-      <c r="P48" s="462"/>
-      <c r="Q48" s="462"/>
-      <c r="R48" s="462"/>
-      <c r="S48" s="462"/>
-      <c r="T48" s="462"/>
-      <c r="U48" s="462"/>
-      <c r="V48" s="462"/>
-      <c r="W48" s="462"/>
-      <c r="X48" s="462"/>
-      <c r="Y48" s="462"/>
-      <c r="Z48" s="463"/>
-      <c r="AA48" s="464"/>
-      <c r="AB48" s="465"/>
-      <c r="AC48" s="465"/>
-      <c r="AD48" s="466"/>
-      <c r="AE48" s="458"/>
-      <c r="AF48" s="459"/>
-      <c r="AG48" s="459"/>
-      <c r="AH48" s="459"/>
-      <c r="AI48" s="460"/>
-      <c r="AJ48" s="464"/>
-      <c r="AK48" s="465"/>
-      <c r="AL48" s="465"/>
-      <c r="AM48" s="466"/>
-      <c r="AN48" s="458"/>
-      <c r="AO48" s="459"/>
-      <c r="AP48" s="459"/>
-      <c r="AQ48" s="459"/>
-      <c r="AR48" s="460"/>
-      <c r="AS48" s="464"/>
-      <c r="AT48" s="467"/>
-      <c r="AU48" s="467"/>
-      <c r="AV48" s="466"/>
+      <c r="B48" s="527"/>
+      <c r="C48" s="528"/>
+      <c r="D48" s="529"/>
+      <c r="E48" s="530"/>
+      <c r="F48" s="530"/>
+      <c r="G48" s="530"/>
+      <c r="H48" s="531"/>
+      <c r="I48" s="532"/>
+      <c r="J48" s="533"/>
+      <c r="K48" s="533"/>
+      <c r="L48" s="533"/>
+      <c r="M48" s="533"/>
+      <c r="N48" s="533"/>
+      <c r="O48" s="533"/>
+      <c r="P48" s="533"/>
+      <c r="Q48" s="533"/>
+      <c r="R48" s="533"/>
+      <c r="S48" s="533"/>
+      <c r="T48" s="533"/>
+      <c r="U48" s="533"/>
+      <c r="V48" s="533"/>
+      <c r="W48" s="533"/>
+      <c r="X48" s="533"/>
+      <c r="Y48" s="533"/>
+      <c r="Z48" s="534"/>
+      <c r="AA48" s="535"/>
+      <c r="AB48" s="536"/>
+      <c r="AC48" s="536"/>
+      <c r="AD48" s="537"/>
+      <c r="AE48" s="529"/>
+      <c r="AF48" s="530"/>
+      <c r="AG48" s="530"/>
+      <c r="AH48" s="530"/>
+      <c r="AI48" s="531"/>
+      <c r="AJ48" s="535"/>
+      <c r="AK48" s="536"/>
+      <c r="AL48" s="536"/>
+      <c r="AM48" s="537"/>
+      <c r="AN48" s="529"/>
+      <c r="AO48" s="530"/>
+      <c r="AP48" s="530"/>
+      <c r="AQ48" s="530"/>
+      <c r="AR48" s="531"/>
+      <c r="AS48" s="535"/>
+      <c r="AT48" s="538"/>
+      <c r="AU48" s="538"/>
+      <c r="AV48" s="537"/>
       <c r="AW48" s="223"/>
     </row>
     <row r="49" spans="1:49">
       <c r="A49" s="223"/>
-      <c r="B49" s="456"/>
-      <c r="C49" s="457"/>
-      <c r="D49" s="458"/>
-      <c r="E49" s="459"/>
-      <c r="F49" s="459"/>
-      <c r="G49" s="459"/>
-      <c r="H49" s="460"/>
-      <c r="I49" s="461"/>
-      <c r="J49" s="462"/>
-      <c r="K49" s="462"/>
-      <c r="L49" s="462"/>
-      <c r="M49" s="462"/>
-      <c r="N49" s="462"/>
-      <c r="O49" s="462"/>
-      <c r="P49" s="462"/>
-      <c r="Q49" s="462"/>
-      <c r="R49" s="462"/>
-      <c r="S49" s="462"/>
-      <c r="T49" s="462"/>
-      <c r="U49" s="462"/>
-      <c r="V49" s="462"/>
-      <c r="W49" s="462"/>
-      <c r="X49" s="462"/>
-      <c r="Y49" s="462"/>
-      <c r="Z49" s="463"/>
-      <c r="AA49" s="464"/>
-      <c r="AB49" s="465"/>
-      <c r="AC49" s="465"/>
-      <c r="AD49" s="466"/>
-      <c r="AE49" s="458"/>
-      <c r="AF49" s="459"/>
-      <c r="AG49" s="459"/>
-      <c r="AH49" s="459"/>
-      <c r="AI49" s="460"/>
-      <c r="AJ49" s="464"/>
-      <c r="AK49" s="465"/>
-      <c r="AL49" s="465"/>
-      <c r="AM49" s="466"/>
-      <c r="AN49" s="458"/>
-      <c r="AO49" s="459"/>
-      <c r="AP49" s="459"/>
-      <c r="AQ49" s="459"/>
-      <c r="AR49" s="460"/>
-      <c r="AS49" s="464"/>
-      <c r="AT49" s="467"/>
-      <c r="AU49" s="467"/>
-      <c r="AV49" s="466"/>
+      <c r="B49" s="527"/>
+      <c r="C49" s="528"/>
+      <c r="D49" s="529"/>
+      <c r="E49" s="530"/>
+      <c r="F49" s="530"/>
+      <c r="G49" s="530"/>
+      <c r="H49" s="531"/>
+      <c r="I49" s="532"/>
+      <c r="J49" s="533"/>
+      <c r="K49" s="533"/>
+      <c r="L49" s="533"/>
+      <c r="M49" s="533"/>
+      <c r="N49" s="533"/>
+      <c r="O49" s="533"/>
+      <c r="P49" s="533"/>
+      <c r="Q49" s="533"/>
+      <c r="R49" s="533"/>
+      <c r="S49" s="533"/>
+      <c r="T49" s="533"/>
+      <c r="U49" s="533"/>
+      <c r="V49" s="533"/>
+      <c r="W49" s="533"/>
+      <c r="X49" s="533"/>
+      <c r="Y49" s="533"/>
+      <c r="Z49" s="534"/>
+      <c r="AA49" s="535"/>
+      <c r="AB49" s="536"/>
+      <c r="AC49" s="536"/>
+      <c r="AD49" s="537"/>
+      <c r="AE49" s="529"/>
+      <c r="AF49" s="530"/>
+      <c r="AG49" s="530"/>
+      <c r="AH49" s="530"/>
+      <c r="AI49" s="531"/>
+      <c r="AJ49" s="535"/>
+      <c r="AK49" s="536"/>
+      <c r="AL49" s="536"/>
+      <c r="AM49" s="537"/>
+      <c r="AN49" s="529"/>
+      <c r="AO49" s="530"/>
+      <c r="AP49" s="530"/>
+      <c r="AQ49" s="530"/>
+      <c r="AR49" s="531"/>
+      <c r="AS49" s="535"/>
+      <c r="AT49" s="538"/>
+      <c r="AU49" s="538"/>
+      <c r="AV49" s="537"/>
       <c r="AW49" s="223"/>
     </row>
     <row r="50" spans="1:49">
       <c r="A50" s="223"/>
-      <c r="B50" s="456"/>
-      <c r="C50" s="457"/>
-      <c r="D50" s="458"/>
-      <c r="E50" s="459"/>
-      <c r="F50" s="459"/>
-      <c r="G50" s="459"/>
-      <c r="H50" s="460"/>
-      <c r="I50" s="461"/>
-      <c r="J50" s="462"/>
-      <c r="K50" s="462"/>
-      <c r="L50" s="462"/>
-      <c r="M50" s="462"/>
-      <c r="N50" s="462"/>
-      <c r="O50" s="462"/>
-      <c r="P50" s="462"/>
-      <c r="Q50" s="462"/>
-      <c r="R50" s="462"/>
-      <c r="S50" s="462"/>
-      <c r="T50" s="462"/>
-      <c r="U50" s="462"/>
-      <c r="V50" s="462"/>
-      <c r="W50" s="462"/>
-      <c r="X50" s="462"/>
-      <c r="Y50" s="462"/>
-      <c r="Z50" s="463"/>
-      <c r="AA50" s="464"/>
-      <c r="AB50" s="465"/>
-      <c r="AC50" s="465"/>
-      <c r="AD50" s="466"/>
-      <c r="AE50" s="458"/>
-      <c r="AF50" s="459"/>
-      <c r="AG50" s="459"/>
-      <c r="AH50" s="459"/>
-      <c r="AI50" s="460"/>
-      <c r="AJ50" s="464"/>
-      <c r="AK50" s="465"/>
-      <c r="AL50" s="465"/>
-      <c r="AM50" s="466"/>
-      <c r="AN50" s="458"/>
-      <c r="AO50" s="459"/>
-      <c r="AP50" s="459"/>
-      <c r="AQ50" s="459"/>
-      <c r="AR50" s="460"/>
-      <c r="AS50" s="464"/>
-      <c r="AT50" s="467"/>
-      <c r="AU50" s="467"/>
-      <c r="AV50" s="466"/>
+      <c r="B50" s="527"/>
+      <c r="C50" s="528"/>
+      <c r="D50" s="529"/>
+      <c r="E50" s="530"/>
+      <c r="F50" s="530"/>
+      <c r="G50" s="530"/>
+      <c r="H50" s="531"/>
+      <c r="I50" s="532"/>
+      <c r="J50" s="533"/>
+      <c r="K50" s="533"/>
+      <c r="L50" s="533"/>
+      <c r="M50" s="533"/>
+      <c r="N50" s="533"/>
+      <c r="O50" s="533"/>
+      <c r="P50" s="533"/>
+      <c r="Q50" s="533"/>
+      <c r="R50" s="533"/>
+      <c r="S50" s="533"/>
+      <c r="T50" s="533"/>
+      <c r="U50" s="533"/>
+      <c r="V50" s="533"/>
+      <c r="W50" s="533"/>
+      <c r="X50" s="533"/>
+      <c r="Y50" s="533"/>
+      <c r="Z50" s="534"/>
+      <c r="AA50" s="535"/>
+      <c r="AB50" s="536"/>
+      <c r="AC50" s="536"/>
+      <c r="AD50" s="537"/>
+      <c r="AE50" s="529"/>
+      <c r="AF50" s="530"/>
+      <c r="AG50" s="530"/>
+      <c r="AH50" s="530"/>
+      <c r="AI50" s="531"/>
+      <c r="AJ50" s="535"/>
+      <c r="AK50" s="536"/>
+      <c r="AL50" s="536"/>
+      <c r="AM50" s="537"/>
+      <c r="AN50" s="529"/>
+      <c r="AO50" s="530"/>
+      <c r="AP50" s="530"/>
+      <c r="AQ50" s="530"/>
+      <c r="AR50" s="531"/>
+      <c r="AS50" s="535"/>
+      <c r="AT50" s="538"/>
+      <c r="AU50" s="538"/>
+      <c r="AV50" s="537"/>
       <c r="AW50" s="223"/>
     </row>
     <row r="51" spans="1:49">
       <c r="A51" s="223"/>
-      <c r="B51" s="456"/>
-      <c r="C51" s="457"/>
-      <c r="D51" s="458"/>
-      <c r="E51" s="459"/>
-      <c r="F51" s="459"/>
-      <c r="G51" s="459"/>
-      <c r="H51" s="460"/>
-      <c r="I51" s="461"/>
-      <c r="J51" s="462"/>
-      <c r="K51" s="462"/>
-      <c r="L51" s="462"/>
-      <c r="M51" s="462"/>
-      <c r="N51" s="462"/>
-      <c r="O51" s="462"/>
-      <c r="P51" s="462"/>
-      <c r="Q51" s="462"/>
-      <c r="R51" s="462"/>
-      <c r="S51" s="462"/>
-      <c r="T51" s="462"/>
-      <c r="U51" s="462"/>
-      <c r="V51" s="462"/>
-      <c r="W51" s="462"/>
-      <c r="X51" s="462"/>
-      <c r="Y51" s="462"/>
-      <c r="Z51" s="463"/>
-      <c r="AA51" s="464"/>
-      <c r="AB51" s="465"/>
-      <c r="AC51" s="465"/>
-      <c r="AD51" s="466"/>
-      <c r="AE51" s="458"/>
-      <c r="AF51" s="459"/>
-      <c r="AG51" s="459"/>
-      <c r="AH51" s="459"/>
-      <c r="AI51" s="460"/>
-      <c r="AJ51" s="464"/>
-      <c r="AK51" s="465"/>
-      <c r="AL51" s="465"/>
-      <c r="AM51" s="466"/>
-      <c r="AN51" s="458"/>
-      <c r="AO51" s="459"/>
-      <c r="AP51" s="459"/>
-      <c r="AQ51" s="459"/>
-      <c r="AR51" s="460"/>
-      <c r="AS51" s="464"/>
-      <c r="AT51" s="467"/>
-      <c r="AU51" s="467"/>
-      <c r="AV51" s="466"/>
+      <c r="B51" s="527"/>
+      <c r="C51" s="528"/>
+      <c r="D51" s="529"/>
+      <c r="E51" s="530"/>
+      <c r="F51" s="530"/>
+      <c r="G51" s="530"/>
+      <c r="H51" s="531"/>
+      <c r="I51" s="532"/>
+      <c r="J51" s="533"/>
+      <c r="K51" s="533"/>
+      <c r="L51" s="533"/>
+      <c r="M51" s="533"/>
+      <c r="N51" s="533"/>
+      <c r="O51" s="533"/>
+      <c r="P51" s="533"/>
+      <c r="Q51" s="533"/>
+      <c r="R51" s="533"/>
+      <c r="S51" s="533"/>
+      <c r="T51" s="533"/>
+      <c r="U51" s="533"/>
+      <c r="V51" s="533"/>
+      <c r="W51" s="533"/>
+      <c r="X51" s="533"/>
+      <c r="Y51" s="533"/>
+      <c r="Z51" s="534"/>
+      <c r="AA51" s="535"/>
+      <c r="AB51" s="536"/>
+      <c r="AC51" s="536"/>
+      <c r="AD51" s="537"/>
+      <c r="AE51" s="529"/>
+      <c r="AF51" s="530"/>
+      <c r="AG51" s="530"/>
+      <c r="AH51" s="530"/>
+      <c r="AI51" s="531"/>
+      <c r="AJ51" s="535"/>
+      <c r="AK51" s="536"/>
+      <c r="AL51" s="536"/>
+      <c r="AM51" s="537"/>
+      <c r="AN51" s="529"/>
+      <c r="AO51" s="530"/>
+      <c r="AP51" s="530"/>
+      <c r="AQ51" s="530"/>
+      <c r="AR51" s="531"/>
+      <c r="AS51" s="535"/>
+      <c r="AT51" s="538"/>
+      <c r="AU51" s="538"/>
+      <c r="AV51" s="537"/>
       <c r="AW51" s="223"/>
     </row>
     <row r="52" spans="1:49">
       <c r="A52" s="223"/>
-      <c r="B52" s="431"/>
-      <c r="C52" s="432"/>
-      <c r="D52" s="433"/>
-      <c r="E52" s="434"/>
-      <c r="F52" s="434"/>
-      <c r="G52" s="434"/>
-      <c r="H52" s="435"/>
-      <c r="I52" s="436"/>
-      <c r="J52" s="437"/>
-      <c r="K52" s="437"/>
-      <c r="L52" s="437"/>
-      <c r="M52" s="437"/>
-      <c r="N52" s="437"/>
-      <c r="O52" s="437"/>
-      <c r="P52" s="437"/>
-      <c r="Q52" s="437"/>
-      <c r="R52" s="437"/>
-      <c r="S52" s="437"/>
-      <c r="T52" s="437"/>
-      <c r="U52" s="437"/>
-      <c r="V52" s="437"/>
-      <c r="W52" s="437"/>
-      <c r="X52" s="437"/>
-      <c r="Y52" s="437"/>
-      <c r="Z52" s="438"/>
-      <c r="AA52" s="439"/>
-      <c r="AB52" s="440"/>
-      <c r="AC52" s="440"/>
-      <c r="AD52" s="441"/>
-      <c r="AE52" s="433"/>
-      <c r="AF52" s="434"/>
-      <c r="AG52" s="434"/>
-      <c r="AH52" s="434"/>
-      <c r="AI52" s="435"/>
-      <c r="AJ52" s="439"/>
-      <c r="AK52" s="440"/>
-      <c r="AL52" s="440"/>
-      <c r="AM52" s="441"/>
-      <c r="AN52" s="433"/>
-      <c r="AO52" s="434"/>
-      <c r="AP52" s="434"/>
-      <c r="AQ52" s="434"/>
-      <c r="AR52" s="435"/>
-      <c r="AS52" s="439"/>
-      <c r="AT52" s="442"/>
-      <c r="AU52" s="442"/>
-      <c r="AV52" s="441"/>
+      <c r="B52" s="515"/>
+      <c r="C52" s="516"/>
+      <c r="D52" s="517"/>
+      <c r="E52" s="518"/>
+      <c r="F52" s="518"/>
+      <c r="G52" s="518"/>
+      <c r="H52" s="519"/>
+      <c r="I52" s="520"/>
+      <c r="J52" s="521"/>
+      <c r="K52" s="521"/>
+      <c r="L52" s="521"/>
+      <c r="M52" s="521"/>
+      <c r="N52" s="521"/>
+      <c r="O52" s="521"/>
+      <c r="P52" s="521"/>
+      <c r="Q52" s="521"/>
+      <c r="R52" s="521"/>
+      <c r="S52" s="521"/>
+      <c r="T52" s="521"/>
+      <c r="U52" s="521"/>
+      <c r="V52" s="521"/>
+      <c r="W52" s="521"/>
+      <c r="X52" s="521"/>
+      <c r="Y52" s="521"/>
+      <c r="Z52" s="522"/>
+      <c r="AA52" s="523"/>
+      <c r="AB52" s="524"/>
+      <c r="AC52" s="524"/>
+      <c r="AD52" s="525"/>
+      <c r="AE52" s="517"/>
+      <c r="AF52" s="518"/>
+      <c r="AG52" s="518"/>
+      <c r="AH52" s="518"/>
+      <c r="AI52" s="519"/>
+      <c r="AJ52" s="523"/>
+      <c r="AK52" s="524"/>
+      <c r="AL52" s="524"/>
+      <c r="AM52" s="525"/>
+      <c r="AN52" s="517"/>
+      <c r="AO52" s="518"/>
+      <c r="AP52" s="518"/>
+      <c r="AQ52" s="518"/>
+      <c r="AR52" s="519"/>
+      <c r="AS52" s="523"/>
+      <c r="AT52" s="526"/>
+      <c r="AU52" s="526"/>
+      <c r="AV52" s="525"/>
       <c r="AW52" s="223"/>
     </row>
     <row r="53" spans="1:49">
       <c r="A53" s="223"/>
-      <c r="B53" s="431"/>
-      <c r="C53" s="432"/>
-      <c r="D53" s="433"/>
-      <c r="E53" s="434"/>
-      <c r="F53" s="434"/>
-      <c r="G53" s="434"/>
-      <c r="H53" s="435"/>
-      <c r="I53" s="436"/>
-      <c r="J53" s="437"/>
-      <c r="K53" s="437"/>
-      <c r="L53" s="437"/>
-      <c r="M53" s="437"/>
-      <c r="N53" s="437"/>
-      <c r="O53" s="437"/>
-      <c r="P53" s="437"/>
-      <c r="Q53" s="437"/>
-      <c r="R53" s="437"/>
-      <c r="S53" s="437"/>
-      <c r="T53" s="437"/>
-      <c r="U53" s="437"/>
-      <c r="V53" s="437"/>
-      <c r="W53" s="437"/>
-      <c r="X53" s="437"/>
-      <c r="Y53" s="437"/>
-      <c r="Z53" s="438"/>
-      <c r="AA53" s="439"/>
-      <c r="AB53" s="440"/>
-      <c r="AC53" s="440"/>
-      <c r="AD53" s="441"/>
-      <c r="AE53" s="433"/>
-      <c r="AF53" s="434"/>
-      <c r="AG53" s="434"/>
-      <c r="AH53" s="434"/>
-      <c r="AI53" s="435"/>
-      <c r="AJ53" s="439"/>
-      <c r="AK53" s="440"/>
-      <c r="AL53" s="440"/>
-      <c r="AM53" s="441"/>
-      <c r="AN53" s="433"/>
-      <c r="AO53" s="434"/>
-      <c r="AP53" s="434"/>
-      <c r="AQ53" s="434"/>
-      <c r="AR53" s="435"/>
-      <c r="AS53" s="439"/>
-      <c r="AT53" s="442"/>
-      <c r="AU53" s="442"/>
-      <c r="AV53" s="441"/>
+      <c r="B53" s="515"/>
+      <c r="C53" s="516"/>
+      <c r="D53" s="517"/>
+      <c r="E53" s="518"/>
+      <c r="F53" s="518"/>
+      <c r="G53" s="518"/>
+      <c r="H53" s="519"/>
+      <c r="I53" s="520"/>
+      <c r="J53" s="521"/>
+      <c r="K53" s="521"/>
+      <c r="L53" s="521"/>
+      <c r="M53" s="521"/>
+      <c r="N53" s="521"/>
+      <c r="O53" s="521"/>
+      <c r="P53" s="521"/>
+      <c r="Q53" s="521"/>
+      <c r="R53" s="521"/>
+      <c r="S53" s="521"/>
+      <c r="T53" s="521"/>
+      <c r="U53" s="521"/>
+      <c r="V53" s="521"/>
+      <c r="W53" s="521"/>
+      <c r="X53" s="521"/>
+      <c r="Y53" s="521"/>
+      <c r="Z53" s="522"/>
+      <c r="AA53" s="523"/>
+      <c r="AB53" s="524"/>
+      <c r="AC53" s="524"/>
+      <c r="AD53" s="525"/>
+      <c r="AE53" s="517"/>
+      <c r="AF53" s="518"/>
+      <c r="AG53" s="518"/>
+      <c r="AH53" s="518"/>
+      <c r="AI53" s="519"/>
+      <c r="AJ53" s="523"/>
+      <c r="AK53" s="524"/>
+      <c r="AL53" s="524"/>
+      <c r="AM53" s="525"/>
+      <c r="AN53" s="517"/>
+      <c r="AO53" s="518"/>
+      <c r="AP53" s="518"/>
+      <c r="AQ53" s="518"/>
+      <c r="AR53" s="519"/>
+      <c r="AS53" s="523"/>
+      <c r="AT53" s="526"/>
+      <c r="AU53" s="526"/>
+      <c r="AV53" s="525"/>
       <c r="AW53" s="223"/>
     </row>
     <row r="54" spans="1:49">
       <c r="A54" s="223"/>
-      <c r="B54" s="431"/>
-      <c r="C54" s="432"/>
-      <c r="D54" s="433"/>
-      <c r="E54" s="434"/>
-      <c r="F54" s="434"/>
-      <c r="G54" s="434"/>
-      <c r="H54" s="435"/>
-      <c r="I54" s="436"/>
-      <c r="J54" s="437"/>
-      <c r="K54" s="437"/>
-      <c r="L54" s="437"/>
-      <c r="M54" s="437"/>
-      <c r="N54" s="437"/>
-      <c r="O54" s="437"/>
-      <c r="P54" s="437"/>
-      <c r="Q54" s="437"/>
-      <c r="R54" s="437"/>
-      <c r="S54" s="437"/>
-      <c r="T54" s="437"/>
-      <c r="U54" s="437"/>
-      <c r="V54" s="437"/>
-      <c r="W54" s="437"/>
-      <c r="X54" s="437"/>
-      <c r="Y54" s="437"/>
-      <c r="Z54" s="438"/>
-      <c r="AA54" s="439"/>
-      <c r="AB54" s="440"/>
-      <c r="AC54" s="440"/>
-      <c r="AD54" s="441"/>
-      <c r="AE54" s="433"/>
-      <c r="AF54" s="434"/>
-      <c r="AG54" s="434"/>
-      <c r="AH54" s="434"/>
-      <c r="AI54" s="435"/>
-      <c r="AJ54" s="439"/>
-      <c r="AK54" s="440"/>
-      <c r="AL54" s="440"/>
-      <c r="AM54" s="441"/>
-      <c r="AN54" s="433"/>
-      <c r="AO54" s="434"/>
-      <c r="AP54" s="434"/>
-      <c r="AQ54" s="434"/>
-      <c r="AR54" s="435"/>
-      <c r="AS54" s="439"/>
-      <c r="AT54" s="442"/>
-      <c r="AU54" s="442"/>
-      <c r="AV54" s="441"/>
+      <c r="B54" s="515"/>
+      <c r="C54" s="516"/>
+      <c r="D54" s="517"/>
+      <c r="E54" s="518"/>
+      <c r="F54" s="518"/>
+      <c r="G54" s="518"/>
+      <c r="H54" s="519"/>
+      <c r="I54" s="520"/>
+      <c r="J54" s="521"/>
+      <c r="K54" s="521"/>
+      <c r="L54" s="521"/>
+      <c r="M54" s="521"/>
+      <c r="N54" s="521"/>
+      <c r="O54" s="521"/>
+      <c r="P54" s="521"/>
+      <c r="Q54" s="521"/>
+      <c r="R54" s="521"/>
+      <c r="S54" s="521"/>
+      <c r="T54" s="521"/>
+      <c r="U54" s="521"/>
+      <c r="V54" s="521"/>
+      <c r="W54" s="521"/>
+      <c r="X54" s="521"/>
+      <c r="Y54" s="521"/>
+      <c r="Z54" s="522"/>
+      <c r="AA54" s="523"/>
+      <c r="AB54" s="524"/>
+      <c r="AC54" s="524"/>
+      <c r="AD54" s="525"/>
+      <c r="AE54" s="517"/>
+      <c r="AF54" s="518"/>
+      <c r="AG54" s="518"/>
+      <c r="AH54" s="518"/>
+      <c r="AI54" s="519"/>
+      <c r="AJ54" s="523"/>
+      <c r="AK54" s="524"/>
+      <c r="AL54" s="524"/>
+      <c r="AM54" s="525"/>
+      <c r="AN54" s="517"/>
+      <c r="AO54" s="518"/>
+      <c r="AP54" s="518"/>
+      <c r="AQ54" s="518"/>
+      <c r="AR54" s="519"/>
+      <c r="AS54" s="523"/>
+      <c r="AT54" s="526"/>
+      <c r="AU54" s="526"/>
+      <c r="AV54" s="525"/>
       <c r="AW54" s="223"/>
     </row>
     <row r="55" spans="1:49">
       <c r="A55" s="223"/>
-      <c r="B55" s="431"/>
-      <c r="C55" s="432"/>
-      <c r="D55" s="433"/>
-      <c r="E55" s="434"/>
-      <c r="F55" s="434"/>
-      <c r="G55" s="434"/>
-      <c r="H55" s="435"/>
-      <c r="I55" s="436"/>
-      <c r="J55" s="437"/>
-      <c r="K55" s="437"/>
-      <c r="L55" s="437"/>
-      <c r="M55" s="437"/>
-      <c r="N55" s="437"/>
-      <c r="O55" s="437"/>
-      <c r="P55" s="437"/>
-      <c r="Q55" s="437"/>
-      <c r="R55" s="437"/>
-      <c r="S55" s="437"/>
-      <c r="T55" s="437"/>
-      <c r="U55" s="437"/>
-      <c r="V55" s="437"/>
-      <c r="W55" s="437"/>
-      <c r="X55" s="437"/>
-      <c r="Y55" s="437"/>
-      <c r="Z55" s="438"/>
-      <c r="AA55" s="439"/>
-      <c r="AB55" s="440"/>
-      <c r="AC55" s="440"/>
-      <c r="AD55" s="441"/>
-      <c r="AE55" s="433"/>
-      <c r="AF55" s="434"/>
-      <c r="AG55" s="434"/>
-      <c r="AH55" s="434"/>
-      <c r="AI55" s="435"/>
-      <c r="AJ55" s="439"/>
-      <c r="AK55" s="440"/>
-      <c r="AL55" s="440"/>
-      <c r="AM55" s="441"/>
-      <c r="AN55" s="433"/>
-      <c r="AO55" s="434"/>
-      <c r="AP55" s="434"/>
-      <c r="AQ55" s="434"/>
-      <c r="AR55" s="435"/>
-      <c r="AS55" s="439"/>
-      <c r="AT55" s="442"/>
-      <c r="AU55" s="442"/>
-      <c r="AV55" s="441"/>
+      <c r="B55" s="515"/>
+      <c r="C55" s="516"/>
+      <c r="D55" s="517"/>
+      <c r="E55" s="518"/>
+      <c r="F55" s="518"/>
+      <c r="G55" s="518"/>
+      <c r="H55" s="519"/>
+      <c r="I55" s="520"/>
+      <c r="J55" s="521"/>
+      <c r="K55" s="521"/>
+      <c r="L55" s="521"/>
+      <c r="M55" s="521"/>
+      <c r="N55" s="521"/>
+      <c r="O55" s="521"/>
+      <c r="P55" s="521"/>
+      <c r="Q55" s="521"/>
+      <c r="R55" s="521"/>
+      <c r="S55" s="521"/>
+      <c r="T55" s="521"/>
+      <c r="U55" s="521"/>
+      <c r="V55" s="521"/>
+      <c r="W55" s="521"/>
+      <c r="X55" s="521"/>
+      <c r="Y55" s="521"/>
+      <c r="Z55" s="522"/>
+      <c r="AA55" s="523"/>
+      <c r="AB55" s="524"/>
+      <c r="AC55" s="524"/>
+      <c r="AD55" s="525"/>
+      <c r="AE55" s="517"/>
+      <c r="AF55" s="518"/>
+      <c r="AG55" s="518"/>
+      <c r="AH55" s="518"/>
+      <c r="AI55" s="519"/>
+      <c r="AJ55" s="523"/>
+      <c r="AK55" s="524"/>
+      <c r="AL55" s="524"/>
+      <c r="AM55" s="525"/>
+      <c r="AN55" s="517"/>
+      <c r="AO55" s="518"/>
+      <c r="AP55" s="518"/>
+      <c r="AQ55" s="518"/>
+      <c r="AR55" s="519"/>
+      <c r="AS55" s="523"/>
+      <c r="AT55" s="526"/>
+      <c r="AU55" s="526"/>
+      <c r="AV55" s="525"/>
       <c r="AW55" s="223"/>
     </row>
     <row r="56" spans="1:49">
       <c r="A56" s="223"/>
-      <c r="B56" s="431"/>
-      <c r="C56" s="432"/>
-      <c r="D56" s="433"/>
-      <c r="E56" s="434"/>
-      <c r="F56" s="434"/>
-      <c r="G56" s="434"/>
-      <c r="H56" s="435"/>
-      <c r="I56" s="436"/>
-      <c r="J56" s="437"/>
-      <c r="K56" s="437"/>
-      <c r="L56" s="437"/>
-      <c r="M56" s="437"/>
-      <c r="N56" s="437"/>
-      <c r="O56" s="437"/>
-      <c r="P56" s="437"/>
-      <c r="Q56" s="437"/>
-      <c r="R56" s="437"/>
-      <c r="S56" s="437"/>
-      <c r="T56" s="437"/>
-      <c r="U56" s="437"/>
-      <c r="V56" s="437"/>
-      <c r="W56" s="437"/>
-      <c r="X56" s="437"/>
-      <c r="Y56" s="437"/>
-      <c r="Z56" s="438"/>
-      <c r="AA56" s="439"/>
-      <c r="AB56" s="440"/>
-      <c r="AC56" s="440"/>
-      <c r="AD56" s="441"/>
-      <c r="AE56" s="433"/>
-      <c r="AF56" s="434"/>
-      <c r="AG56" s="434"/>
-      <c r="AH56" s="434"/>
-      <c r="AI56" s="435"/>
-      <c r="AJ56" s="439"/>
-      <c r="AK56" s="440"/>
-      <c r="AL56" s="440"/>
-      <c r="AM56" s="441"/>
-      <c r="AN56" s="433"/>
-      <c r="AO56" s="434"/>
-      <c r="AP56" s="434"/>
-      <c r="AQ56" s="434"/>
-      <c r="AR56" s="435"/>
-      <c r="AS56" s="439"/>
-      <c r="AT56" s="442"/>
-      <c r="AU56" s="442"/>
-      <c r="AV56" s="441"/>
+      <c r="B56" s="515"/>
+      <c r="C56" s="516"/>
+      <c r="D56" s="517"/>
+      <c r="E56" s="518"/>
+      <c r="F56" s="518"/>
+      <c r="G56" s="518"/>
+      <c r="H56" s="519"/>
+      <c r="I56" s="520"/>
+      <c r="J56" s="521"/>
+      <c r="K56" s="521"/>
+      <c r="L56" s="521"/>
+      <c r="M56" s="521"/>
+      <c r="N56" s="521"/>
+      <c r="O56" s="521"/>
+      <c r="P56" s="521"/>
+      <c r="Q56" s="521"/>
+      <c r="R56" s="521"/>
+      <c r="S56" s="521"/>
+      <c r="T56" s="521"/>
+      <c r="U56" s="521"/>
+      <c r="V56" s="521"/>
+      <c r="W56" s="521"/>
+      <c r="X56" s="521"/>
+      <c r="Y56" s="521"/>
+      <c r="Z56" s="522"/>
+      <c r="AA56" s="523"/>
+      <c r="AB56" s="524"/>
+      <c r="AC56" s="524"/>
+      <c r="AD56" s="525"/>
+      <c r="AE56" s="517"/>
+      <c r="AF56" s="518"/>
+      <c r="AG56" s="518"/>
+      <c r="AH56" s="518"/>
+      <c r="AI56" s="519"/>
+      <c r="AJ56" s="523"/>
+      <c r="AK56" s="524"/>
+      <c r="AL56" s="524"/>
+      <c r="AM56" s="525"/>
+      <c r="AN56" s="517"/>
+      <c r="AO56" s="518"/>
+      <c r="AP56" s="518"/>
+      <c r="AQ56" s="518"/>
+      <c r="AR56" s="519"/>
+      <c r="AS56" s="523"/>
+      <c r="AT56" s="526"/>
+      <c r="AU56" s="526"/>
+      <c r="AV56" s="525"/>
       <c r="AW56" s="223"/>
     </row>
     <row r="57" spans="1:49">
       <c r="A57" s="223"/>
-      <c r="B57" s="431"/>
-      <c r="C57" s="432"/>
-      <c r="D57" s="433"/>
-      <c r="E57" s="434"/>
-      <c r="F57" s="434"/>
-      <c r="G57" s="434"/>
-      <c r="H57" s="435"/>
-      <c r="I57" s="436"/>
-      <c r="J57" s="437"/>
-      <c r="K57" s="437"/>
-      <c r="L57" s="437"/>
-      <c r="M57" s="437"/>
-      <c r="N57" s="437"/>
-      <c r="O57" s="437"/>
-      <c r="P57" s="437"/>
-      <c r="Q57" s="437"/>
-      <c r="R57" s="437"/>
-      <c r="S57" s="437"/>
-      <c r="T57" s="437"/>
-      <c r="U57" s="437"/>
-      <c r="V57" s="437"/>
-      <c r="W57" s="437"/>
-      <c r="X57" s="437"/>
-      <c r="Y57" s="437"/>
-      <c r="Z57" s="438"/>
-      <c r="AA57" s="439"/>
-      <c r="AB57" s="440"/>
-      <c r="AC57" s="440"/>
-      <c r="AD57" s="441"/>
-      <c r="AE57" s="433"/>
-      <c r="AF57" s="434"/>
-      <c r="AG57" s="434"/>
-      <c r="AH57" s="434"/>
-      <c r="AI57" s="435"/>
-      <c r="AJ57" s="439"/>
-      <c r="AK57" s="440"/>
-      <c r="AL57" s="440"/>
-      <c r="AM57" s="441"/>
-      <c r="AN57" s="433"/>
-      <c r="AO57" s="434"/>
-      <c r="AP57" s="434"/>
-      <c r="AQ57" s="434"/>
-      <c r="AR57" s="435"/>
-      <c r="AS57" s="439"/>
-      <c r="AT57" s="442"/>
-      <c r="AU57" s="442"/>
-      <c r="AV57" s="441"/>
+      <c r="B57" s="515"/>
+      <c r="C57" s="516"/>
+      <c r="D57" s="517"/>
+      <c r="E57" s="518"/>
+      <c r="F57" s="518"/>
+      <c r="G57" s="518"/>
+      <c r="H57" s="519"/>
+      <c r="I57" s="520"/>
+      <c r="J57" s="521"/>
+      <c r="K57" s="521"/>
+      <c r="L57" s="521"/>
+      <c r="M57" s="521"/>
+      <c r="N57" s="521"/>
+      <c r="O57" s="521"/>
+      <c r="P57" s="521"/>
+      <c r="Q57" s="521"/>
+      <c r="R57" s="521"/>
+      <c r="S57" s="521"/>
+      <c r="T57" s="521"/>
+      <c r="U57" s="521"/>
+      <c r="V57" s="521"/>
+      <c r="W57" s="521"/>
+      <c r="X57" s="521"/>
+      <c r="Y57" s="521"/>
+      <c r="Z57" s="522"/>
+      <c r="AA57" s="523"/>
+      <c r="AB57" s="524"/>
+      <c r="AC57" s="524"/>
+      <c r="AD57" s="525"/>
+      <c r="AE57" s="517"/>
+      <c r="AF57" s="518"/>
+      <c r="AG57" s="518"/>
+      <c r="AH57" s="518"/>
+      <c r="AI57" s="519"/>
+      <c r="AJ57" s="523"/>
+      <c r="AK57" s="524"/>
+      <c r="AL57" s="524"/>
+      <c r="AM57" s="525"/>
+      <c r="AN57" s="517"/>
+      <c r="AO57" s="518"/>
+      <c r="AP57" s="518"/>
+      <c r="AQ57" s="518"/>
+      <c r="AR57" s="519"/>
+      <c r="AS57" s="523"/>
+      <c r="AT57" s="526"/>
+      <c r="AU57" s="526"/>
+      <c r="AV57" s="525"/>
       <c r="AW57" s="223"/>
     </row>
     <row r="58" spans="1:49">
       <c r="A58" s="223"/>
-      <c r="B58" s="431"/>
-      <c r="C58" s="432"/>
-      <c r="D58" s="433"/>
-      <c r="E58" s="434"/>
-      <c r="F58" s="434"/>
-      <c r="G58" s="434"/>
-      <c r="H58" s="435"/>
-      <c r="I58" s="436"/>
-      <c r="J58" s="437"/>
-      <c r="K58" s="437"/>
-      <c r="L58" s="437"/>
-      <c r="M58" s="437"/>
-      <c r="N58" s="437"/>
-      <c r="O58" s="437"/>
-      <c r="P58" s="437"/>
-      <c r="Q58" s="437"/>
-      <c r="R58" s="437"/>
-      <c r="S58" s="437"/>
-      <c r="T58" s="437"/>
-      <c r="U58" s="437"/>
-      <c r="V58" s="437"/>
-      <c r="W58" s="437"/>
-      <c r="X58" s="437"/>
-      <c r="Y58" s="437"/>
-      <c r="Z58" s="438"/>
-      <c r="AA58" s="439"/>
-      <c r="AB58" s="440"/>
-      <c r="AC58" s="440"/>
-      <c r="AD58" s="441"/>
-      <c r="AE58" s="433"/>
-      <c r="AF58" s="434"/>
-      <c r="AG58" s="434"/>
-      <c r="AH58" s="434"/>
-      <c r="AI58" s="435"/>
-      <c r="AJ58" s="439"/>
-      <c r="AK58" s="440"/>
-      <c r="AL58" s="440"/>
-      <c r="AM58" s="441"/>
-      <c r="AN58" s="433"/>
-      <c r="AO58" s="434"/>
-      <c r="AP58" s="434"/>
-      <c r="AQ58" s="434"/>
-      <c r="AR58" s="435"/>
-      <c r="AS58" s="439"/>
-      <c r="AT58" s="442"/>
-      <c r="AU58" s="442"/>
-      <c r="AV58" s="441"/>
+      <c r="B58" s="515"/>
+      <c r="C58" s="516"/>
+      <c r="D58" s="517"/>
+      <c r="E58" s="518"/>
+      <c r="F58" s="518"/>
+      <c r="G58" s="518"/>
+      <c r="H58" s="519"/>
+      <c r="I58" s="520"/>
+      <c r="J58" s="521"/>
+      <c r="K58" s="521"/>
+      <c r="L58" s="521"/>
+      <c r="M58" s="521"/>
+      <c r="N58" s="521"/>
+      <c r="O58" s="521"/>
+      <c r="P58" s="521"/>
+      <c r="Q58" s="521"/>
+      <c r="R58" s="521"/>
+      <c r="S58" s="521"/>
+      <c r="T58" s="521"/>
+      <c r="U58" s="521"/>
+      <c r="V58" s="521"/>
+      <c r="W58" s="521"/>
+      <c r="X58" s="521"/>
+      <c r="Y58" s="521"/>
+      <c r="Z58" s="522"/>
+      <c r="AA58" s="523"/>
+      <c r="AB58" s="524"/>
+      <c r="AC58" s="524"/>
+      <c r="AD58" s="525"/>
+      <c r="AE58" s="517"/>
+      <c r="AF58" s="518"/>
+      <c r="AG58" s="518"/>
+      <c r="AH58" s="518"/>
+      <c r="AI58" s="519"/>
+      <c r="AJ58" s="523"/>
+      <c r="AK58" s="524"/>
+      <c r="AL58" s="524"/>
+      <c r="AM58" s="525"/>
+      <c r="AN58" s="517"/>
+      <c r="AO58" s="518"/>
+      <c r="AP58" s="518"/>
+      <c r="AQ58" s="518"/>
+      <c r="AR58" s="519"/>
+      <c r="AS58" s="523"/>
+      <c r="AT58" s="526"/>
+      <c r="AU58" s="526"/>
+      <c r="AV58" s="525"/>
       <c r="AW58" s="223"/>
     </row>
     <row r="59" spans="1:49">
       <c r="A59" s="223"/>
-      <c r="B59" s="431"/>
-      <c r="C59" s="432"/>
-      <c r="D59" s="433"/>
-      <c r="E59" s="434"/>
-      <c r="F59" s="434"/>
-      <c r="G59" s="434"/>
-      <c r="H59" s="435"/>
-      <c r="I59" s="436"/>
-      <c r="J59" s="437"/>
-      <c r="K59" s="437"/>
-      <c r="L59" s="437"/>
-      <c r="M59" s="437"/>
-      <c r="N59" s="437"/>
-      <c r="O59" s="437"/>
-      <c r="P59" s="437"/>
-      <c r="Q59" s="437"/>
-      <c r="R59" s="437"/>
-      <c r="S59" s="437"/>
-      <c r="T59" s="437"/>
-      <c r="U59" s="437"/>
-      <c r="V59" s="437"/>
-      <c r="W59" s="437"/>
-      <c r="X59" s="437"/>
-      <c r="Y59" s="437"/>
-      <c r="Z59" s="438"/>
-      <c r="AA59" s="439"/>
-      <c r="AB59" s="440"/>
-      <c r="AC59" s="440"/>
-      <c r="AD59" s="441"/>
-      <c r="AE59" s="433"/>
-      <c r="AF59" s="434"/>
-      <c r="AG59" s="434"/>
-      <c r="AH59" s="434"/>
-      <c r="AI59" s="435"/>
-      <c r="AJ59" s="439"/>
-      <c r="AK59" s="440"/>
-      <c r="AL59" s="440"/>
-      <c r="AM59" s="441"/>
-      <c r="AN59" s="433"/>
-      <c r="AO59" s="434"/>
-      <c r="AP59" s="434"/>
-      <c r="AQ59" s="434"/>
-      <c r="AR59" s="435"/>
-      <c r="AS59" s="439"/>
-      <c r="AT59" s="442"/>
-      <c r="AU59" s="442"/>
-      <c r="AV59" s="441"/>
+      <c r="B59" s="515"/>
+      <c r="C59" s="516"/>
+      <c r="D59" s="517"/>
+      <c r="E59" s="518"/>
+      <c r="F59" s="518"/>
+      <c r="G59" s="518"/>
+      <c r="H59" s="519"/>
+      <c r="I59" s="520"/>
+      <c r="J59" s="521"/>
+      <c r="K59" s="521"/>
+      <c r="L59" s="521"/>
+      <c r="M59" s="521"/>
+      <c r="N59" s="521"/>
+      <c r="O59" s="521"/>
+      <c r="P59" s="521"/>
+      <c r="Q59" s="521"/>
+      <c r="R59" s="521"/>
+      <c r="S59" s="521"/>
+      <c r="T59" s="521"/>
+      <c r="U59" s="521"/>
+      <c r="V59" s="521"/>
+      <c r="W59" s="521"/>
+      <c r="X59" s="521"/>
+      <c r="Y59" s="521"/>
+      <c r="Z59" s="522"/>
+      <c r="AA59" s="523"/>
+      <c r="AB59" s="524"/>
+      <c r="AC59" s="524"/>
+      <c r="AD59" s="525"/>
+      <c r="AE59" s="517"/>
+      <c r="AF59" s="518"/>
+      <c r="AG59" s="518"/>
+      <c r="AH59" s="518"/>
+      <c r="AI59" s="519"/>
+      <c r="AJ59" s="523"/>
+      <c r="AK59" s="524"/>
+      <c r="AL59" s="524"/>
+      <c r="AM59" s="525"/>
+      <c r="AN59" s="517"/>
+      <c r="AO59" s="518"/>
+      <c r="AP59" s="518"/>
+      <c r="AQ59" s="518"/>
+      <c r="AR59" s="519"/>
+      <c r="AS59" s="523"/>
+      <c r="AT59" s="526"/>
+      <c r="AU59" s="526"/>
+      <c r="AV59" s="525"/>
       <c r="AW59" s="223"/>
     </row>
     <row r="60" spans="1:49">
       <c r="A60" s="223"/>
-      <c r="B60" s="431"/>
-      <c r="C60" s="432"/>
-      <c r="D60" s="433"/>
-      <c r="E60" s="434"/>
-      <c r="F60" s="434"/>
-      <c r="G60" s="434"/>
-      <c r="H60" s="435"/>
-      <c r="I60" s="436"/>
-      <c r="J60" s="437"/>
-      <c r="K60" s="437"/>
-      <c r="L60" s="437"/>
-      <c r="M60" s="437"/>
-      <c r="N60" s="437"/>
-      <c r="O60" s="437"/>
-      <c r="P60" s="437"/>
-      <c r="Q60" s="437"/>
-      <c r="R60" s="437"/>
-      <c r="S60" s="437"/>
-      <c r="T60" s="437"/>
-      <c r="U60" s="437"/>
-      <c r="V60" s="437"/>
-      <c r="W60" s="437"/>
-      <c r="X60" s="437"/>
-      <c r="Y60" s="437"/>
-      <c r="Z60" s="438"/>
-      <c r="AA60" s="439"/>
-      <c r="AB60" s="440"/>
-      <c r="AC60" s="440"/>
-      <c r="AD60" s="441"/>
-      <c r="AE60" s="433"/>
-      <c r="AF60" s="434"/>
-      <c r="AG60" s="434"/>
-      <c r="AH60" s="434"/>
-      <c r="AI60" s="435"/>
-      <c r="AJ60" s="439"/>
-      <c r="AK60" s="440"/>
-      <c r="AL60" s="440"/>
-      <c r="AM60" s="441"/>
-      <c r="AN60" s="433"/>
-      <c r="AO60" s="434"/>
-      <c r="AP60" s="434"/>
-      <c r="AQ60" s="434"/>
-      <c r="AR60" s="435"/>
-      <c r="AS60" s="439"/>
-      <c r="AT60" s="442"/>
-      <c r="AU60" s="442"/>
-      <c r="AV60" s="441"/>
+      <c r="B60" s="515"/>
+      <c r="C60" s="516"/>
+      <c r="D60" s="517"/>
+      <c r="E60" s="518"/>
+      <c r="F60" s="518"/>
+      <c r="G60" s="518"/>
+      <c r="H60" s="519"/>
+      <c r="I60" s="520"/>
+      <c r="J60" s="521"/>
+      <c r="K60" s="521"/>
+      <c r="L60" s="521"/>
+      <c r="M60" s="521"/>
+      <c r="N60" s="521"/>
+      <c r="O60" s="521"/>
+      <c r="P60" s="521"/>
+      <c r="Q60" s="521"/>
+      <c r="R60" s="521"/>
+      <c r="S60" s="521"/>
+      <c r="T60" s="521"/>
+      <c r="U60" s="521"/>
+      <c r="V60" s="521"/>
+      <c r="W60" s="521"/>
+      <c r="X60" s="521"/>
+      <c r="Y60" s="521"/>
+      <c r="Z60" s="522"/>
+      <c r="AA60" s="523"/>
+      <c r="AB60" s="524"/>
+      <c r="AC60" s="524"/>
+      <c r="AD60" s="525"/>
+      <c r="AE60" s="517"/>
+      <c r="AF60" s="518"/>
+      <c r="AG60" s="518"/>
+      <c r="AH60" s="518"/>
+      <c r="AI60" s="519"/>
+      <c r="AJ60" s="523"/>
+      <c r="AK60" s="524"/>
+      <c r="AL60" s="524"/>
+      <c r="AM60" s="525"/>
+      <c r="AN60" s="517"/>
+      <c r="AO60" s="518"/>
+      <c r="AP60" s="518"/>
+      <c r="AQ60" s="518"/>
+      <c r="AR60" s="519"/>
+      <c r="AS60" s="523"/>
+      <c r="AT60" s="526"/>
+      <c r="AU60" s="526"/>
+      <c r="AV60" s="525"/>
       <c r="AW60" s="223"/>
     </row>
     <row r="61" spans="1:49">
       <c r="A61" s="223"/>
-      <c r="B61" s="431"/>
-      <c r="C61" s="432"/>
-      <c r="D61" s="433"/>
-      <c r="E61" s="434"/>
-      <c r="F61" s="434"/>
-      <c r="G61" s="434"/>
-      <c r="H61" s="435"/>
-      <c r="I61" s="436"/>
-      <c r="J61" s="437"/>
-      <c r="K61" s="437"/>
-      <c r="L61" s="437"/>
-      <c r="M61" s="437"/>
-      <c r="N61" s="437"/>
-      <c r="O61" s="437"/>
-      <c r="P61" s="437"/>
-      <c r="Q61" s="437"/>
-      <c r="R61" s="437"/>
-      <c r="S61" s="437"/>
-      <c r="T61" s="437"/>
-      <c r="U61" s="437"/>
-      <c r="V61" s="437"/>
-      <c r="W61" s="437"/>
-      <c r="X61" s="437"/>
-      <c r="Y61" s="437"/>
-      <c r="Z61" s="438"/>
-      <c r="AA61" s="439"/>
-      <c r="AB61" s="440"/>
-      <c r="AC61" s="440"/>
-      <c r="AD61" s="441"/>
-      <c r="AE61" s="433"/>
-      <c r="AF61" s="434"/>
-      <c r="AG61" s="434"/>
-      <c r="AH61" s="434"/>
-      <c r="AI61" s="435"/>
-      <c r="AJ61" s="439"/>
-      <c r="AK61" s="440"/>
-      <c r="AL61" s="440"/>
-      <c r="AM61" s="441"/>
-      <c r="AN61" s="433"/>
-      <c r="AO61" s="434"/>
-      <c r="AP61" s="434"/>
-      <c r="AQ61" s="434"/>
-      <c r="AR61" s="435"/>
-      <c r="AS61" s="439"/>
-      <c r="AT61" s="442"/>
-      <c r="AU61" s="442"/>
-      <c r="AV61" s="441"/>
+      <c r="B61" s="515"/>
+      <c r="C61" s="516"/>
+      <c r="D61" s="517"/>
+      <c r="E61" s="518"/>
+      <c r="F61" s="518"/>
+      <c r="G61" s="518"/>
+      <c r="H61" s="519"/>
+      <c r="I61" s="520"/>
+      <c r="J61" s="521"/>
+      <c r="K61" s="521"/>
+      <c r="L61" s="521"/>
+      <c r="M61" s="521"/>
+      <c r="N61" s="521"/>
+      <c r="O61" s="521"/>
+      <c r="P61" s="521"/>
+      <c r="Q61" s="521"/>
+      <c r="R61" s="521"/>
+      <c r="S61" s="521"/>
+      <c r="T61" s="521"/>
+      <c r="U61" s="521"/>
+      <c r="V61" s="521"/>
+      <c r="W61" s="521"/>
+      <c r="X61" s="521"/>
+      <c r="Y61" s="521"/>
+      <c r="Z61" s="522"/>
+      <c r="AA61" s="523"/>
+      <c r="AB61" s="524"/>
+      <c r="AC61" s="524"/>
+      <c r="AD61" s="525"/>
+      <c r="AE61" s="517"/>
+      <c r="AF61" s="518"/>
+      <c r="AG61" s="518"/>
+      <c r="AH61" s="518"/>
+      <c r="AI61" s="519"/>
+      <c r="AJ61" s="523"/>
+      <c r="AK61" s="524"/>
+      <c r="AL61" s="524"/>
+      <c r="AM61" s="525"/>
+      <c r="AN61" s="517"/>
+      <c r="AO61" s="518"/>
+      <c r="AP61" s="518"/>
+      <c r="AQ61" s="518"/>
+      <c r="AR61" s="519"/>
+      <c r="AS61" s="523"/>
+      <c r="AT61" s="526"/>
+      <c r="AU61" s="526"/>
+      <c r="AV61" s="525"/>
       <c r="AW61" s="223"/>
     </row>
     <row r="62" spans="1:49">
       <c r="A62" s="223"/>
-      <c r="B62" s="431"/>
-      <c r="C62" s="432"/>
-      <c r="D62" s="433"/>
-      <c r="E62" s="434"/>
-      <c r="F62" s="434"/>
-      <c r="G62" s="434"/>
-      <c r="H62" s="435"/>
-      <c r="I62" s="436"/>
-      <c r="J62" s="437"/>
-      <c r="K62" s="437"/>
-      <c r="L62" s="437"/>
-      <c r="M62" s="437"/>
-      <c r="N62" s="437"/>
-      <c r="O62" s="437"/>
-      <c r="P62" s="437"/>
-      <c r="Q62" s="437"/>
-      <c r="R62" s="437"/>
-      <c r="S62" s="437"/>
-      <c r="T62" s="437"/>
-      <c r="U62" s="437"/>
-      <c r="V62" s="437"/>
-      <c r="W62" s="437"/>
-      <c r="X62" s="437"/>
-      <c r="Y62" s="437"/>
-      <c r="Z62" s="438"/>
-      <c r="AA62" s="439"/>
-      <c r="AB62" s="440"/>
-      <c r="AC62" s="440"/>
-      <c r="AD62" s="441"/>
-      <c r="AE62" s="433"/>
-      <c r="AF62" s="434"/>
-      <c r="AG62" s="434"/>
-      <c r="AH62" s="434"/>
-      <c r="AI62" s="435"/>
-      <c r="AJ62" s="439"/>
-      <c r="AK62" s="440"/>
-      <c r="AL62" s="440"/>
-      <c r="AM62" s="441"/>
-      <c r="AN62" s="433"/>
-      <c r="AO62" s="434"/>
-      <c r="AP62" s="434"/>
-      <c r="AQ62" s="434"/>
-      <c r="AR62" s="435"/>
-      <c r="AS62" s="439"/>
-      <c r="AT62" s="442"/>
-      <c r="AU62" s="442"/>
-      <c r="AV62" s="441"/>
+      <c r="B62" s="515"/>
+      <c r="C62" s="516"/>
+      <c r="D62" s="517"/>
+      <c r="E62" s="518"/>
+      <c r="F62" s="518"/>
+      <c r="G62" s="518"/>
+      <c r="H62" s="519"/>
+      <c r="I62" s="520"/>
+      <c r="J62" s="521"/>
+      <c r="K62" s="521"/>
+      <c r="L62" s="521"/>
+      <c r="M62" s="521"/>
+      <c r="N62" s="521"/>
+      <c r="O62" s="521"/>
+      <c r="P62" s="521"/>
+      <c r="Q62" s="521"/>
+      <c r="R62" s="521"/>
+      <c r="S62" s="521"/>
+      <c r="T62" s="521"/>
+      <c r="U62" s="521"/>
+      <c r="V62" s="521"/>
+      <c r="W62" s="521"/>
+      <c r="X62" s="521"/>
+      <c r="Y62" s="521"/>
+      <c r="Z62" s="522"/>
+      <c r="AA62" s="523"/>
+      <c r="AB62" s="524"/>
+      <c r="AC62" s="524"/>
+      <c r="AD62" s="525"/>
+      <c r="AE62" s="517"/>
+      <c r="AF62" s="518"/>
+      <c r="AG62" s="518"/>
+      <c r="AH62" s="518"/>
+      <c r="AI62" s="519"/>
+      <c r="AJ62" s="523"/>
+      <c r="AK62" s="524"/>
+      <c r="AL62" s="524"/>
+      <c r="AM62" s="525"/>
+      <c r="AN62" s="517"/>
+      <c r="AO62" s="518"/>
+      <c r="AP62" s="518"/>
+      <c r="AQ62" s="518"/>
+      <c r="AR62" s="519"/>
+      <c r="AS62" s="523"/>
+      <c r="AT62" s="526"/>
+      <c r="AU62" s="526"/>
+      <c r="AV62" s="525"/>
       <c r="AW62" s="223"/>
     </row>
     <row r="63" spans="1:49">
       <c r="A63" s="223"/>
-      <c r="B63" s="431"/>
-      <c r="C63" s="432"/>
-      <c r="D63" s="433"/>
-      <c r="E63" s="434"/>
-      <c r="F63" s="434"/>
-      <c r="G63" s="434"/>
-      <c r="H63" s="435"/>
-      <c r="I63" s="436"/>
-      <c r="J63" s="437"/>
-      <c r="K63" s="437"/>
-      <c r="L63" s="437"/>
-      <c r="M63" s="437"/>
-      <c r="N63" s="437"/>
-      <c r="O63" s="437"/>
-      <c r="P63" s="437"/>
-      <c r="Q63" s="437"/>
-      <c r="R63" s="437"/>
-      <c r="S63" s="437"/>
-      <c r="T63" s="437"/>
-      <c r="U63" s="437"/>
-      <c r="V63" s="437"/>
-      <c r="W63" s="437"/>
-      <c r="X63" s="437"/>
-      <c r="Y63" s="437"/>
-      <c r="Z63" s="438"/>
-      <c r="AA63" s="439"/>
-      <c r="AB63" s="440"/>
-      <c r="AC63" s="440"/>
-      <c r="AD63" s="441"/>
-      <c r="AE63" s="433"/>
-      <c r="AF63" s="434"/>
-      <c r="AG63" s="434"/>
-      <c r="AH63" s="434"/>
-      <c r="AI63" s="435"/>
-      <c r="AJ63" s="439"/>
-      <c r="AK63" s="440"/>
-      <c r="AL63" s="440"/>
-      <c r="AM63" s="441"/>
-      <c r="AN63" s="433"/>
-      <c r="AO63" s="434"/>
-      <c r="AP63" s="434"/>
-      <c r="AQ63" s="434"/>
-      <c r="AR63" s="435"/>
-      <c r="AS63" s="439"/>
-      <c r="AT63" s="442"/>
-      <c r="AU63" s="442"/>
-      <c r="AV63" s="441"/>
+      <c r="B63" s="515"/>
+      <c r="C63" s="516"/>
+      <c r="D63" s="517"/>
+      <c r="E63" s="518"/>
+      <c r="F63" s="518"/>
+      <c r="G63" s="518"/>
+      <c r="H63" s="519"/>
+      <c r="I63" s="520"/>
+      <c r="J63" s="521"/>
+      <c r="K63" s="521"/>
+      <c r="L63" s="521"/>
+      <c r="M63" s="521"/>
+      <c r="N63" s="521"/>
+      <c r="O63" s="521"/>
+      <c r="P63" s="521"/>
+      <c r="Q63" s="521"/>
+      <c r="R63" s="521"/>
+      <c r="S63" s="521"/>
+      <c r="T63" s="521"/>
+      <c r="U63" s="521"/>
+      <c r="V63" s="521"/>
+      <c r="W63" s="521"/>
+      <c r="X63" s="521"/>
+      <c r="Y63" s="521"/>
+      <c r="Z63" s="522"/>
+      <c r="AA63" s="523"/>
+      <c r="AB63" s="524"/>
+      <c r="AC63" s="524"/>
+      <c r="AD63" s="525"/>
+      <c r="AE63" s="517"/>
+      <c r="AF63" s="518"/>
+      <c r="AG63" s="518"/>
+      <c r="AH63" s="518"/>
+      <c r="AI63" s="519"/>
+      <c r="AJ63" s="523"/>
+      <c r="AK63" s="524"/>
+      <c r="AL63" s="524"/>
+      <c r="AM63" s="525"/>
+      <c r="AN63" s="517"/>
+      <c r="AO63" s="518"/>
+      <c r="AP63" s="518"/>
+      <c r="AQ63" s="518"/>
+      <c r="AR63" s="519"/>
+      <c r="AS63" s="523"/>
+      <c r="AT63" s="526"/>
+      <c r="AU63" s="526"/>
+      <c r="AV63" s="525"/>
       <c r="AW63" s="223"/>
     </row>
     <row r="64" spans="1:49">
       <c r="A64" s="223"/>
-      <c r="B64" s="431"/>
-      <c r="C64" s="432"/>
-      <c r="D64" s="433"/>
-      <c r="E64" s="445"/>
-      <c r="F64" s="445"/>
-      <c r="G64" s="445"/>
-      <c r="H64" s="435"/>
-      <c r="I64" s="436"/>
-      <c r="J64" s="449"/>
-      <c r="K64" s="449"/>
-      <c r="L64" s="449"/>
-      <c r="M64" s="449"/>
-      <c r="N64" s="449"/>
-      <c r="O64" s="449"/>
-      <c r="P64" s="449"/>
-      <c r="Q64" s="449"/>
-      <c r="R64" s="449"/>
-      <c r="S64" s="449"/>
-      <c r="T64" s="449"/>
-      <c r="U64" s="449"/>
-      <c r="V64" s="449"/>
-      <c r="W64" s="449"/>
-      <c r="X64" s="449"/>
-      <c r="Y64" s="449"/>
-      <c r="Z64" s="438"/>
-      <c r="AA64" s="439"/>
-      <c r="AB64" s="442"/>
-      <c r="AC64" s="442"/>
-      <c r="AD64" s="441"/>
-      <c r="AE64" s="433"/>
-      <c r="AF64" s="445"/>
-      <c r="AG64" s="445"/>
-      <c r="AH64" s="445"/>
-      <c r="AI64" s="435"/>
-      <c r="AJ64" s="439"/>
-      <c r="AK64" s="442"/>
-      <c r="AL64" s="442"/>
-      <c r="AM64" s="441"/>
-      <c r="AN64" s="433"/>
-      <c r="AO64" s="445"/>
-      <c r="AP64" s="445"/>
-      <c r="AQ64" s="445"/>
-      <c r="AR64" s="435"/>
-      <c r="AS64" s="439"/>
-      <c r="AT64" s="442"/>
-      <c r="AU64" s="442"/>
-      <c r="AV64" s="441"/>
+      <c r="B64" s="515"/>
+      <c r="C64" s="516"/>
+      <c r="D64" s="517"/>
+      <c r="E64" s="541"/>
+      <c r="F64" s="541"/>
+      <c r="G64" s="541"/>
+      <c r="H64" s="519"/>
+      <c r="I64" s="520"/>
+      <c r="J64" s="545"/>
+      <c r="K64" s="545"/>
+      <c r="L64" s="545"/>
+      <c r="M64" s="545"/>
+      <c r="N64" s="545"/>
+      <c r="O64" s="545"/>
+      <c r="P64" s="545"/>
+      <c r="Q64" s="545"/>
+      <c r="R64" s="545"/>
+      <c r="S64" s="545"/>
+      <c r="T64" s="545"/>
+      <c r="U64" s="545"/>
+      <c r="V64" s="545"/>
+      <c r="W64" s="545"/>
+      <c r="X64" s="545"/>
+      <c r="Y64" s="545"/>
+      <c r="Z64" s="522"/>
+      <c r="AA64" s="523"/>
+      <c r="AB64" s="526"/>
+      <c r="AC64" s="526"/>
+      <c r="AD64" s="525"/>
+      <c r="AE64" s="517"/>
+      <c r="AF64" s="541"/>
+      <c r="AG64" s="541"/>
+      <c r="AH64" s="541"/>
+      <c r="AI64" s="519"/>
+      <c r="AJ64" s="523"/>
+      <c r="AK64" s="526"/>
+      <c r="AL64" s="526"/>
+      <c r="AM64" s="525"/>
+      <c r="AN64" s="517"/>
+      <c r="AO64" s="541"/>
+      <c r="AP64" s="541"/>
+      <c r="AQ64" s="541"/>
+      <c r="AR64" s="519"/>
+      <c r="AS64" s="523"/>
+      <c r="AT64" s="526"/>
+      <c r="AU64" s="526"/>
+      <c r="AV64" s="525"/>
       <c r="AW64" s="223"/>
     </row>
     <row r="65" spans="1:49">
       <c r="A65" s="223"/>
-      <c r="B65" s="443"/>
-      <c r="C65" s="444"/>
-      <c r="D65" s="446"/>
-      <c r="E65" s="447"/>
-      <c r="F65" s="447"/>
-      <c r="G65" s="447"/>
-      <c r="H65" s="448"/>
-      <c r="I65" s="450"/>
-      <c r="J65" s="451"/>
-      <c r="K65" s="451"/>
-      <c r="L65" s="451"/>
-      <c r="M65" s="451"/>
-      <c r="N65" s="451"/>
-      <c r="O65" s="451"/>
-      <c r="P65" s="451"/>
-      <c r="Q65" s="451"/>
-      <c r="R65" s="451"/>
-      <c r="S65" s="451"/>
-      <c r="T65" s="451"/>
-      <c r="U65" s="451"/>
-      <c r="V65" s="451"/>
-      <c r="W65" s="451"/>
-      <c r="X65" s="451"/>
-      <c r="Y65" s="451"/>
-      <c r="Z65" s="452"/>
-      <c r="AA65" s="453"/>
-      <c r="AB65" s="454"/>
-      <c r="AC65" s="454"/>
-      <c r="AD65" s="455"/>
-      <c r="AE65" s="446"/>
-      <c r="AF65" s="447"/>
-      <c r="AG65" s="447"/>
-      <c r="AH65" s="447"/>
-      <c r="AI65" s="448"/>
-      <c r="AJ65" s="453"/>
-      <c r="AK65" s="454"/>
-      <c r="AL65" s="454"/>
-      <c r="AM65" s="455"/>
-      <c r="AN65" s="446"/>
-      <c r="AO65" s="447"/>
-      <c r="AP65" s="447"/>
-      <c r="AQ65" s="447"/>
-      <c r="AR65" s="448"/>
-      <c r="AS65" s="453"/>
-      <c r="AT65" s="454"/>
-      <c r="AU65" s="454"/>
-      <c r="AV65" s="455"/>
+      <c r="B65" s="539"/>
+      <c r="C65" s="540"/>
+      <c r="D65" s="542"/>
+      <c r="E65" s="543"/>
+      <c r="F65" s="543"/>
+      <c r="G65" s="543"/>
+      <c r="H65" s="544"/>
+      <c r="I65" s="546"/>
+      <c r="J65" s="547"/>
+      <c r="K65" s="547"/>
+      <c r="L65" s="547"/>
+      <c r="M65" s="547"/>
+      <c r="N65" s="547"/>
+      <c r="O65" s="547"/>
+      <c r="P65" s="547"/>
+      <c r="Q65" s="547"/>
+      <c r="R65" s="547"/>
+      <c r="S65" s="547"/>
+      <c r="T65" s="547"/>
+      <c r="U65" s="547"/>
+      <c r="V65" s="547"/>
+      <c r="W65" s="547"/>
+      <c r="X65" s="547"/>
+      <c r="Y65" s="547"/>
+      <c r="Z65" s="548"/>
+      <c r="AA65" s="549"/>
+      <c r="AB65" s="550"/>
+      <c r="AC65" s="550"/>
+      <c r="AD65" s="551"/>
+      <c r="AE65" s="542"/>
+      <c r="AF65" s="543"/>
+      <c r="AG65" s="543"/>
+      <c r="AH65" s="543"/>
+      <c r="AI65" s="544"/>
+      <c r="AJ65" s="549"/>
+      <c r="AK65" s="550"/>
+      <c r="AL65" s="550"/>
+      <c r="AM65" s="551"/>
+      <c r="AN65" s="542"/>
+      <c r="AO65" s="543"/>
+      <c r="AP65" s="543"/>
+      <c r="AQ65" s="543"/>
+      <c r="AR65" s="544"/>
+      <c r="AS65" s="549"/>
+      <c r="AT65" s="550"/>
+      <c r="AU65" s="550"/>
+      <c r="AV65" s="551"/>
       <c r="AW65" s="223"/>
     </row>
     <row r="66" spans="1:49" ht="15" customHeight="1" thickBot="1">
@@ -8661,187 +8661,187 @@
       <c r="AW66" s="223"/>
     </row>
     <row r="67" spans="1:49" ht="15" thickTop="1">
-      <c r="A67" s="356" t="s">
+      <c r="A67" s="364" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="409"/>
-      <c r="C67" s="409"/>
-      <c r="D67" s="409"/>
-      <c r="E67" s="409"/>
-      <c r="F67" s="409"/>
-      <c r="G67" s="409"/>
-      <c r="H67" s="409"/>
-      <c r="I67" s="410"/>
-      <c r="J67" s="365" t="s">
+      <c r="B67" s="552"/>
+      <c r="C67" s="552"/>
+      <c r="D67" s="552"/>
+      <c r="E67" s="552"/>
+      <c r="F67" s="552"/>
+      <c r="G67" s="552"/>
+      <c r="H67" s="552"/>
+      <c r="I67" s="553"/>
+      <c r="J67" s="373" t="s">
         <v>1</v>
       </c>
-      <c r="K67" s="366"/>
-      <c r="L67" s="366"/>
-      <c r="M67" s="366"/>
-      <c r="N67" s="366"/>
-      <c r="O67" s="367"/>
-      <c r="P67" s="365" t="s">
+      <c r="K67" s="374"/>
+      <c r="L67" s="374"/>
+      <c r="M67" s="374"/>
+      <c r="N67" s="374"/>
+      <c r="O67" s="375"/>
+      <c r="P67" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="Q67" s="366"/>
-      <c r="R67" s="366"/>
-      <c r="S67" s="366"/>
-      <c r="T67" s="366"/>
-      <c r="U67" s="367"/>
-      <c r="V67" s="374" t="s">
+      <c r="Q67" s="374"/>
+      <c r="R67" s="374"/>
+      <c r="S67" s="374"/>
+      <c r="T67" s="374"/>
+      <c r="U67" s="375"/>
+      <c r="V67" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="W67" s="375"/>
-      <c r="X67" s="375"/>
-      <c r="Y67" s="375"/>
-      <c r="Z67" s="376"/>
-      <c r="AA67" s="380" t="s">
+      <c r="W67" s="389"/>
+      <c r="X67" s="389"/>
+      <c r="Y67" s="389"/>
+      <c r="Z67" s="390"/>
+      <c r="AA67" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="AB67" s="417"/>
-      <c r="AC67" s="417"/>
-      <c r="AD67" s="417"/>
-      <c r="AE67" s="417"/>
-      <c r="AF67" s="417"/>
-      <c r="AG67" s="417"/>
-      <c r="AH67" s="417"/>
-      <c r="AI67" s="417"/>
-      <c r="AJ67" s="417"/>
-      <c r="AK67" s="417"/>
-      <c r="AL67" s="418"/>
-      <c r="AM67" s="384" t="s">
+      <c r="AB67" s="560"/>
+      <c r="AC67" s="560"/>
+      <c r="AD67" s="560"/>
+      <c r="AE67" s="560"/>
+      <c r="AF67" s="560"/>
+      <c r="AG67" s="560"/>
+      <c r="AH67" s="560"/>
+      <c r="AI67" s="560"/>
+      <c r="AJ67" s="560"/>
+      <c r="AK67" s="560"/>
+      <c r="AL67" s="561"/>
+      <c r="AM67" s="396" t="s">
         <v>4</v>
       </c>
-      <c r="AN67" s="385"/>
-      <c r="AO67" s="386" t="s">
+      <c r="AN67" s="397"/>
+      <c r="AO67" s="402" t="s">
         <v>99</v>
       </c>
-      <c r="AP67" s="387"/>
-      <c r="AQ67" s="388"/>
-      <c r="AR67" s="384" t="s">
+      <c r="AP67" s="403"/>
+      <c r="AQ67" s="404"/>
+      <c r="AR67" s="396" t="s">
         <v>5</v>
       </c>
-      <c r="AS67" s="385"/>
-      <c r="AT67" s="389">
+      <c r="AS67" s="397"/>
+      <c r="AT67" s="413">
         <v>45056</v>
       </c>
-      <c r="AU67" s="390"/>
-      <c r="AV67" s="390"/>
-      <c r="AW67" s="391"/>
+      <c r="AU67" s="414"/>
+      <c r="AV67" s="414"/>
+      <c r="AW67" s="415"/>
     </row>
     <row r="68" spans="1:49">
-      <c r="A68" s="411"/>
-      <c r="B68" s="412"/>
-      <c r="C68" s="412"/>
-      <c r="D68" s="412"/>
-      <c r="E68" s="412"/>
-      <c r="F68" s="412"/>
-      <c r="G68" s="412"/>
-      <c r="H68" s="412"/>
-      <c r="I68" s="413"/>
-      <c r="J68" s="368"/>
-      <c r="K68" s="369"/>
-      <c r="L68" s="369"/>
-      <c r="M68" s="369"/>
-      <c r="N68" s="369"/>
-      <c r="O68" s="370"/>
-      <c r="P68" s="368"/>
-      <c r="Q68" s="369"/>
-      <c r="R68" s="369"/>
-      <c r="S68" s="369"/>
-      <c r="T68" s="369"/>
-      <c r="U68" s="370"/>
-      <c r="V68" s="377"/>
-      <c r="W68" s="378"/>
-      <c r="X68" s="378"/>
-      <c r="Y68" s="378"/>
-      <c r="Z68" s="379"/>
-      <c r="AA68" s="419"/>
-      <c r="AB68" s="420"/>
-      <c r="AC68" s="420"/>
-      <c r="AD68" s="420"/>
-      <c r="AE68" s="420"/>
-      <c r="AF68" s="420"/>
-      <c r="AG68" s="420"/>
-      <c r="AH68" s="420"/>
-      <c r="AI68" s="420"/>
-      <c r="AJ68" s="420"/>
-      <c r="AK68" s="420"/>
-      <c r="AL68" s="421"/>
-      <c r="AM68" s="422" t="s">
+      <c r="A68" s="554"/>
+      <c r="B68" s="555"/>
+      <c r="C68" s="555"/>
+      <c r="D68" s="555"/>
+      <c r="E68" s="555"/>
+      <c r="F68" s="555"/>
+      <c r="G68" s="555"/>
+      <c r="H68" s="555"/>
+      <c r="I68" s="556"/>
+      <c r="J68" s="376"/>
+      <c r="K68" s="419"/>
+      <c r="L68" s="419"/>
+      <c r="M68" s="419"/>
+      <c r="N68" s="419"/>
+      <c r="O68" s="378"/>
+      <c r="P68" s="376"/>
+      <c r="Q68" s="419"/>
+      <c r="R68" s="419"/>
+      <c r="S68" s="419"/>
+      <c r="T68" s="419"/>
+      <c r="U68" s="378"/>
+      <c r="V68" s="420"/>
+      <c r="W68" s="421"/>
+      <c r="X68" s="421"/>
+      <c r="Y68" s="421"/>
+      <c r="Z68" s="422"/>
+      <c r="AA68" s="562"/>
+      <c r="AB68" s="563"/>
+      <c r="AC68" s="563"/>
+      <c r="AD68" s="563"/>
+      <c r="AE68" s="563"/>
+      <c r="AF68" s="563"/>
+      <c r="AG68" s="563"/>
+      <c r="AH68" s="563"/>
+      <c r="AI68" s="563"/>
+      <c r="AJ68" s="563"/>
+      <c r="AK68" s="563"/>
+      <c r="AL68" s="564"/>
+      <c r="AM68" s="565" t="s">
         <v>6</v>
       </c>
-      <c r="AN68" s="423"/>
-      <c r="AO68" s="424"/>
-      <c r="AP68" s="425"/>
-      <c r="AQ68" s="426"/>
-      <c r="AR68" s="422" t="s">
+      <c r="AN68" s="566"/>
+      <c r="AO68" s="567"/>
+      <c r="AP68" s="568"/>
+      <c r="AQ68" s="569"/>
+      <c r="AR68" s="565" t="s">
         <v>7</v>
       </c>
-      <c r="AS68" s="423"/>
-      <c r="AT68" s="427"/>
-      <c r="AU68" s="428"/>
-      <c r="AV68" s="428"/>
-      <c r="AW68" s="429"/>
+      <c r="AS68" s="566"/>
+      <c r="AT68" s="570"/>
+      <c r="AU68" s="571"/>
+      <c r="AV68" s="571"/>
+      <c r="AW68" s="572"/>
     </row>
     <row r="69" spans="1:49" ht="15" customHeight="1" thickBot="1">
-      <c r="A69" s="414"/>
-      <c r="B69" s="415"/>
-      <c r="C69" s="415"/>
-      <c r="D69" s="415"/>
-      <c r="E69" s="415"/>
-      <c r="F69" s="415"/>
-      <c r="G69" s="415"/>
-      <c r="H69" s="415"/>
-      <c r="I69" s="416"/>
-      <c r="J69" s="371"/>
-      <c r="K69" s="372"/>
-      <c r="L69" s="372"/>
-      <c r="M69" s="372"/>
-      <c r="N69" s="372"/>
-      <c r="O69" s="373"/>
-      <c r="P69" s="371"/>
-      <c r="Q69" s="372"/>
-      <c r="R69" s="372"/>
-      <c r="S69" s="372"/>
-      <c r="T69" s="372"/>
-      <c r="U69" s="373"/>
-      <c r="V69" s="400" t="s">
+      <c r="A69" s="557"/>
+      <c r="B69" s="558"/>
+      <c r="C69" s="558"/>
+      <c r="D69" s="558"/>
+      <c r="E69" s="558"/>
+      <c r="F69" s="558"/>
+      <c r="G69" s="558"/>
+      <c r="H69" s="558"/>
+      <c r="I69" s="559"/>
+      <c r="J69" s="379"/>
+      <c r="K69" s="380"/>
+      <c r="L69" s="380"/>
+      <c r="M69" s="380"/>
+      <c r="N69" s="380"/>
+      <c r="O69" s="381"/>
+      <c r="P69" s="379"/>
+      <c r="Q69" s="380"/>
+      <c r="R69" s="380"/>
+      <c r="S69" s="380"/>
+      <c r="T69" s="380"/>
+      <c r="U69" s="381"/>
+      <c r="V69" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="W69" s="401"/>
-      <c r="X69" s="401"/>
-      <c r="Y69" s="401"/>
-      <c r="Z69" s="402"/>
-      <c r="AA69" s="403" t="s">
+      <c r="W69" s="386"/>
+      <c r="X69" s="386"/>
+      <c r="Y69" s="386"/>
+      <c r="Z69" s="387"/>
+      <c r="AA69" s="382" t="s">
         <v>128</v>
       </c>
-      <c r="AB69" s="404"/>
-      <c r="AC69" s="404"/>
-      <c r="AD69" s="404"/>
-      <c r="AE69" s="404"/>
-      <c r="AF69" s="404"/>
-      <c r="AG69" s="405"/>
-      <c r="AH69" s="406" t="s">
+      <c r="AB69" s="383"/>
+      <c r="AC69" s="383"/>
+      <c r="AD69" s="383"/>
+      <c r="AE69" s="383"/>
+      <c r="AF69" s="383"/>
+      <c r="AG69" s="384"/>
+      <c r="AH69" s="398" t="s">
         <v>9</v>
       </c>
-      <c r="AI69" s="407"/>
-      <c r="AJ69" s="407"/>
-      <c r="AK69" s="407"/>
-      <c r="AL69" s="408"/>
-      <c r="AM69" s="403" t="s">
+      <c r="AI69" s="399"/>
+      <c r="AJ69" s="399"/>
+      <c r="AK69" s="399"/>
+      <c r="AL69" s="400"/>
+      <c r="AM69" s="382" t="s">
         <v>98</v>
       </c>
-      <c r="AN69" s="404"/>
-      <c r="AO69" s="404"/>
-      <c r="AP69" s="404"/>
-      <c r="AQ69" s="404"/>
-      <c r="AR69" s="404"/>
-      <c r="AS69" s="404"/>
-      <c r="AT69" s="404"/>
-      <c r="AU69" s="404"/>
-      <c r="AV69" s="404"/>
-      <c r="AW69" s="430"/>
+      <c r="AN69" s="383"/>
+      <c r="AO69" s="383"/>
+      <c r="AP69" s="383"/>
+      <c r="AQ69" s="383"/>
+      <c r="AR69" s="383"/>
+      <c r="AS69" s="383"/>
+      <c r="AT69" s="383"/>
+      <c r="AU69" s="383"/>
+      <c r="AV69" s="383"/>
+      <c r="AW69" s="401"/>
     </row>
     <row r="70" spans="1:49" ht="15" thickTop="1">
       <c r="A70" s="223"/>
@@ -9946,187 +9946,187 @@
       <c r="AW96" s="223"/>
     </row>
     <row r="97" spans="1:49" ht="15" thickTop="1">
-      <c r="A97" s="356" t="s">
+      <c r="A97" s="364" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="357"/>
-      <c r="C97" s="357"/>
-      <c r="D97" s="357"/>
-      <c r="E97" s="357"/>
-      <c r="F97" s="357"/>
-      <c r="G97" s="357"/>
-      <c r="H97" s="357"/>
-      <c r="I97" s="358"/>
-      <c r="J97" s="365" t="s">
+      <c r="B97" s="365"/>
+      <c r="C97" s="365"/>
+      <c r="D97" s="365"/>
+      <c r="E97" s="365"/>
+      <c r="F97" s="365"/>
+      <c r="G97" s="365"/>
+      <c r="H97" s="365"/>
+      <c r="I97" s="366"/>
+      <c r="J97" s="373" t="s">
         <v>1</v>
       </c>
-      <c r="K97" s="366"/>
-      <c r="L97" s="366"/>
-      <c r="M97" s="366"/>
-      <c r="N97" s="366"/>
-      <c r="O97" s="367"/>
-      <c r="P97" s="365" t="s">
+      <c r="K97" s="374"/>
+      <c r="L97" s="374"/>
+      <c r="M97" s="374"/>
+      <c r="N97" s="374"/>
+      <c r="O97" s="375"/>
+      <c r="P97" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="Q97" s="366"/>
-      <c r="R97" s="366"/>
-      <c r="S97" s="366"/>
-      <c r="T97" s="366"/>
-      <c r="U97" s="367"/>
-      <c r="V97" s="374" t="s">
+      <c r="Q97" s="374"/>
+      <c r="R97" s="374"/>
+      <c r="S97" s="374"/>
+      <c r="T97" s="374"/>
+      <c r="U97" s="375"/>
+      <c r="V97" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="W97" s="375"/>
-      <c r="X97" s="375"/>
-      <c r="Y97" s="375"/>
-      <c r="Z97" s="376"/>
-      <c r="AA97" s="380" t="s">
+      <c r="W97" s="389"/>
+      <c r="X97" s="389"/>
+      <c r="Y97" s="389"/>
+      <c r="Z97" s="390"/>
+      <c r="AA97" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="AB97" s="366"/>
-      <c r="AC97" s="366"/>
-      <c r="AD97" s="366"/>
-      <c r="AE97" s="366"/>
-      <c r="AF97" s="366"/>
-      <c r="AG97" s="366"/>
-      <c r="AH97" s="366"/>
-      <c r="AI97" s="366"/>
-      <c r="AJ97" s="366"/>
-      <c r="AK97" s="366"/>
-      <c r="AL97" s="367"/>
-      <c r="AM97" s="384" t="s">
+      <c r="AB97" s="374"/>
+      <c r="AC97" s="374"/>
+      <c r="AD97" s="374"/>
+      <c r="AE97" s="374"/>
+      <c r="AF97" s="374"/>
+      <c r="AG97" s="374"/>
+      <c r="AH97" s="374"/>
+      <c r="AI97" s="374"/>
+      <c r="AJ97" s="374"/>
+      <c r="AK97" s="374"/>
+      <c r="AL97" s="375"/>
+      <c r="AM97" s="396" t="s">
         <v>4</v>
       </c>
-      <c r="AN97" s="385"/>
-      <c r="AO97" s="386" t="s">
+      <c r="AN97" s="397"/>
+      <c r="AO97" s="402" t="s">
         <v>99</v>
       </c>
-      <c r="AP97" s="387"/>
-      <c r="AQ97" s="388"/>
-      <c r="AR97" s="384" t="s">
+      <c r="AP97" s="403"/>
+      <c r="AQ97" s="404"/>
+      <c r="AR97" s="396" t="s">
         <v>5</v>
       </c>
-      <c r="AS97" s="385"/>
-      <c r="AT97" s="389" t="s">
+      <c r="AS97" s="397"/>
+      <c r="AT97" s="413" t="s">
         <v>11</v>
       </c>
-      <c r="AU97" s="390"/>
-      <c r="AV97" s="390"/>
-      <c r="AW97" s="391"/>
+      <c r="AU97" s="414"/>
+      <c r="AV97" s="414"/>
+      <c r="AW97" s="415"/>
     </row>
     <row r="98" spans="1:49">
-      <c r="A98" s="359"/>
-      <c r="B98" s="360"/>
-      <c r="C98" s="360"/>
-      <c r="D98" s="360"/>
-      <c r="E98" s="360"/>
-      <c r="F98" s="360"/>
-      <c r="G98" s="360"/>
-      <c r="H98" s="360"/>
-      <c r="I98" s="361"/>
-      <c r="J98" s="368"/>
-      <c r="K98" s="369"/>
-      <c r="L98" s="369"/>
-      <c r="M98" s="369"/>
-      <c r="N98" s="369"/>
-      <c r="O98" s="370"/>
-      <c r="P98" s="368"/>
-      <c r="Q98" s="369"/>
-      <c r="R98" s="369"/>
-      <c r="S98" s="369"/>
-      <c r="T98" s="369"/>
-      <c r="U98" s="370"/>
-      <c r="V98" s="377"/>
-      <c r="W98" s="378"/>
-      <c r="X98" s="378"/>
-      <c r="Y98" s="378"/>
-      <c r="Z98" s="379"/>
-      <c r="AA98" s="381"/>
-      <c r="AB98" s="382"/>
-      <c r="AC98" s="382"/>
-      <c r="AD98" s="382"/>
-      <c r="AE98" s="382"/>
-      <c r="AF98" s="382"/>
-      <c r="AG98" s="382"/>
-      <c r="AH98" s="382"/>
-      <c r="AI98" s="382"/>
-      <c r="AJ98" s="382"/>
-      <c r="AK98" s="382"/>
-      <c r="AL98" s="383"/>
-      <c r="AM98" s="392" t="s">
+      <c r="A98" s="367"/>
+      <c r="B98" s="368"/>
+      <c r="C98" s="368"/>
+      <c r="D98" s="368"/>
+      <c r="E98" s="368"/>
+      <c r="F98" s="368"/>
+      <c r="G98" s="368"/>
+      <c r="H98" s="368"/>
+      <c r="I98" s="369"/>
+      <c r="J98" s="376"/>
+      <c r="K98" s="419"/>
+      <c r="L98" s="419"/>
+      <c r="M98" s="419"/>
+      <c r="N98" s="419"/>
+      <c r="O98" s="378"/>
+      <c r="P98" s="376"/>
+      <c r="Q98" s="419"/>
+      <c r="R98" s="419"/>
+      <c r="S98" s="419"/>
+      <c r="T98" s="419"/>
+      <c r="U98" s="378"/>
+      <c r="V98" s="420"/>
+      <c r="W98" s="421"/>
+      <c r="X98" s="421"/>
+      <c r="Y98" s="421"/>
+      <c r="Z98" s="422"/>
+      <c r="AA98" s="423"/>
+      <c r="AB98" s="424"/>
+      <c r="AC98" s="424"/>
+      <c r="AD98" s="424"/>
+      <c r="AE98" s="424"/>
+      <c r="AF98" s="424"/>
+      <c r="AG98" s="424"/>
+      <c r="AH98" s="424"/>
+      <c r="AI98" s="424"/>
+      <c r="AJ98" s="424"/>
+      <c r="AK98" s="424"/>
+      <c r="AL98" s="425"/>
+      <c r="AM98" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="AN98" s="393"/>
-      <c r="AO98" s="394"/>
-      <c r="AP98" s="395"/>
-      <c r="AQ98" s="396"/>
-      <c r="AR98" s="392" t="s">
+      <c r="AN98" s="406"/>
+      <c r="AO98" s="407"/>
+      <c r="AP98" s="408"/>
+      <c r="AQ98" s="409"/>
+      <c r="AR98" s="405" t="s">
         <v>7</v>
       </c>
-      <c r="AS98" s="393"/>
-      <c r="AT98" s="397"/>
-      <c r="AU98" s="398"/>
-      <c r="AV98" s="398"/>
-      <c r="AW98" s="399"/>
+      <c r="AS98" s="406"/>
+      <c r="AT98" s="410"/>
+      <c r="AU98" s="411"/>
+      <c r="AV98" s="411"/>
+      <c r="AW98" s="412"/>
     </row>
     <row r="99" spans="1:49" ht="15" thickBot="1">
-      <c r="A99" s="362"/>
-      <c r="B99" s="363"/>
-      <c r="C99" s="363"/>
-      <c r="D99" s="363"/>
-      <c r="E99" s="363"/>
-      <c r="F99" s="363"/>
-      <c r="G99" s="363"/>
-      <c r="H99" s="363"/>
-      <c r="I99" s="364"/>
-      <c r="J99" s="371"/>
-      <c r="K99" s="372"/>
-      <c r="L99" s="372"/>
-      <c r="M99" s="372"/>
-      <c r="N99" s="372"/>
-      <c r="O99" s="373"/>
-      <c r="P99" s="371"/>
-      <c r="Q99" s="372"/>
-      <c r="R99" s="372"/>
-      <c r="S99" s="372"/>
-      <c r="T99" s="372"/>
-      <c r="U99" s="373"/>
-      <c r="V99" s="400" t="s">
+      <c r="A99" s="370"/>
+      <c r="B99" s="371"/>
+      <c r="C99" s="371"/>
+      <c r="D99" s="371"/>
+      <c r="E99" s="371"/>
+      <c r="F99" s="371"/>
+      <c r="G99" s="371"/>
+      <c r="H99" s="371"/>
+      <c r="I99" s="372"/>
+      <c r="J99" s="379"/>
+      <c r="K99" s="380"/>
+      <c r="L99" s="380"/>
+      <c r="M99" s="380"/>
+      <c r="N99" s="380"/>
+      <c r="O99" s="381"/>
+      <c r="P99" s="379"/>
+      <c r="Q99" s="380"/>
+      <c r="R99" s="380"/>
+      <c r="S99" s="380"/>
+      <c r="T99" s="380"/>
+      <c r="U99" s="381"/>
+      <c r="V99" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="W99" s="401"/>
-      <c r="X99" s="401"/>
-      <c r="Y99" s="401"/>
-      <c r="Z99" s="402"/>
-      <c r="AA99" s="403" t="s">
+      <c r="W99" s="386"/>
+      <c r="X99" s="386"/>
+      <c r="Y99" s="386"/>
+      <c r="Z99" s="387"/>
+      <c r="AA99" s="382" t="s">
         <v>128</v>
       </c>
-      <c r="AB99" s="404"/>
-      <c r="AC99" s="404"/>
-      <c r="AD99" s="404"/>
-      <c r="AE99" s="404"/>
-      <c r="AF99" s="404"/>
-      <c r="AG99" s="405"/>
-      <c r="AH99" s="406" t="s">
+      <c r="AB99" s="383"/>
+      <c r="AC99" s="383"/>
+      <c r="AD99" s="383"/>
+      <c r="AE99" s="383"/>
+      <c r="AF99" s="383"/>
+      <c r="AG99" s="384"/>
+      <c r="AH99" s="398" t="s">
         <v>9</v>
       </c>
-      <c r="AI99" s="407"/>
-      <c r="AJ99" s="407"/>
-      <c r="AK99" s="407"/>
-      <c r="AL99" s="408"/>
-      <c r="AM99" s="403" t="s">
+      <c r="AI99" s="399"/>
+      <c r="AJ99" s="399"/>
+      <c r="AK99" s="399"/>
+      <c r="AL99" s="400"/>
+      <c r="AM99" s="382" t="s">
         <v>98</v>
       </c>
-      <c r="AN99" s="404"/>
-      <c r="AO99" s="404"/>
-      <c r="AP99" s="404"/>
-      <c r="AQ99" s="404"/>
-      <c r="AR99" s="404"/>
-      <c r="AS99" s="404"/>
-      <c r="AT99" s="404"/>
-      <c r="AU99" s="404"/>
-      <c r="AV99" s="404"/>
-      <c r="AW99" s="430"/>
+      <c r="AN99" s="383"/>
+      <c r="AO99" s="383"/>
+      <c r="AP99" s="383"/>
+      <c r="AQ99" s="383"/>
+      <c r="AR99" s="383"/>
+      <c r="AS99" s="383"/>
+      <c r="AT99" s="383"/>
+      <c r="AU99" s="383"/>
+      <c r="AV99" s="383"/>
+      <c r="AW99" s="401"/>
     </row>
     <row r="100" spans="1:49" ht="15" thickTop="1">
       <c r="A100" s="223"/>
@@ -11121,25 +11121,25 @@
         <v>38</v>
       </c>
       <c r="F121" s="255"/>
-      <c r="G121" s="595" t="s">
+      <c r="G121" s="361" t="s">
         <v>39</v>
       </c>
-      <c r="H121" s="596"/>
-      <c r="I121" s="596"/>
-      <c r="J121" s="596"/>
-      <c r="K121" s="596"/>
-      <c r="L121" s="596"/>
-      <c r="M121" s="596"/>
-      <c r="N121" s="596"/>
-      <c r="O121" s="596"/>
-      <c r="P121" s="596"/>
-      <c r="Q121" s="596"/>
-      <c r="R121" s="596"/>
-      <c r="S121" s="596"/>
-      <c r="T121" s="596"/>
-      <c r="U121" s="596"/>
-      <c r="V121" s="596"/>
-      <c r="W121" s="597"/>
+      <c r="H121" s="362"/>
+      <c r="I121" s="362"/>
+      <c r="J121" s="362"/>
+      <c r="K121" s="362"/>
+      <c r="L121" s="362"/>
+      <c r="M121" s="362"/>
+      <c r="N121" s="362"/>
+      <c r="O121" s="362"/>
+      <c r="P121" s="362"/>
+      <c r="Q121" s="362"/>
+      <c r="R121" s="362"/>
+      <c r="S121" s="362"/>
+      <c r="T121" s="362"/>
+      <c r="U121" s="362"/>
+      <c r="V121" s="362"/>
+      <c r="W121" s="363"/>
       <c r="X121" s="312" t="s">
         <v>40</v>
       </c>
@@ -11198,13 +11198,13 @@
       <c r="R122" s="39"/>
       <c r="S122" s="39"/>
       <c r="T122" s="39"/>
-      <c r="U122" s="590"/>
+      <c r="U122" s="356"/>
       <c r="V122" s="231"/>
       <c r="W122" s="232"/>
-      <c r="X122" s="591" t="s">
+      <c r="X122" s="357" t="s">
         <v>136</v>
       </c>
-      <c r="Y122" s="592"/>
+      <c r="Y122" s="358"/>
       <c r="Z122" s="43"/>
       <c r="AA122" s="39"/>
       <c r="AB122" s="39"/>
@@ -11260,10 +11260,10 @@
       <c r="U123" s="46"/>
       <c r="V123" s="267"/>
       <c r="W123" s="234"/>
-      <c r="X123" s="593" t="s">
+      <c r="X123" s="359" t="s">
         <v>136</v>
       </c>
-      <c r="Y123" s="594"/>
+      <c r="Y123" s="360"/>
       <c r="Z123" s="49"/>
       <c r="AA123" s="46"/>
       <c r="AB123" s="46"/>
@@ -11319,10 +11319,10 @@
       <c r="U124" s="46"/>
       <c r="V124" s="267"/>
       <c r="W124" s="234"/>
-      <c r="X124" s="593" t="s">
+      <c r="X124" s="359" t="s">
         <v>43</v>
       </c>
-      <c r="Y124" s="594"/>
+      <c r="Y124" s="360"/>
       <c r="Z124" s="49"/>
       <c r="AA124" s="46"/>
       <c r="AB124" s="46"/>
@@ -11378,10 +11378,10 @@
       <c r="U125" s="46"/>
       <c r="V125" s="267"/>
       <c r="W125" s="234"/>
-      <c r="X125" s="593" t="s">
+      <c r="X125" s="359" t="s">
         <v>136</v>
       </c>
-      <c r="Y125" s="594"/>
+      <c r="Y125" s="360"/>
       <c r="Z125" s="46"/>
       <c r="AA125" s="46"/>
       <c r="AB125" s="46"/>
@@ -11437,10 +11437,10 @@
       <c r="U126" s="46"/>
       <c r="V126" s="267"/>
       <c r="W126" s="234"/>
-      <c r="X126" s="593" t="s">
+      <c r="X126" s="359" t="s">
         <v>43</v>
       </c>
-      <c r="Y126" s="594"/>
+      <c r="Y126" s="360"/>
       <c r="Z126" s="52"/>
       <c r="AA126" s="52"/>
       <c r="AB126" s="52"/>
@@ -12023,154 +12023,23 @@
     </row>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="X122:Y122"/>
-    <mergeCell ref="X123:Y123"/>
-    <mergeCell ref="X124:Y124"/>
-    <mergeCell ref="X125:Y125"/>
-    <mergeCell ref="G121:W121"/>
-    <mergeCell ref="X126:Y126"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="B6:AV10"/>
-    <mergeCell ref="B12:AV15"/>
-    <mergeCell ref="A34:I36"/>
-    <mergeCell ref="J34:O36"/>
-    <mergeCell ref="P34:U36"/>
-    <mergeCell ref="V34:Z35"/>
-    <mergeCell ref="AA34:AL35"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="AR34:AS34"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AT35:AW35"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="AA36:AG36"/>
-    <mergeCell ref="AH36:AL36"/>
-    <mergeCell ref="AM36:AW36"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:H41"/>
-    <mergeCell ref="I40:Z41"/>
-    <mergeCell ref="AA40:AD41"/>
-    <mergeCell ref="AE40:AM40"/>
-    <mergeCell ref="AN40:AV40"/>
-    <mergeCell ref="AE41:AI41"/>
-    <mergeCell ref="AJ41:AM41"/>
-    <mergeCell ref="AN41:AR41"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:H43"/>
-    <mergeCell ref="I42:Z43"/>
-    <mergeCell ref="AA42:AD43"/>
-    <mergeCell ref="AE42:AI43"/>
-    <mergeCell ref="AJ42:AM43"/>
-    <mergeCell ref="AN42:AR43"/>
-    <mergeCell ref="AS42:AV43"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:H45"/>
-    <mergeCell ref="I44:Z45"/>
-    <mergeCell ref="AA44:AD45"/>
-    <mergeCell ref="AE44:AI45"/>
-    <mergeCell ref="AJ44:AM45"/>
-    <mergeCell ref="AN44:AR45"/>
-    <mergeCell ref="AS44:AV45"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:H47"/>
-    <mergeCell ref="I46:Z47"/>
-    <mergeCell ref="AA46:AD47"/>
-    <mergeCell ref="AE46:AI47"/>
-    <mergeCell ref="AJ46:AM47"/>
-    <mergeCell ref="AN46:AR47"/>
-    <mergeCell ref="AS46:AV47"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:H49"/>
-    <mergeCell ref="I48:Z49"/>
-    <mergeCell ref="AA48:AD49"/>
-    <mergeCell ref="AE48:AI49"/>
-    <mergeCell ref="AJ48:AM49"/>
-    <mergeCell ref="AN48:AR49"/>
-    <mergeCell ref="AS48:AV49"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:H51"/>
-    <mergeCell ref="I50:Z51"/>
-    <mergeCell ref="AA50:AD51"/>
-    <mergeCell ref="AE50:AI51"/>
-    <mergeCell ref="AJ50:AM51"/>
-    <mergeCell ref="AN50:AR51"/>
-    <mergeCell ref="AS50:AV51"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:H53"/>
-    <mergeCell ref="I52:Z53"/>
-    <mergeCell ref="AA52:AD53"/>
-    <mergeCell ref="AE52:AI53"/>
-    <mergeCell ref="AJ52:AM53"/>
-    <mergeCell ref="AN52:AR53"/>
-    <mergeCell ref="AS52:AV53"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:H55"/>
-    <mergeCell ref="I54:Z55"/>
-    <mergeCell ref="AA54:AD55"/>
-    <mergeCell ref="AE54:AI55"/>
-    <mergeCell ref="AJ54:AM55"/>
-    <mergeCell ref="AN54:AR55"/>
-    <mergeCell ref="AS54:AV55"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:H57"/>
-    <mergeCell ref="I56:Z57"/>
-    <mergeCell ref="AA56:AD57"/>
-    <mergeCell ref="AE56:AI57"/>
-    <mergeCell ref="AJ56:AM57"/>
-    <mergeCell ref="AN56:AR57"/>
-    <mergeCell ref="AS56:AV57"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="D58:H59"/>
-    <mergeCell ref="I58:Z59"/>
-    <mergeCell ref="AA58:AD59"/>
-    <mergeCell ref="AE58:AI59"/>
-    <mergeCell ref="AJ58:AM59"/>
-    <mergeCell ref="AN58:AR59"/>
-    <mergeCell ref="AS58:AV59"/>
-    <mergeCell ref="B60:C61"/>
-    <mergeCell ref="D60:H61"/>
-    <mergeCell ref="I60:Z61"/>
-    <mergeCell ref="AA60:AD61"/>
-    <mergeCell ref="AE60:AI61"/>
-    <mergeCell ref="AJ60:AM61"/>
-    <mergeCell ref="AN60:AR61"/>
-    <mergeCell ref="AS60:AV61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="D62:H63"/>
-    <mergeCell ref="I62:Z63"/>
-    <mergeCell ref="AA62:AD63"/>
-    <mergeCell ref="AE62:AI63"/>
-    <mergeCell ref="AJ62:AM63"/>
-    <mergeCell ref="AN62:AR63"/>
-    <mergeCell ref="AS62:AV63"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:H65"/>
-    <mergeCell ref="I64:Z65"/>
-    <mergeCell ref="AA64:AD65"/>
-    <mergeCell ref="AE64:AI65"/>
-    <mergeCell ref="AJ64:AM65"/>
-    <mergeCell ref="AN64:AR65"/>
-    <mergeCell ref="AS64:AV65"/>
+    <mergeCell ref="A97:I99"/>
+    <mergeCell ref="J97:O99"/>
+    <mergeCell ref="P97:U99"/>
+    <mergeCell ref="V97:Z98"/>
+    <mergeCell ref="AA97:AL98"/>
+    <mergeCell ref="AM97:AN97"/>
+    <mergeCell ref="AO97:AQ97"/>
+    <mergeCell ref="AR97:AS97"/>
+    <mergeCell ref="AT97:AW97"/>
+    <mergeCell ref="AM98:AN98"/>
+    <mergeCell ref="AO98:AQ98"/>
+    <mergeCell ref="AR98:AS98"/>
+    <mergeCell ref="AT98:AW98"/>
+    <mergeCell ref="V99:Z99"/>
+    <mergeCell ref="AA99:AG99"/>
+    <mergeCell ref="AH99:AL99"/>
+    <mergeCell ref="AM99:AW99"/>
     <mergeCell ref="A67:I69"/>
     <mergeCell ref="J67:O69"/>
     <mergeCell ref="P67:U69"/>
@@ -12188,23 +12057,154 @@
     <mergeCell ref="AA69:AG69"/>
     <mergeCell ref="AH69:AL69"/>
     <mergeCell ref="AM69:AW69"/>
-    <mergeCell ref="A97:I99"/>
-    <mergeCell ref="J97:O99"/>
-    <mergeCell ref="P97:U99"/>
-    <mergeCell ref="V97:Z98"/>
-    <mergeCell ref="AA97:AL98"/>
-    <mergeCell ref="AM97:AN97"/>
-    <mergeCell ref="AO97:AQ97"/>
-    <mergeCell ref="AR97:AS97"/>
-    <mergeCell ref="AT97:AW97"/>
-    <mergeCell ref="AM98:AN98"/>
-    <mergeCell ref="AO98:AQ98"/>
-    <mergeCell ref="AR98:AS98"/>
-    <mergeCell ref="AT98:AW98"/>
-    <mergeCell ref="V99:Z99"/>
-    <mergeCell ref="AA99:AG99"/>
-    <mergeCell ref="AH99:AL99"/>
-    <mergeCell ref="AM99:AW99"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D62:H63"/>
+    <mergeCell ref="I62:Z63"/>
+    <mergeCell ref="AA62:AD63"/>
+    <mergeCell ref="AE62:AI63"/>
+    <mergeCell ref="AJ62:AM63"/>
+    <mergeCell ref="AN62:AR63"/>
+    <mergeCell ref="AS62:AV63"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:H65"/>
+    <mergeCell ref="I64:Z65"/>
+    <mergeCell ref="AA64:AD65"/>
+    <mergeCell ref="AE64:AI65"/>
+    <mergeCell ref="AJ64:AM65"/>
+    <mergeCell ref="AN64:AR65"/>
+    <mergeCell ref="AS64:AV65"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:H59"/>
+    <mergeCell ref="I58:Z59"/>
+    <mergeCell ref="AA58:AD59"/>
+    <mergeCell ref="AE58:AI59"/>
+    <mergeCell ref="AJ58:AM59"/>
+    <mergeCell ref="AN58:AR59"/>
+    <mergeCell ref="AS58:AV59"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="D60:H61"/>
+    <mergeCell ref="I60:Z61"/>
+    <mergeCell ref="AA60:AD61"/>
+    <mergeCell ref="AE60:AI61"/>
+    <mergeCell ref="AJ60:AM61"/>
+    <mergeCell ref="AN60:AR61"/>
+    <mergeCell ref="AS60:AV61"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:H55"/>
+    <mergeCell ref="I54:Z55"/>
+    <mergeCell ref="AA54:AD55"/>
+    <mergeCell ref="AE54:AI55"/>
+    <mergeCell ref="AJ54:AM55"/>
+    <mergeCell ref="AN54:AR55"/>
+    <mergeCell ref="AS54:AV55"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:H57"/>
+    <mergeCell ref="I56:Z57"/>
+    <mergeCell ref="AA56:AD57"/>
+    <mergeCell ref="AE56:AI57"/>
+    <mergeCell ref="AJ56:AM57"/>
+    <mergeCell ref="AN56:AR57"/>
+    <mergeCell ref="AS56:AV57"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:H51"/>
+    <mergeCell ref="I50:Z51"/>
+    <mergeCell ref="AA50:AD51"/>
+    <mergeCell ref="AE50:AI51"/>
+    <mergeCell ref="AJ50:AM51"/>
+    <mergeCell ref="AN50:AR51"/>
+    <mergeCell ref="AS50:AV51"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:H53"/>
+    <mergeCell ref="I52:Z53"/>
+    <mergeCell ref="AA52:AD53"/>
+    <mergeCell ref="AE52:AI53"/>
+    <mergeCell ref="AJ52:AM53"/>
+    <mergeCell ref="AN52:AR53"/>
+    <mergeCell ref="AS52:AV53"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:H47"/>
+    <mergeCell ref="I46:Z47"/>
+    <mergeCell ref="AA46:AD47"/>
+    <mergeCell ref="AE46:AI47"/>
+    <mergeCell ref="AJ46:AM47"/>
+    <mergeCell ref="AN46:AR47"/>
+    <mergeCell ref="AS46:AV47"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:H49"/>
+    <mergeCell ref="I48:Z49"/>
+    <mergeCell ref="AA48:AD49"/>
+    <mergeCell ref="AE48:AI49"/>
+    <mergeCell ref="AJ48:AM49"/>
+    <mergeCell ref="AN48:AR49"/>
+    <mergeCell ref="AS48:AV49"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:H43"/>
+    <mergeCell ref="I42:Z43"/>
+    <mergeCell ref="AA42:AD43"/>
+    <mergeCell ref="AE42:AI43"/>
+    <mergeCell ref="AJ42:AM43"/>
+    <mergeCell ref="AN42:AR43"/>
+    <mergeCell ref="AS42:AV43"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:H45"/>
+    <mergeCell ref="I44:Z45"/>
+    <mergeCell ref="AA44:AD45"/>
+    <mergeCell ref="AE44:AI45"/>
+    <mergeCell ref="AJ44:AM45"/>
+    <mergeCell ref="AN44:AR45"/>
+    <mergeCell ref="AS44:AV45"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="AA36:AG36"/>
+    <mergeCell ref="AH36:AL36"/>
+    <mergeCell ref="AM36:AW36"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:H41"/>
+    <mergeCell ref="I40:Z41"/>
+    <mergeCell ref="AA40:AD41"/>
+    <mergeCell ref="AE40:AM40"/>
+    <mergeCell ref="AN40:AV40"/>
+    <mergeCell ref="AE41:AI41"/>
+    <mergeCell ref="AJ41:AM41"/>
+    <mergeCell ref="AN41:AR41"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="X122:Y122"/>
+    <mergeCell ref="X123:Y123"/>
+    <mergeCell ref="X124:Y124"/>
+    <mergeCell ref="X125:Y125"/>
+    <mergeCell ref="G121:W121"/>
+    <mergeCell ref="X126:Y126"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="B6:AV10"/>
+    <mergeCell ref="B12:AV15"/>
+    <mergeCell ref="A34:I36"/>
+    <mergeCell ref="J34:O36"/>
+    <mergeCell ref="P34:U36"/>
+    <mergeCell ref="V34:Z35"/>
+    <mergeCell ref="AA34:AL35"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="AR34:AS34"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AT35:AW35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -12220,8 +12220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW190"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A37" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A165" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AF179" sqref="AF179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12277,187 +12277,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15" thickTop="1">
-      <c r="A1" s="568" t="s">
+      <c r="A1" s="579" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="358"/>
-      <c r="J1" s="365" t="s">
+      <c r="B1" s="365"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
+      <c r="I1" s="366"/>
+      <c r="J1" s="373" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="366"/>
-      <c r="L1" s="366"/>
-      <c r="M1" s="366"/>
-      <c r="N1" s="366"/>
-      <c r="O1" s="367"/>
-      <c r="P1" s="365" t="s">
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
+      <c r="N1" s="374"/>
+      <c r="O1" s="375"/>
+      <c r="P1" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="366"/>
-      <c r="R1" s="366"/>
-      <c r="S1" s="366"/>
-      <c r="T1" s="366"/>
-      <c r="U1" s="367"/>
-      <c r="V1" s="374" t="s">
+      <c r="Q1" s="374"/>
+      <c r="R1" s="374"/>
+      <c r="S1" s="374"/>
+      <c r="T1" s="374"/>
+      <c r="U1" s="375"/>
+      <c r="V1" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="375"/>
-      <c r="X1" s="375"/>
-      <c r="Y1" s="375"/>
-      <c r="Z1" s="376"/>
-      <c r="AA1" s="380" t="s">
+      <c r="W1" s="389"/>
+      <c r="X1" s="389"/>
+      <c r="Y1" s="389"/>
+      <c r="Z1" s="390"/>
+      <c r="AA1" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="366"/>
-      <c r="AC1" s="366"/>
-      <c r="AD1" s="366"/>
-      <c r="AE1" s="366"/>
-      <c r="AF1" s="366"/>
-      <c r="AG1" s="366"/>
-      <c r="AH1" s="366"/>
-      <c r="AI1" s="366"/>
-      <c r="AJ1" s="366"/>
-      <c r="AK1" s="366"/>
-      <c r="AL1" s="367"/>
-      <c r="AM1" s="384" t="s">
+      <c r="AB1" s="374"/>
+      <c r="AC1" s="374"/>
+      <c r="AD1" s="374"/>
+      <c r="AE1" s="374"/>
+      <c r="AF1" s="374"/>
+      <c r="AG1" s="374"/>
+      <c r="AH1" s="374"/>
+      <c r="AI1" s="374"/>
+      <c r="AJ1" s="374"/>
+      <c r="AK1" s="374"/>
+      <c r="AL1" s="375"/>
+      <c r="AM1" s="396" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="385"/>
-      <c r="AO1" s="386" t="s">
+      <c r="AN1" s="397"/>
+      <c r="AO1" s="402" t="s">
         <v>99</v>
       </c>
-      <c r="AP1" s="387"/>
-      <c r="AQ1" s="388"/>
-      <c r="AR1" s="384" t="s">
+      <c r="AP1" s="403"/>
+      <c r="AQ1" s="404"/>
+      <c r="AR1" s="396" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="385"/>
-      <c r="AT1" s="389">
+      <c r="AS1" s="397"/>
+      <c r="AT1" s="413">
         <v>45056</v>
       </c>
-      <c r="AU1" s="390"/>
-      <c r="AV1" s="390"/>
-      <c r="AW1" s="391"/>
+      <c r="AU1" s="414"/>
+      <c r="AV1" s="414"/>
+      <c r="AW1" s="415"/>
     </row>
     <row r="2" spans="1:49">
-      <c r="A2" s="569"/>
-      <c r="B2" s="570"/>
-      <c r="C2" s="570"/>
-      <c r="D2" s="570"/>
-      <c r="E2" s="570"/>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="570"/>
-      <c r="I2" s="361"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="560"/>
-      <c r="L2" s="560"/>
-      <c r="M2" s="560"/>
-      <c r="N2" s="560"/>
-      <c r="O2" s="370"/>
-      <c r="P2" s="368"/>
-      <c r="Q2" s="560"/>
-      <c r="R2" s="560"/>
-      <c r="S2" s="560"/>
-      <c r="T2" s="560"/>
-      <c r="U2" s="370"/>
-      <c r="V2" s="561"/>
-      <c r="W2" s="562"/>
-      <c r="X2" s="562"/>
-      <c r="Y2" s="562"/>
-      <c r="Z2" s="563"/>
-      <c r="AA2" s="564"/>
-      <c r="AB2" s="560"/>
-      <c r="AC2" s="560"/>
-      <c r="AD2" s="560"/>
-      <c r="AE2" s="560"/>
-      <c r="AF2" s="560"/>
-      <c r="AG2" s="560"/>
-      <c r="AH2" s="560"/>
-      <c r="AI2" s="560"/>
-      <c r="AJ2" s="560"/>
-      <c r="AK2" s="560"/>
-      <c r="AL2" s="370"/>
-      <c r="AM2" s="392" t="s">
+      <c r="A2" s="580"/>
+      <c r="B2" s="594"/>
+      <c r="C2" s="594"/>
+      <c r="D2" s="594"/>
+      <c r="E2" s="594"/>
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="594"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="376"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="378"/>
+      <c r="P2" s="376"/>
+      <c r="Q2" s="377"/>
+      <c r="R2" s="377"/>
+      <c r="S2" s="377"/>
+      <c r="T2" s="377"/>
+      <c r="U2" s="378"/>
+      <c r="V2" s="391"/>
+      <c r="W2" s="392"/>
+      <c r="X2" s="392"/>
+      <c r="Y2" s="392"/>
+      <c r="Z2" s="393"/>
+      <c r="AA2" s="395"/>
+      <c r="AB2" s="377"/>
+      <c r="AC2" s="377"/>
+      <c r="AD2" s="377"/>
+      <c r="AE2" s="377"/>
+      <c r="AF2" s="377"/>
+      <c r="AG2" s="377"/>
+      <c r="AH2" s="377"/>
+      <c r="AI2" s="377"/>
+      <c r="AJ2" s="377"/>
+      <c r="AK2" s="377"/>
+      <c r="AL2" s="378"/>
+      <c r="AM2" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="393"/>
-      <c r="AO2" s="394"/>
-      <c r="AP2" s="395"/>
-      <c r="AQ2" s="396"/>
-      <c r="AR2" s="392" t="s">
+      <c r="AN2" s="406"/>
+      <c r="AO2" s="407"/>
+      <c r="AP2" s="408"/>
+      <c r="AQ2" s="409"/>
+      <c r="AR2" s="405" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="393"/>
-      <c r="AT2" s="397"/>
-      <c r="AU2" s="398"/>
-      <c r="AV2" s="398"/>
-      <c r="AW2" s="399"/>
+      <c r="AS2" s="406"/>
+      <c r="AT2" s="410"/>
+      <c r="AU2" s="411"/>
+      <c r="AV2" s="411"/>
+      <c r="AW2" s="412"/>
     </row>
     <row r="3" spans="1:49" ht="15" thickBot="1">
-      <c r="A3" s="571"/>
-      <c r="B3" s="363"/>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
-      <c r="I3" s="364"/>
-      <c r="J3" s="371"/>
-      <c r="K3" s="372"/>
-      <c r="L3" s="372"/>
-      <c r="M3" s="372"/>
-      <c r="N3" s="372"/>
-      <c r="O3" s="373"/>
-      <c r="P3" s="371"/>
-      <c r="Q3" s="372"/>
-      <c r="R3" s="372"/>
-      <c r="S3" s="372"/>
-      <c r="T3" s="372"/>
-      <c r="U3" s="373"/>
-      <c r="V3" s="400" t="s">
+      <c r="A3" s="581"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="371"/>
+      <c r="H3" s="371"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="379"/>
+      <c r="K3" s="380"/>
+      <c r="L3" s="380"/>
+      <c r="M3" s="380"/>
+      <c r="N3" s="380"/>
+      <c r="O3" s="381"/>
+      <c r="P3" s="379"/>
+      <c r="Q3" s="380"/>
+      <c r="R3" s="380"/>
+      <c r="S3" s="380"/>
+      <c r="T3" s="380"/>
+      <c r="U3" s="381"/>
+      <c r="V3" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="401"/>
-      <c r="X3" s="401"/>
-      <c r="Y3" s="401"/>
-      <c r="Z3" s="402"/>
-      <c r="AA3" s="403" t="s">
+      <c r="W3" s="386"/>
+      <c r="X3" s="386"/>
+      <c r="Y3" s="386"/>
+      <c r="Z3" s="387"/>
+      <c r="AA3" s="382" t="s">
         <v>128</v>
       </c>
-      <c r="AB3" s="404"/>
-      <c r="AC3" s="404"/>
-      <c r="AD3" s="404"/>
-      <c r="AE3" s="404"/>
-      <c r="AF3" s="404"/>
-      <c r="AG3" s="405"/>
-      <c r="AH3" s="406" t="s">
+      <c r="AB3" s="383"/>
+      <c r="AC3" s="383"/>
+      <c r="AD3" s="383"/>
+      <c r="AE3" s="383"/>
+      <c r="AF3" s="383"/>
+      <c r="AG3" s="384"/>
+      <c r="AH3" s="398" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="407"/>
-      <c r="AJ3" s="407"/>
-      <c r="AK3" s="407"/>
-      <c r="AL3" s="408"/>
-      <c r="AM3" s="403" t="s">
+      <c r="AI3" s="399"/>
+      <c r="AJ3" s="399"/>
+      <c r="AK3" s="399"/>
+      <c r="AL3" s="400"/>
+      <c r="AM3" s="382" t="s">
         <v>98</v>
       </c>
-      <c r="AN3" s="404"/>
-      <c r="AO3" s="404"/>
-      <c r="AP3" s="404"/>
-      <c r="AQ3" s="404"/>
-      <c r="AR3" s="404"/>
-      <c r="AS3" s="404"/>
-      <c r="AT3" s="404"/>
-      <c r="AU3" s="404"/>
-      <c r="AV3" s="404"/>
-      <c r="AW3" s="430"/>
+      <c r="AN3" s="383"/>
+      <c r="AO3" s="383"/>
+      <c r="AP3" s="383"/>
+      <c r="AQ3" s="383"/>
+      <c r="AR3" s="383"/>
+      <c r="AS3" s="383"/>
+      <c r="AT3" s="383"/>
+      <c r="AU3" s="383"/>
+      <c r="AV3" s="383"/>
+      <c r="AW3" s="401"/>
     </row>
     <row r="4" spans="1:49" ht="15" thickTop="1"/>
     <row r="5" spans="1:49">
@@ -12980,187 +12980,187 @@
     </row>
     <row r="33" spans="1:49" ht="15" thickBot="1"/>
     <row r="34" spans="1:49" ht="15" customHeight="1" thickTop="1">
-      <c r="A34" s="568" t="s">
+      <c r="A34" s="579" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="357"/>
-      <c r="C34" s="357"/>
-      <c r="D34" s="357"/>
-      <c r="E34" s="357"/>
-      <c r="F34" s="357"/>
-      <c r="G34" s="357"/>
-      <c r="H34" s="357"/>
-      <c r="I34" s="358"/>
-      <c r="J34" s="365" t="s">
+      <c r="B34" s="365"/>
+      <c r="C34" s="365"/>
+      <c r="D34" s="365"/>
+      <c r="E34" s="365"/>
+      <c r="F34" s="365"/>
+      <c r="G34" s="365"/>
+      <c r="H34" s="365"/>
+      <c r="I34" s="366"/>
+      <c r="J34" s="373" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="366"/>
-      <c r="L34" s="366"/>
-      <c r="M34" s="366"/>
-      <c r="N34" s="366"/>
-      <c r="O34" s="367"/>
-      <c r="P34" s="365" t="s">
+      <c r="K34" s="374"/>
+      <c r="L34" s="374"/>
+      <c r="M34" s="374"/>
+      <c r="N34" s="374"/>
+      <c r="O34" s="375"/>
+      <c r="P34" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="366"/>
-      <c r="R34" s="366"/>
-      <c r="S34" s="366"/>
-      <c r="T34" s="366"/>
-      <c r="U34" s="367"/>
-      <c r="V34" s="374" t="s">
+      <c r="Q34" s="374"/>
+      <c r="R34" s="374"/>
+      <c r="S34" s="374"/>
+      <c r="T34" s="374"/>
+      <c r="U34" s="375"/>
+      <c r="V34" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="W34" s="375"/>
-      <c r="X34" s="375"/>
-      <c r="Y34" s="375"/>
-      <c r="Z34" s="376"/>
-      <c r="AA34" s="380" t="s">
+      <c r="W34" s="389"/>
+      <c r="X34" s="389"/>
+      <c r="Y34" s="389"/>
+      <c r="Z34" s="390"/>
+      <c r="AA34" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="AB34" s="366"/>
-      <c r="AC34" s="366"/>
-      <c r="AD34" s="366"/>
-      <c r="AE34" s="366"/>
-      <c r="AF34" s="366"/>
-      <c r="AG34" s="366"/>
-      <c r="AH34" s="366"/>
-      <c r="AI34" s="366"/>
-      <c r="AJ34" s="366"/>
-      <c r="AK34" s="366"/>
-      <c r="AL34" s="367"/>
-      <c r="AM34" s="384" t="s">
+      <c r="AB34" s="374"/>
+      <c r="AC34" s="374"/>
+      <c r="AD34" s="374"/>
+      <c r="AE34" s="374"/>
+      <c r="AF34" s="374"/>
+      <c r="AG34" s="374"/>
+      <c r="AH34" s="374"/>
+      <c r="AI34" s="374"/>
+      <c r="AJ34" s="374"/>
+      <c r="AK34" s="374"/>
+      <c r="AL34" s="375"/>
+      <c r="AM34" s="396" t="s">
         <v>4</v>
       </c>
-      <c r="AN34" s="385"/>
-      <c r="AO34" s="386" t="s">
+      <c r="AN34" s="397"/>
+      <c r="AO34" s="402" t="s">
         <v>99</v>
       </c>
-      <c r="AP34" s="387"/>
-      <c r="AQ34" s="388"/>
-      <c r="AR34" s="384" t="s">
+      <c r="AP34" s="403"/>
+      <c r="AQ34" s="404"/>
+      <c r="AR34" s="396" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="385"/>
-      <c r="AT34" s="389">
+      <c r="AS34" s="397"/>
+      <c r="AT34" s="413">
         <v>45056</v>
       </c>
-      <c r="AU34" s="390"/>
-      <c r="AV34" s="390"/>
-      <c r="AW34" s="391"/>
+      <c r="AU34" s="414"/>
+      <c r="AV34" s="414"/>
+      <c r="AW34" s="415"/>
     </row>
     <row r="35" spans="1:49">
-      <c r="A35" s="569"/>
-      <c r="B35" s="360"/>
-      <c r="C35" s="360"/>
-      <c r="D35" s="360"/>
-      <c r="E35" s="360"/>
-      <c r="F35" s="360"/>
-      <c r="G35" s="360"/>
-      <c r="H35" s="360"/>
-      <c r="I35" s="361"/>
-      <c r="J35" s="368"/>
-      <c r="K35" s="560"/>
-      <c r="L35" s="560"/>
-      <c r="M35" s="560"/>
-      <c r="N35" s="560"/>
-      <c r="O35" s="370"/>
-      <c r="P35" s="368"/>
-      <c r="Q35" s="560"/>
-      <c r="R35" s="560"/>
-      <c r="S35" s="560"/>
-      <c r="T35" s="560"/>
-      <c r="U35" s="370"/>
-      <c r="V35" s="561"/>
-      <c r="W35" s="562"/>
-      <c r="X35" s="562"/>
-      <c r="Y35" s="562"/>
-      <c r="Z35" s="563"/>
-      <c r="AA35" s="564"/>
-      <c r="AB35" s="560"/>
-      <c r="AC35" s="560"/>
-      <c r="AD35" s="560"/>
-      <c r="AE35" s="560"/>
-      <c r="AF35" s="560"/>
-      <c r="AG35" s="560"/>
-      <c r="AH35" s="560"/>
-      <c r="AI35" s="560"/>
-      <c r="AJ35" s="560"/>
-      <c r="AK35" s="560"/>
-      <c r="AL35" s="370"/>
-      <c r="AM35" s="392" t="s">
+      <c r="A35" s="580"/>
+      <c r="B35" s="368"/>
+      <c r="C35" s="368"/>
+      <c r="D35" s="368"/>
+      <c r="E35" s="368"/>
+      <c r="F35" s="368"/>
+      <c r="G35" s="368"/>
+      <c r="H35" s="368"/>
+      <c r="I35" s="369"/>
+      <c r="J35" s="376"/>
+      <c r="K35" s="377"/>
+      <c r="L35" s="377"/>
+      <c r="M35" s="377"/>
+      <c r="N35" s="377"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="376"/>
+      <c r="Q35" s="377"/>
+      <c r="R35" s="377"/>
+      <c r="S35" s="377"/>
+      <c r="T35" s="377"/>
+      <c r="U35" s="378"/>
+      <c r="V35" s="391"/>
+      <c r="W35" s="392"/>
+      <c r="X35" s="392"/>
+      <c r="Y35" s="392"/>
+      <c r="Z35" s="393"/>
+      <c r="AA35" s="395"/>
+      <c r="AB35" s="377"/>
+      <c r="AC35" s="377"/>
+      <c r="AD35" s="377"/>
+      <c r="AE35" s="377"/>
+      <c r="AF35" s="377"/>
+      <c r="AG35" s="377"/>
+      <c r="AH35" s="377"/>
+      <c r="AI35" s="377"/>
+      <c r="AJ35" s="377"/>
+      <c r="AK35" s="377"/>
+      <c r="AL35" s="378"/>
+      <c r="AM35" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="AN35" s="393"/>
-      <c r="AO35" s="394"/>
-      <c r="AP35" s="395"/>
-      <c r="AQ35" s="396"/>
-      <c r="AR35" s="392" t="s">
+      <c r="AN35" s="406"/>
+      <c r="AO35" s="407"/>
+      <c r="AP35" s="408"/>
+      <c r="AQ35" s="409"/>
+      <c r="AR35" s="405" t="s">
         <v>7</v>
       </c>
-      <c r="AS35" s="393"/>
-      <c r="AT35" s="397"/>
-      <c r="AU35" s="398"/>
-      <c r="AV35" s="398"/>
-      <c r="AW35" s="399"/>
+      <c r="AS35" s="406"/>
+      <c r="AT35" s="410"/>
+      <c r="AU35" s="411"/>
+      <c r="AV35" s="411"/>
+      <c r="AW35" s="412"/>
     </row>
     <row r="36" spans="1:49" ht="15" thickBot="1">
-      <c r="A36" s="571"/>
-      <c r="B36" s="363"/>
-      <c r="C36" s="363"/>
-      <c r="D36" s="363"/>
-      <c r="E36" s="363"/>
-      <c r="F36" s="363"/>
-      <c r="G36" s="363"/>
-      <c r="H36" s="363"/>
-      <c r="I36" s="364"/>
-      <c r="J36" s="371"/>
-      <c r="K36" s="372"/>
-      <c r="L36" s="372"/>
-      <c r="M36" s="372"/>
-      <c r="N36" s="372"/>
-      <c r="O36" s="373"/>
-      <c r="P36" s="371"/>
-      <c r="Q36" s="372"/>
-      <c r="R36" s="372"/>
-      <c r="S36" s="372"/>
-      <c r="T36" s="372"/>
-      <c r="U36" s="373"/>
-      <c r="V36" s="400" t="s">
+      <c r="A36" s="581"/>
+      <c r="B36" s="371"/>
+      <c r="C36" s="371"/>
+      <c r="D36" s="371"/>
+      <c r="E36" s="371"/>
+      <c r="F36" s="371"/>
+      <c r="G36" s="371"/>
+      <c r="H36" s="371"/>
+      <c r="I36" s="372"/>
+      <c r="J36" s="379"/>
+      <c r="K36" s="380"/>
+      <c r="L36" s="380"/>
+      <c r="M36" s="380"/>
+      <c r="N36" s="380"/>
+      <c r="O36" s="381"/>
+      <c r="P36" s="379"/>
+      <c r="Q36" s="380"/>
+      <c r="R36" s="380"/>
+      <c r="S36" s="380"/>
+      <c r="T36" s="380"/>
+      <c r="U36" s="381"/>
+      <c r="V36" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="W36" s="401"/>
-      <c r="X36" s="401"/>
-      <c r="Y36" s="401"/>
-      <c r="Z36" s="402"/>
-      <c r="AA36" s="403" t="s">
+      <c r="W36" s="386"/>
+      <c r="X36" s="386"/>
+      <c r="Y36" s="386"/>
+      <c r="Z36" s="387"/>
+      <c r="AA36" s="382" t="s">
         <v>128</v>
       </c>
-      <c r="AB36" s="404"/>
-      <c r="AC36" s="404"/>
-      <c r="AD36" s="404"/>
-      <c r="AE36" s="404"/>
-      <c r="AF36" s="404"/>
-      <c r="AG36" s="405"/>
-      <c r="AH36" s="406" t="s">
+      <c r="AB36" s="383"/>
+      <c r="AC36" s="383"/>
+      <c r="AD36" s="383"/>
+      <c r="AE36" s="383"/>
+      <c r="AF36" s="383"/>
+      <c r="AG36" s="384"/>
+      <c r="AH36" s="398" t="s">
         <v>9</v>
       </c>
-      <c r="AI36" s="407"/>
-      <c r="AJ36" s="407"/>
-      <c r="AK36" s="407"/>
-      <c r="AL36" s="408"/>
-      <c r="AM36" s="403" t="s">
+      <c r="AI36" s="399"/>
+      <c r="AJ36" s="399"/>
+      <c r="AK36" s="399"/>
+      <c r="AL36" s="400"/>
+      <c r="AM36" s="382" t="s">
         <v>98</v>
       </c>
-      <c r="AN36" s="404"/>
-      <c r="AO36" s="404"/>
-      <c r="AP36" s="404"/>
-      <c r="AQ36" s="404"/>
-      <c r="AR36" s="404"/>
-      <c r="AS36" s="404"/>
-      <c r="AT36" s="404"/>
-      <c r="AU36" s="404"/>
-      <c r="AV36" s="577"/>
-      <c r="AW36" s="578"/>
+      <c r="AN36" s="383"/>
+      <c r="AO36" s="383"/>
+      <c r="AP36" s="383"/>
+      <c r="AQ36" s="383"/>
+      <c r="AR36" s="383"/>
+      <c r="AS36" s="383"/>
+      <c r="AT36" s="383"/>
+      <c r="AU36" s="383"/>
+      <c r="AV36" s="587"/>
+      <c r="AW36" s="588"/>
     </row>
     <row r="37" spans="1:49" ht="15" thickTop="1">
       <c r="A37" s="223"/>
@@ -14394,10 +14394,10 @@
       <c r="Q60" s="157"/>
       <c r="R60" s="158"/>
       <c r="S60" s="159"/>
-      <c r="T60" s="565" t="s">
+      <c r="T60" s="595" t="s">
         <v>71</v>
       </c>
-      <c r="U60" s="566"/>
+      <c r="U60" s="596"/>
       <c r="V60" s="160" t="s">
         <v>113</v>
       </c>
@@ -14472,187 +14472,187 @@
       <c r="AW68" s="223"/>
     </row>
     <row r="69" spans="1:49" ht="15" thickTop="1">
-      <c r="A69" s="356" t="s">
+      <c r="A69" s="364" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="409"/>
-      <c r="C69" s="409"/>
-      <c r="D69" s="409"/>
-      <c r="E69" s="409"/>
-      <c r="F69" s="409"/>
-      <c r="G69" s="409"/>
-      <c r="H69" s="409"/>
-      <c r="I69" s="574"/>
-      <c r="J69" s="366" t="s">
+      <c r="B69" s="552"/>
+      <c r="C69" s="552"/>
+      <c r="D69" s="552"/>
+      <c r="E69" s="552"/>
+      <c r="F69" s="552"/>
+      <c r="G69" s="552"/>
+      <c r="H69" s="552"/>
+      <c r="I69" s="589"/>
+      <c r="J69" s="374" t="s">
         <v>1</v>
       </c>
-      <c r="K69" s="366"/>
-      <c r="L69" s="366"/>
-      <c r="M69" s="366"/>
-      <c r="N69" s="366"/>
-      <c r="O69" s="367"/>
-      <c r="P69" s="365" t="s">
+      <c r="K69" s="374"/>
+      <c r="L69" s="374"/>
+      <c r="M69" s="374"/>
+      <c r="N69" s="374"/>
+      <c r="O69" s="375"/>
+      <c r="P69" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="Q69" s="366"/>
-      <c r="R69" s="366"/>
-      <c r="S69" s="366"/>
-      <c r="T69" s="366"/>
-      <c r="U69" s="367"/>
-      <c r="V69" s="374" t="s">
+      <c r="Q69" s="374"/>
+      <c r="R69" s="374"/>
+      <c r="S69" s="374"/>
+      <c r="T69" s="374"/>
+      <c r="U69" s="375"/>
+      <c r="V69" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="W69" s="375"/>
-      <c r="X69" s="375"/>
-      <c r="Y69" s="375"/>
-      <c r="Z69" s="376"/>
-      <c r="AA69" s="380" t="s">
+      <c r="W69" s="389"/>
+      <c r="X69" s="389"/>
+      <c r="Y69" s="389"/>
+      <c r="Z69" s="390"/>
+      <c r="AA69" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="AB69" s="366"/>
-      <c r="AC69" s="366"/>
-      <c r="AD69" s="366"/>
-      <c r="AE69" s="366"/>
-      <c r="AF69" s="366"/>
-      <c r="AG69" s="366"/>
-      <c r="AH69" s="366"/>
-      <c r="AI69" s="366"/>
-      <c r="AJ69" s="366"/>
-      <c r="AK69" s="366"/>
-      <c r="AL69" s="367"/>
-      <c r="AM69" s="384" t="s">
+      <c r="AB69" s="374"/>
+      <c r="AC69" s="374"/>
+      <c r="AD69" s="374"/>
+      <c r="AE69" s="374"/>
+      <c r="AF69" s="374"/>
+      <c r="AG69" s="374"/>
+      <c r="AH69" s="374"/>
+      <c r="AI69" s="374"/>
+      <c r="AJ69" s="374"/>
+      <c r="AK69" s="374"/>
+      <c r="AL69" s="375"/>
+      <c r="AM69" s="396" t="s">
         <v>4</v>
       </c>
-      <c r="AN69" s="385"/>
-      <c r="AO69" s="386" t="s">
+      <c r="AN69" s="397"/>
+      <c r="AO69" s="402" t="s">
         <v>99</v>
       </c>
-      <c r="AP69" s="387"/>
-      <c r="AQ69" s="388"/>
-      <c r="AR69" s="384" t="s">
+      <c r="AP69" s="403"/>
+      <c r="AQ69" s="404"/>
+      <c r="AR69" s="396" t="s">
         <v>5</v>
       </c>
-      <c r="AS69" s="385"/>
-      <c r="AT69" s="389">
+      <c r="AS69" s="397"/>
+      <c r="AT69" s="413">
         <v>45056</v>
       </c>
-      <c r="AU69" s="390"/>
-      <c r="AV69" s="390"/>
-      <c r="AW69" s="391"/>
+      <c r="AU69" s="414"/>
+      <c r="AV69" s="414"/>
+      <c r="AW69" s="415"/>
     </row>
     <row r="70" spans="1:49">
-      <c r="A70" s="411"/>
-      <c r="B70" s="412"/>
-      <c r="C70" s="412"/>
-      <c r="D70" s="412"/>
-      <c r="E70" s="412"/>
-      <c r="F70" s="412"/>
-      <c r="G70" s="412"/>
-      <c r="H70" s="412"/>
-      <c r="I70" s="575"/>
-      <c r="J70" s="369"/>
-      <c r="K70" s="560"/>
-      <c r="L70" s="560"/>
-      <c r="M70" s="560"/>
-      <c r="N70" s="560"/>
-      <c r="O70" s="370"/>
-      <c r="P70" s="368"/>
-      <c r="Q70" s="560"/>
-      <c r="R70" s="560"/>
-      <c r="S70" s="560"/>
-      <c r="T70" s="560"/>
-      <c r="U70" s="370"/>
-      <c r="V70" s="561"/>
-      <c r="W70" s="562"/>
-      <c r="X70" s="562"/>
-      <c r="Y70" s="562"/>
-      <c r="Z70" s="563"/>
-      <c r="AA70" s="564"/>
-      <c r="AB70" s="560"/>
-      <c r="AC70" s="560"/>
-      <c r="AD70" s="560"/>
-      <c r="AE70" s="560"/>
-      <c r="AF70" s="560"/>
-      <c r="AG70" s="560"/>
-      <c r="AH70" s="560"/>
-      <c r="AI70" s="560"/>
-      <c r="AJ70" s="560"/>
-      <c r="AK70" s="560"/>
-      <c r="AL70" s="370"/>
-      <c r="AM70" s="392" t="s">
+      <c r="A70" s="554"/>
+      <c r="B70" s="555"/>
+      <c r="C70" s="555"/>
+      <c r="D70" s="555"/>
+      <c r="E70" s="555"/>
+      <c r="F70" s="555"/>
+      <c r="G70" s="555"/>
+      <c r="H70" s="555"/>
+      <c r="I70" s="590"/>
+      <c r="J70" s="419"/>
+      <c r="K70" s="377"/>
+      <c r="L70" s="377"/>
+      <c r="M70" s="377"/>
+      <c r="N70" s="377"/>
+      <c r="O70" s="378"/>
+      <c r="P70" s="376"/>
+      <c r="Q70" s="377"/>
+      <c r="R70" s="377"/>
+      <c r="S70" s="377"/>
+      <c r="T70" s="377"/>
+      <c r="U70" s="378"/>
+      <c r="V70" s="391"/>
+      <c r="W70" s="392"/>
+      <c r="X70" s="392"/>
+      <c r="Y70" s="392"/>
+      <c r="Z70" s="393"/>
+      <c r="AA70" s="395"/>
+      <c r="AB70" s="377"/>
+      <c r="AC70" s="377"/>
+      <c r="AD70" s="377"/>
+      <c r="AE70" s="377"/>
+      <c r="AF70" s="377"/>
+      <c r="AG70" s="377"/>
+      <c r="AH70" s="377"/>
+      <c r="AI70" s="377"/>
+      <c r="AJ70" s="377"/>
+      <c r="AK70" s="377"/>
+      <c r="AL70" s="378"/>
+      <c r="AM70" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="AN70" s="393"/>
-      <c r="AO70" s="394"/>
-      <c r="AP70" s="395"/>
-      <c r="AQ70" s="396"/>
-      <c r="AR70" s="392" t="s">
+      <c r="AN70" s="406"/>
+      <c r="AO70" s="407"/>
+      <c r="AP70" s="408"/>
+      <c r="AQ70" s="409"/>
+      <c r="AR70" s="405" t="s">
         <v>7</v>
       </c>
-      <c r="AS70" s="393"/>
-      <c r="AT70" s="397"/>
-      <c r="AU70" s="398"/>
-      <c r="AV70" s="398"/>
-      <c r="AW70" s="399"/>
+      <c r="AS70" s="406"/>
+      <c r="AT70" s="410"/>
+      <c r="AU70" s="411"/>
+      <c r="AV70" s="411"/>
+      <c r="AW70" s="412"/>
     </row>
     <row r="71" spans="1:49" ht="15" customHeight="1" thickBot="1">
-      <c r="A71" s="414"/>
-      <c r="B71" s="415"/>
-      <c r="C71" s="415"/>
-      <c r="D71" s="415"/>
-      <c r="E71" s="415"/>
-      <c r="F71" s="415"/>
-      <c r="G71" s="415"/>
-      <c r="H71" s="415"/>
-      <c r="I71" s="576"/>
-      <c r="J71" s="372"/>
-      <c r="K71" s="372"/>
-      <c r="L71" s="372"/>
-      <c r="M71" s="372"/>
-      <c r="N71" s="372"/>
-      <c r="O71" s="373"/>
-      <c r="P71" s="371"/>
-      <c r="Q71" s="372"/>
-      <c r="R71" s="372"/>
-      <c r="S71" s="372"/>
-      <c r="T71" s="372"/>
-      <c r="U71" s="373"/>
-      <c r="V71" s="400" t="s">
+      <c r="A71" s="557"/>
+      <c r="B71" s="558"/>
+      <c r="C71" s="558"/>
+      <c r="D71" s="558"/>
+      <c r="E71" s="558"/>
+      <c r="F71" s="558"/>
+      <c r="G71" s="558"/>
+      <c r="H71" s="558"/>
+      <c r="I71" s="591"/>
+      <c r="J71" s="380"/>
+      <c r="K71" s="380"/>
+      <c r="L71" s="380"/>
+      <c r="M71" s="380"/>
+      <c r="N71" s="380"/>
+      <c r="O71" s="381"/>
+      <c r="P71" s="379"/>
+      <c r="Q71" s="380"/>
+      <c r="R71" s="380"/>
+      <c r="S71" s="380"/>
+      <c r="T71" s="380"/>
+      <c r="U71" s="381"/>
+      <c r="V71" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="W71" s="401"/>
-      <c r="X71" s="401"/>
-      <c r="Y71" s="401"/>
-      <c r="Z71" s="402"/>
-      <c r="AA71" s="403" t="s">
+      <c r="W71" s="386"/>
+      <c r="X71" s="386"/>
+      <c r="Y71" s="386"/>
+      <c r="Z71" s="387"/>
+      <c r="AA71" s="382" t="s">
         <v>128</v>
       </c>
-      <c r="AB71" s="404"/>
-      <c r="AC71" s="404"/>
-      <c r="AD71" s="404"/>
-      <c r="AE71" s="404"/>
-      <c r="AF71" s="404"/>
-      <c r="AG71" s="405"/>
-      <c r="AH71" s="406" t="s">
+      <c r="AB71" s="383"/>
+      <c r="AC71" s="383"/>
+      <c r="AD71" s="383"/>
+      <c r="AE71" s="383"/>
+      <c r="AF71" s="383"/>
+      <c r="AG71" s="384"/>
+      <c r="AH71" s="398" t="s">
         <v>9</v>
       </c>
-      <c r="AI71" s="407"/>
-      <c r="AJ71" s="407"/>
-      <c r="AK71" s="407"/>
-      <c r="AL71" s="408"/>
-      <c r="AM71" s="403" t="s">
+      <c r="AI71" s="399"/>
+      <c r="AJ71" s="399"/>
+      <c r="AK71" s="399"/>
+      <c r="AL71" s="400"/>
+      <c r="AM71" s="382" t="s">
         <v>98</v>
       </c>
-      <c r="AN71" s="404"/>
-      <c r="AO71" s="404"/>
-      <c r="AP71" s="404"/>
-      <c r="AQ71" s="404"/>
-      <c r="AR71" s="404"/>
-      <c r="AS71" s="404"/>
-      <c r="AT71" s="404"/>
-      <c r="AU71" s="404"/>
-      <c r="AV71" s="577"/>
-      <c r="AW71" s="578"/>
+      <c r="AN71" s="383"/>
+      <c r="AO71" s="383"/>
+      <c r="AP71" s="383"/>
+      <c r="AQ71" s="383"/>
+      <c r="AR71" s="383"/>
+      <c r="AS71" s="383"/>
+      <c r="AT71" s="383"/>
+      <c r="AU71" s="383"/>
+      <c r="AV71" s="587"/>
+      <c r="AW71" s="588"/>
     </row>
     <row r="72" spans="1:49" ht="15" thickTop="1">
       <c r="A72" s="252"/>
@@ -15391,48 +15391,48 @@
       <c r="A97" s="223"/>
       <c r="B97" s="287"/>
       <c r="D97" s="113"/>
-      <c r="E97" s="586"/>
-      <c r="F97" s="586"/>
-      <c r="G97" s="586"/>
-      <c r="H97" s="586"/>
-      <c r="I97" s="586"/>
-      <c r="J97" s="586"/>
-      <c r="K97" s="586"/>
-      <c r="L97" s="586"/>
-      <c r="M97" s="586"/>
-      <c r="N97" s="586"/>
-      <c r="O97" s="586"/>
-      <c r="P97" s="586"/>
-      <c r="Q97" s="586"/>
-      <c r="R97" s="586"/>
-      <c r="S97" s="586"/>
-      <c r="T97" s="586"/>
-      <c r="U97" s="586"/>
-      <c r="V97" s="586"/>
-      <c r="W97" s="586"/>
-      <c r="X97" s="586"/>
-      <c r="Y97" s="586"/>
-      <c r="Z97" s="586"/>
-      <c r="AA97" s="586"/>
-      <c r="AB97" s="586"/>
-      <c r="AC97" s="586"/>
-      <c r="AD97" s="586"/>
-      <c r="AE97" s="586"/>
-      <c r="AF97" s="586"/>
-      <c r="AG97" s="586"/>
-      <c r="AH97" s="586"/>
-      <c r="AI97" s="588"/>
-      <c r="AJ97" s="588"/>
-      <c r="AK97" s="588"/>
-      <c r="AL97" s="588"/>
-      <c r="AM97" s="588"/>
-      <c r="AN97" s="588"/>
-      <c r="AO97" s="588"/>
-      <c r="AP97" s="588"/>
-      <c r="AQ97" s="588"/>
-      <c r="AR97" s="588"/>
-      <c r="AS97" s="588"/>
-      <c r="AT97" s="588"/>
+      <c r="E97" s="583"/>
+      <c r="F97" s="583"/>
+      <c r="G97" s="583"/>
+      <c r="H97" s="583"/>
+      <c r="I97" s="583"/>
+      <c r="J97" s="583"/>
+      <c r="K97" s="583"/>
+      <c r="L97" s="583"/>
+      <c r="M97" s="583"/>
+      <c r="N97" s="583"/>
+      <c r="O97" s="583"/>
+      <c r="P97" s="583"/>
+      <c r="Q97" s="583"/>
+      <c r="R97" s="583"/>
+      <c r="S97" s="583"/>
+      <c r="T97" s="583"/>
+      <c r="U97" s="583"/>
+      <c r="V97" s="583"/>
+      <c r="W97" s="583"/>
+      <c r="X97" s="583"/>
+      <c r="Y97" s="583"/>
+      <c r="Z97" s="583"/>
+      <c r="AA97" s="583"/>
+      <c r="AB97" s="583"/>
+      <c r="AC97" s="583"/>
+      <c r="AD97" s="583"/>
+      <c r="AE97" s="583"/>
+      <c r="AF97" s="583"/>
+      <c r="AG97" s="583"/>
+      <c r="AH97" s="583"/>
+      <c r="AI97" s="585"/>
+      <c r="AJ97" s="585"/>
+      <c r="AK97" s="585"/>
+      <c r="AL97" s="585"/>
+      <c r="AM97" s="585"/>
+      <c r="AN97" s="585"/>
+      <c r="AO97" s="585"/>
+      <c r="AP97" s="585"/>
+      <c r="AQ97" s="585"/>
+      <c r="AR97" s="585"/>
+      <c r="AS97" s="585"/>
+      <c r="AT97" s="585"/>
       <c r="AU97" s="5"/>
       <c r="AV97" s="30"/>
       <c r="AW97" s="223"/>
@@ -15442,48 +15442,48 @@
       <c r="B98" s="287"/>
       <c r="C98" s="30"/>
       <c r="D98" s="72"/>
-      <c r="E98" s="585"/>
-      <c r="F98" s="585"/>
-      <c r="G98" s="585"/>
-      <c r="H98" s="585"/>
-      <c r="I98" s="585"/>
-      <c r="J98" s="585"/>
-      <c r="K98" s="585"/>
-      <c r="L98" s="585"/>
-      <c r="M98" s="585"/>
-      <c r="N98" s="585"/>
-      <c r="O98" s="585"/>
-      <c r="P98" s="585"/>
-      <c r="Q98" s="585"/>
-      <c r="R98" s="585"/>
-      <c r="S98" s="585"/>
-      <c r="T98" s="585"/>
-      <c r="U98" s="585"/>
-      <c r="V98" s="585"/>
-      <c r="W98" s="585"/>
-      <c r="X98" s="585"/>
-      <c r="Y98" s="585"/>
-      <c r="Z98" s="585"/>
-      <c r="AA98" s="585"/>
-      <c r="AB98" s="585"/>
-      <c r="AC98" s="585"/>
-      <c r="AD98" s="585"/>
-      <c r="AE98" s="585"/>
-      <c r="AF98" s="585"/>
-      <c r="AG98" s="585"/>
-      <c r="AH98" s="585"/>
-      <c r="AI98" s="588"/>
-      <c r="AJ98" s="588"/>
-      <c r="AK98" s="588"/>
-      <c r="AL98" s="588"/>
-      <c r="AM98" s="588"/>
-      <c r="AN98" s="588"/>
-      <c r="AO98" s="588"/>
-      <c r="AP98" s="588"/>
-      <c r="AQ98" s="588"/>
-      <c r="AR98" s="588"/>
-      <c r="AS98" s="588"/>
-      <c r="AT98" s="588"/>
+      <c r="E98" s="582"/>
+      <c r="F98" s="582"/>
+      <c r="G98" s="582"/>
+      <c r="H98" s="582"/>
+      <c r="I98" s="582"/>
+      <c r="J98" s="582"/>
+      <c r="K98" s="582"/>
+      <c r="L98" s="582"/>
+      <c r="M98" s="582"/>
+      <c r="N98" s="582"/>
+      <c r="O98" s="582"/>
+      <c r="P98" s="582"/>
+      <c r="Q98" s="582"/>
+      <c r="R98" s="582"/>
+      <c r="S98" s="582"/>
+      <c r="T98" s="582"/>
+      <c r="U98" s="582"/>
+      <c r="V98" s="582"/>
+      <c r="W98" s="582"/>
+      <c r="X98" s="582"/>
+      <c r="Y98" s="582"/>
+      <c r="Z98" s="582"/>
+      <c r="AA98" s="582"/>
+      <c r="AB98" s="582"/>
+      <c r="AC98" s="582"/>
+      <c r="AD98" s="582"/>
+      <c r="AE98" s="582"/>
+      <c r="AF98" s="582"/>
+      <c r="AG98" s="582"/>
+      <c r="AH98" s="582"/>
+      <c r="AI98" s="585"/>
+      <c r="AJ98" s="585"/>
+      <c r="AK98" s="585"/>
+      <c r="AL98" s="585"/>
+      <c r="AM98" s="585"/>
+      <c r="AN98" s="585"/>
+      <c r="AO98" s="585"/>
+      <c r="AP98" s="585"/>
+      <c r="AQ98" s="585"/>
+      <c r="AR98" s="585"/>
+      <c r="AS98" s="585"/>
+      <c r="AT98" s="585"/>
       <c r="AU98" s="5"/>
       <c r="AV98" s="30"/>
       <c r="AW98" s="223"/>
@@ -15493,48 +15493,48 @@
       <c r="B99" s="287"/>
       <c r="C99" s="71"/>
       <c r="D99" s="26"/>
-      <c r="E99" s="585"/>
-      <c r="F99" s="585"/>
-      <c r="G99" s="585"/>
-      <c r="H99" s="585"/>
-      <c r="I99" s="585"/>
-      <c r="J99" s="585"/>
-      <c r="K99" s="585"/>
-      <c r="L99" s="585"/>
-      <c r="M99" s="587"/>
-      <c r="N99" s="587"/>
-      <c r="O99" s="587"/>
-      <c r="P99" s="587"/>
-      <c r="Q99" s="587"/>
-      <c r="R99" s="587"/>
-      <c r="S99" s="587"/>
-      <c r="T99" s="587"/>
-      <c r="U99" s="587"/>
-      <c r="V99" s="587"/>
-      <c r="W99" s="587"/>
-      <c r="X99" s="587"/>
-      <c r="Y99" s="587"/>
-      <c r="Z99" s="587"/>
-      <c r="AA99" s="587"/>
-      <c r="AB99" s="587"/>
-      <c r="AC99" s="587"/>
-      <c r="AD99" s="587"/>
-      <c r="AE99" s="587"/>
-      <c r="AF99" s="587"/>
-      <c r="AG99" s="587"/>
-      <c r="AH99" s="587"/>
-      <c r="AI99" s="589"/>
-      <c r="AJ99" s="589"/>
-      <c r="AK99" s="589"/>
-      <c r="AL99" s="589"/>
-      <c r="AM99" s="589"/>
-      <c r="AN99" s="589"/>
-      <c r="AO99" s="589"/>
-      <c r="AP99" s="589"/>
-      <c r="AQ99" s="589"/>
-      <c r="AR99" s="589"/>
-      <c r="AS99" s="589"/>
-      <c r="AT99" s="589"/>
+      <c r="E99" s="582"/>
+      <c r="F99" s="582"/>
+      <c r="G99" s="582"/>
+      <c r="H99" s="582"/>
+      <c r="I99" s="582"/>
+      <c r="J99" s="582"/>
+      <c r="K99" s="582"/>
+      <c r="L99" s="582"/>
+      <c r="M99" s="584"/>
+      <c r="N99" s="584"/>
+      <c r="O99" s="584"/>
+      <c r="P99" s="584"/>
+      <c r="Q99" s="584"/>
+      <c r="R99" s="584"/>
+      <c r="S99" s="584"/>
+      <c r="T99" s="584"/>
+      <c r="U99" s="584"/>
+      <c r="V99" s="584"/>
+      <c r="W99" s="584"/>
+      <c r="X99" s="584"/>
+      <c r="Y99" s="584"/>
+      <c r="Z99" s="584"/>
+      <c r="AA99" s="584"/>
+      <c r="AB99" s="584"/>
+      <c r="AC99" s="584"/>
+      <c r="AD99" s="584"/>
+      <c r="AE99" s="584"/>
+      <c r="AF99" s="584"/>
+      <c r="AG99" s="584"/>
+      <c r="AH99" s="584"/>
+      <c r="AI99" s="586"/>
+      <c r="AJ99" s="586"/>
+      <c r="AK99" s="586"/>
+      <c r="AL99" s="586"/>
+      <c r="AM99" s="586"/>
+      <c r="AN99" s="586"/>
+      <c r="AO99" s="586"/>
+      <c r="AP99" s="586"/>
+      <c r="AQ99" s="586"/>
+      <c r="AR99" s="586"/>
+      <c r="AS99" s="586"/>
+      <c r="AT99" s="586"/>
       <c r="AU99" s="5"/>
       <c r="AV99" s="30"/>
       <c r="AW99" s="223"/>
@@ -15810,187 +15810,187 @@
       <c r="AW106" s="223"/>
     </row>
     <row r="107" spans="1:49" ht="15" thickTop="1">
-      <c r="A107" s="568" t="s">
+      <c r="A107" s="579" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="357"/>
-      <c r="C107" s="357"/>
-      <c r="D107" s="357"/>
-      <c r="E107" s="357"/>
-      <c r="F107" s="357"/>
-      <c r="G107" s="357"/>
-      <c r="H107" s="357"/>
-      <c r="I107" s="358"/>
-      <c r="J107" s="365" t="s">
+      <c r="B107" s="365"/>
+      <c r="C107" s="365"/>
+      <c r="D107" s="365"/>
+      <c r="E107" s="365"/>
+      <c r="F107" s="365"/>
+      <c r="G107" s="365"/>
+      <c r="H107" s="365"/>
+      <c r="I107" s="366"/>
+      <c r="J107" s="373" t="s">
         <v>1</v>
       </c>
-      <c r="K107" s="366"/>
-      <c r="L107" s="366"/>
-      <c r="M107" s="366"/>
-      <c r="N107" s="366"/>
-      <c r="O107" s="367"/>
-      <c r="P107" s="365" t="s">
+      <c r="K107" s="374"/>
+      <c r="L107" s="374"/>
+      <c r="M107" s="374"/>
+      <c r="N107" s="374"/>
+      <c r="O107" s="375"/>
+      <c r="P107" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="Q107" s="366"/>
-      <c r="R107" s="366"/>
-      <c r="S107" s="366"/>
-      <c r="T107" s="366"/>
-      <c r="U107" s="367"/>
-      <c r="V107" s="374" t="s">
+      <c r="Q107" s="374"/>
+      <c r="R107" s="374"/>
+      <c r="S107" s="374"/>
+      <c r="T107" s="374"/>
+      <c r="U107" s="375"/>
+      <c r="V107" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="W107" s="375"/>
-      <c r="X107" s="375"/>
-      <c r="Y107" s="375"/>
-      <c r="Z107" s="376"/>
-      <c r="AA107" s="380" t="s">
+      <c r="W107" s="389"/>
+      <c r="X107" s="389"/>
+      <c r="Y107" s="389"/>
+      <c r="Z107" s="390"/>
+      <c r="AA107" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="AB107" s="366"/>
-      <c r="AC107" s="366"/>
-      <c r="AD107" s="366"/>
-      <c r="AE107" s="366"/>
-      <c r="AF107" s="366"/>
-      <c r="AG107" s="366"/>
-      <c r="AH107" s="366"/>
-      <c r="AI107" s="366"/>
-      <c r="AJ107" s="366"/>
-      <c r="AK107" s="366"/>
-      <c r="AL107" s="367"/>
-      <c r="AM107" s="384" t="s">
+      <c r="AB107" s="374"/>
+      <c r="AC107" s="374"/>
+      <c r="AD107" s="374"/>
+      <c r="AE107" s="374"/>
+      <c r="AF107" s="374"/>
+      <c r="AG107" s="374"/>
+      <c r="AH107" s="374"/>
+      <c r="AI107" s="374"/>
+      <c r="AJ107" s="374"/>
+      <c r="AK107" s="374"/>
+      <c r="AL107" s="375"/>
+      <c r="AM107" s="396" t="s">
         <v>4</v>
       </c>
-      <c r="AN107" s="385"/>
-      <c r="AO107" s="386" t="s">
+      <c r="AN107" s="397"/>
+      <c r="AO107" s="402" t="s">
         <v>99</v>
       </c>
-      <c r="AP107" s="387"/>
-      <c r="AQ107" s="388"/>
-      <c r="AR107" s="384" t="s">
+      <c r="AP107" s="403"/>
+      <c r="AQ107" s="404"/>
+      <c r="AR107" s="396" t="s">
         <v>5</v>
       </c>
-      <c r="AS107" s="385"/>
-      <c r="AT107" s="389">
+      <c r="AS107" s="397"/>
+      <c r="AT107" s="413">
         <v>45056</v>
       </c>
-      <c r="AU107" s="390"/>
-      <c r="AV107" s="390"/>
-      <c r="AW107" s="391"/>
+      <c r="AU107" s="414"/>
+      <c r="AV107" s="414"/>
+      <c r="AW107" s="415"/>
     </row>
     <row r="108" spans="1:49">
-      <c r="A108" s="569"/>
-      <c r="B108" s="360"/>
-      <c r="C108" s="360"/>
-      <c r="D108" s="360"/>
-      <c r="E108" s="360"/>
-      <c r="F108" s="360"/>
-      <c r="G108" s="360"/>
-      <c r="H108" s="360"/>
-      <c r="I108" s="361"/>
-      <c r="J108" s="368"/>
-      <c r="K108" s="369"/>
-      <c r="L108" s="369"/>
-      <c r="M108" s="369"/>
-      <c r="N108" s="369"/>
-      <c r="O108" s="370"/>
-      <c r="P108" s="368"/>
-      <c r="Q108" s="369"/>
-      <c r="R108" s="369"/>
-      <c r="S108" s="369"/>
-      <c r="T108" s="369"/>
-      <c r="U108" s="370"/>
-      <c r="V108" s="561"/>
-      <c r="W108" s="567"/>
-      <c r="X108" s="567"/>
-      <c r="Y108" s="567"/>
-      <c r="Z108" s="563"/>
-      <c r="AA108" s="564"/>
-      <c r="AB108" s="369"/>
-      <c r="AC108" s="369"/>
-      <c r="AD108" s="369"/>
-      <c r="AE108" s="369"/>
-      <c r="AF108" s="369"/>
-      <c r="AG108" s="369"/>
-      <c r="AH108" s="369"/>
-      <c r="AI108" s="369"/>
-      <c r="AJ108" s="369"/>
-      <c r="AK108" s="369"/>
-      <c r="AL108" s="370"/>
-      <c r="AM108" s="392" t="s">
+      <c r="A108" s="580"/>
+      <c r="B108" s="368"/>
+      <c r="C108" s="368"/>
+      <c r="D108" s="368"/>
+      <c r="E108" s="368"/>
+      <c r="F108" s="368"/>
+      <c r="G108" s="368"/>
+      <c r="H108" s="368"/>
+      <c r="I108" s="369"/>
+      <c r="J108" s="376"/>
+      <c r="K108" s="419"/>
+      <c r="L108" s="419"/>
+      <c r="M108" s="419"/>
+      <c r="N108" s="419"/>
+      <c r="O108" s="378"/>
+      <c r="P108" s="376"/>
+      <c r="Q108" s="419"/>
+      <c r="R108" s="419"/>
+      <c r="S108" s="419"/>
+      <c r="T108" s="419"/>
+      <c r="U108" s="378"/>
+      <c r="V108" s="391"/>
+      <c r="W108" s="597"/>
+      <c r="X108" s="597"/>
+      <c r="Y108" s="597"/>
+      <c r="Z108" s="393"/>
+      <c r="AA108" s="395"/>
+      <c r="AB108" s="419"/>
+      <c r="AC108" s="419"/>
+      <c r="AD108" s="419"/>
+      <c r="AE108" s="419"/>
+      <c r="AF108" s="419"/>
+      <c r="AG108" s="419"/>
+      <c r="AH108" s="419"/>
+      <c r="AI108" s="419"/>
+      <c r="AJ108" s="419"/>
+      <c r="AK108" s="419"/>
+      <c r="AL108" s="378"/>
+      <c r="AM108" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="AN108" s="393"/>
-      <c r="AO108" s="394"/>
-      <c r="AP108" s="395"/>
-      <c r="AQ108" s="396"/>
-      <c r="AR108" s="392" t="s">
+      <c r="AN108" s="406"/>
+      <c r="AO108" s="407"/>
+      <c r="AP108" s="408"/>
+      <c r="AQ108" s="409"/>
+      <c r="AR108" s="405" t="s">
         <v>7</v>
       </c>
-      <c r="AS108" s="393"/>
-      <c r="AT108" s="397"/>
-      <c r="AU108" s="398"/>
-      <c r="AV108" s="398"/>
-      <c r="AW108" s="399"/>
+      <c r="AS108" s="406"/>
+      <c r="AT108" s="410"/>
+      <c r="AU108" s="411"/>
+      <c r="AV108" s="411"/>
+      <c r="AW108" s="412"/>
     </row>
     <row r="109" spans="1:49" ht="15" thickBot="1">
-      <c r="A109" s="571"/>
-      <c r="B109" s="363"/>
-      <c r="C109" s="363"/>
-      <c r="D109" s="363"/>
-      <c r="E109" s="363"/>
-      <c r="F109" s="363"/>
-      <c r="G109" s="363"/>
-      <c r="H109" s="363"/>
-      <c r="I109" s="364"/>
-      <c r="J109" s="371"/>
-      <c r="K109" s="372"/>
-      <c r="L109" s="372"/>
-      <c r="M109" s="372"/>
-      <c r="N109" s="372"/>
-      <c r="O109" s="373"/>
-      <c r="P109" s="371"/>
-      <c r="Q109" s="372"/>
-      <c r="R109" s="372"/>
-      <c r="S109" s="372"/>
-      <c r="T109" s="372"/>
-      <c r="U109" s="373"/>
-      <c r="V109" s="400" t="s">
+      <c r="A109" s="581"/>
+      <c r="B109" s="371"/>
+      <c r="C109" s="371"/>
+      <c r="D109" s="371"/>
+      <c r="E109" s="371"/>
+      <c r="F109" s="371"/>
+      <c r="G109" s="371"/>
+      <c r="H109" s="371"/>
+      <c r="I109" s="372"/>
+      <c r="J109" s="379"/>
+      <c r="K109" s="380"/>
+      <c r="L109" s="380"/>
+      <c r="M109" s="380"/>
+      <c r="N109" s="380"/>
+      <c r="O109" s="381"/>
+      <c r="P109" s="379"/>
+      <c r="Q109" s="380"/>
+      <c r="R109" s="380"/>
+      <c r="S109" s="380"/>
+      <c r="T109" s="380"/>
+      <c r="U109" s="381"/>
+      <c r="V109" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="W109" s="401"/>
-      <c r="X109" s="401"/>
-      <c r="Y109" s="401"/>
-      <c r="Z109" s="402"/>
-      <c r="AA109" s="403" t="s">
+      <c r="W109" s="386"/>
+      <c r="X109" s="386"/>
+      <c r="Y109" s="386"/>
+      <c r="Z109" s="387"/>
+      <c r="AA109" s="382" t="s">
         <v>128</v>
       </c>
-      <c r="AB109" s="404"/>
-      <c r="AC109" s="404"/>
-      <c r="AD109" s="404"/>
-      <c r="AE109" s="404"/>
-      <c r="AF109" s="404"/>
-      <c r="AG109" s="405"/>
-      <c r="AH109" s="406" t="s">
+      <c r="AB109" s="383"/>
+      <c r="AC109" s="383"/>
+      <c r="AD109" s="383"/>
+      <c r="AE109" s="383"/>
+      <c r="AF109" s="383"/>
+      <c r="AG109" s="384"/>
+      <c r="AH109" s="398" t="s">
         <v>9</v>
       </c>
-      <c r="AI109" s="407"/>
-      <c r="AJ109" s="407"/>
-      <c r="AK109" s="407"/>
-      <c r="AL109" s="408"/>
-      <c r="AM109" s="403" t="s">
+      <c r="AI109" s="399"/>
+      <c r="AJ109" s="399"/>
+      <c r="AK109" s="399"/>
+      <c r="AL109" s="400"/>
+      <c r="AM109" s="382" t="s">
         <v>98</v>
       </c>
-      <c r="AN109" s="404"/>
-      <c r="AO109" s="404"/>
-      <c r="AP109" s="404"/>
-      <c r="AQ109" s="404"/>
-      <c r="AR109" s="404"/>
-      <c r="AS109" s="404"/>
-      <c r="AT109" s="404"/>
-      <c r="AU109" s="404"/>
-      <c r="AV109" s="404"/>
-      <c r="AW109" s="430"/>
+      <c r="AN109" s="383"/>
+      <c r="AO109" s="383"/>
+      <c r="AP109" s="383"/>
+      <c r="AQ109" s="383"/>
+      <c r="AR109" s="383"/>
+      <c r="AS109" s="383"/>
+      <c r="AT109" s="383"/>
+      <c r="AU109" s="383"/>
+      <c r="AV109" s="383"/>
+      <c r="AW109" s="401"/>
     </row>
     <row r="110" spans="1:49" ht="15" thickTop="1">
       <c r="A110" s="301"/>
@@ -16953,16 +16953,16 @@
       <c r="AH128" s="355"/>
       <c r="AI128" s="355"/>
       <c r="AJ128" s="355"/>
-      <c r="AK128" s="573"/>
-      <c r="AL128" s="573"/>
-      <c r="AM128" s="573"/>
-      <c r="AN128" s="573"/>
-      <c r="AO128" s="573"/>
-      <c r="AP128" s="573"/>
-      <c r="AQ128" s="573"/>
-      <c r="AR128" s="573"/>
-      <c r="AS128" s="573"/>
-      <c r="AT128" s="573"/>
+      <c r="AK128" s="593"/>
+      <c r="AL128" s="593"/>
+      <c r="AM128" s="593"/>
+      <c r="AN128" s="593"/>
+      <c r="AO128" s="593"/>
+      <c r="AP128" s="593"/>
+      <c r="AQ128" s="593"/>
+      <c r="AR128" s="593"/>
+      <c r="AS128" s="593"/>
+      <c r="AT128" s="593"/>
       <c r="AU128" s="252"/>
       <c r="AV128" s="252"/>
       <c r="AW128" s="223"/>
@@ -17279,53 +17279,53 @@
       <c r="A135" s="223"/>
       <c r="B135" s="293"/>
       <c r="C135" s="252"/>
-      <c r="D135" s="579" t="s">
+      <c r="D135" s="573" t="s">
         <v>146</v>
       </c>
-      <c r="E135" s="580"/>
-      <c r="F135" s="580"/>
-      <c r="G135" s="580"/>
-      <c r="H135" s="580"/>
-      <c r="I135" s="580"/>
-      <c r="J135" s="580"/>
-      <c r="K135" s="580"/>
-      <c r="L135" s="581"/>
-      <c r="M135" s="582" t="s">
+      <c r="E135" s="574"/>
+      <c r="F135" s="574"/>
+      <c r="G135" s="574"/>
+      <c r="H135" s="574"/>
+      <c r="I135" s="574"/>
+      <c r="J135" s="574"/>
+      <c r="K135" s="574"/>
+      <c r="L135" s="575"/>
+      <c r="M135" s="576" t="s">
         <v>147</v>
       </c>
-      <c r="N135" s="583"/>
-      <c r="O135" s="583"/>
-      <c r="P135" s="583"/>
-      <c r="Q135" s="583"/>
-      <c r="R135" s="583"/>
-      <c r="S135" s="583"/>
-      <c r="T135" s="583"/>
-      <c r="U135" s="583"/>
-      <c r="V135" s="583"/>
-      <c r="W135" s="583"/>
-      <c r="X135" s="583"/>
-      <c r="Y135" s="583"/>
-      <c r="Z135" s="583"/>
-      <c r="AA135" s="583"/>
-      <c r="AB135" s="583"/>
-      <c r="AC135" s="583"/>
-      <c r="AD135" s="583"/>
-      <c r="AE135" s="583"/>
-      <c r="AF135" s="583"/>
-      <c r="AG135" s="583"/>
-      <c r="AH135" s="583"/>
-      <c r="AI135" s="583"/>
-      <c r="AJ135" s="583"/>
-      <c r="AK135" s="583"/>
-      <c r="AL135" s="583"/>
-      <c r="AM135" s="583"/>
-      <c r="AN135" s="583"/>
-      <c r="AO135" s="583"/>
-      <c r="AP135" s="583"/>
-      <c r="AQ135" s="583"/>
-      <c r="AR135" s="583"/>
-      <c r="AS135" s="583"/>
-      <c r="AT135" s="584"/>
+      <c r="N135" s="577"/>
+      <c r="O135" s="577"/>
+      <c r="P135" s="577"/>
+      <c r="Q135" s="577"/>
+      <c r="R135" s="577"/>
+      <c r="S135" s="577"/>
+      <c r="T135" s="577"/>
+      <c r="U135" s="577"/>
+      <c r="V135" s="577"/>
+      <c r="W135" s="577"/>
+      <c r="X135" s="577"/>
+      <c r="Y135" s="577"/>
+      <c r="Z135" s="577"/>
+      <c r="AA135" s="577"/>
+      <c r="AB135" s="577"/>
+      <c r="AC135" s="577"/>
+      <c r="AD135" s="577"/>
+      <c r="AE135" s="577"/>
+      <c r="AF135" s="577"/>
+      <c r="AG135" s="577"/>
+      <c r="AH135" s="577"/>
+      <c r="AI135" s="577"/>
+      <c r="AJ135" s="577"/>
+      <c r="AK135" s="577"/>
+      <c r="AL135" s="577"/>
+      <c r="AM135" s="577"/>
+      <c r="AN135" s="577"/>
+      <c r="AO135" s="577"/>
+      <c r="AP135" s="577"/>
+      <c r="AQ135" s="577"/>
+      <c r="AR135" s="577"/>
+      <c r="AS135" s="577"/>
+      <c r="AT135" s="578"/>
       <c r="AU135" s="252"/>
       <c r="AV135" s="252"/>
       <c r="AW135" s="223"/>
@@ -17729,31 +17729,31 @@
       <c r="U143" s="252"/>
       <c r="V143" s="252"/>
       <c r="W143" s="252"/>
-      <c r="X143" s="572"/>
-      <c r="Y143" s="572"/>
-      <c r="Z143" s="572"/>
-      <c r="AA143" s="572"/>
-      <c r="AB143" s="572"/>
-      <c r="AC143" s="572"/>
-      <c r="AD143" s="572"/>
-      <c r="AE143" s="572"/>
-      <c r="AF143" s="572"/>
-      <c r="AG143" s="572"/>
-      <c r="AH143" s="572"/>
-      <c r="AI143" s="572"/>
-      <c r="AJ143" s="572"/>
-      <c r="AK143" s="572"/>
-      <c r="AL143" s="572"/>
-      <c r="AM143" s="572"/>
-      <c r="AN143" s="572"/>
-      <c r="AO143" s="572"/>
-      <c r="AP143" s="572"/>
-      <c r="AQ143" s="572"/>
-      <c r="AR143" s="572"/>
-      <c r="AS143" s="572"/>
-      <c r="AT143" s="572"/>
-      <c r="AU143" s="572"/>
-      <c r="AV143" s="572"/>
+      <c r="X143" s="592"/>
+      <c r="Y143" s="592"/>
+      <c r="Z143" s="592"/>
+      <c r="AA143" s="592"/>
+      <c r="AB143" s="592"/>
+      <c r="AC143" s="592"/>
+      <c r="AD143" s="592"/>
+      <c r="AE143" s="592"/>
+      <c r="AF143" s="592"/>
+      <c r="AG143" s="592"/>
+      <c r="AH143" s="592"/>
+      <c r="AI143" s="592"/>
+      <c r="AJ143" s="592"/>
+      <c r="AK143" s="592"/>
+      <c r="AL143" s="592"/>
+      <c r="AM143" s="592"/>
+      <c r="AN143" s="592"/>
+      <c r="AO143" s="592"/>
+      <c r="AP143" s="592"/>
+      <c r="AQ143" s="592"/>
+      <c r="AR143" s="592"/>
+      <c r="AS143" s="592"/>
+      <c r="AT143" s="592"/>
+      <c r="AU143" s="592"/>
+      <c r="AV143" s="592"/>
       <c r="AW143" s="223"/>
     </row>
     <row r="144" spans="1:49" ht="14.4" customHeight="1">
@@ -18645,6 +18645,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="J107:O109"/>
+    <mergeCell ref="P107:U109"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="AM70:AN70"/>
+    <mergeCell ref="AO70:AQ70"/>
+    <mergeCell ref="V107:Z108"/>
+    <mergeCell ref="AA107:AL108"/>
+    <mergeCell ref="J69:O71"/>
+    <mergeCell ref="AO69:AQ69"/>
+    <mergeCell ref="AR69:AS69"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="X143:Y143"/>
+    <mergeCell ref="Z143:AV143"/>
+    <mergeCell ref="AR107:AS107"/>
+    <mergeCell ref="AT107:AW107"/>
+    <mergeCell ref="AR108:AS108"/>
+    <mergeCell ref="AM108:AN108"/>
+    <mergeCell ref="AO108:AQ108"/>
+    <mergeCell ref="AO107:AQ107"/>
+    <mergeCell ref="AK128:AM128"/>
+    <mergeCell ref="AN128:AT128"/>
+    <mergeCell ref="A69:I71"/>
+    <mergeCell ref="AM107:AN107"/>
+    <mergeCell ref="V109:Z109"/>
+    <mergeCell ref="AA109:AG109"/>
+    <mergeCell ref="AH109:AL109"/>
+    <mergeCell ref="AM109:AW109"/>
+    <mergeCell ref="P69:U71"/>
+    <mergeCell ref="V69:Z70"/>
+    <mergeCell ref="AA69:AL70"/>
+    <mergeCell ref="AR70:AS70"/>
+    <mergeCell ref="AT70:AW70"/>
+    <mergeCell ref="V71:Z71"/>
+    <mergeCell ref="AA71:AG71"/>
+    <mergeCell ref="AH71:AL71"/>
+    <mergeCell ref="AM71:AW71"/>
+    <mergeCell ref="AM69:AN69"/>
+    <mergeCell ref="P34:U36"/>
+    <mergeCell ref="V34:Z35"/>
+    <mergeCell ref="AA34:AL35"/>
+    <mergeCell ref="AM36:AW36"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="AR34:AS34"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AT35:AW35"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="AA36:AG36"/>
+    <mergeCell ref="AH36:AL36"/>
     <mergeCell ref="D135:L135"/>
     <mergeCell ref="M135:AT135"/>
     <mergeCell ref="AT108:AW108"/>
@@ -18661,74 +18729,6 @@
     <mergeCell ref="E98:L98"/>
     <mergeCell ref="A34:I36"/>
     <mergeCell ref="J34:O36"/>
-    <mergeCell ref="P34:U36"/>
-    <mergeCell ref="V34:Z35"/>
-    <mergeCell ref="AA34:AL35"/>
-    <mergeCell ref="AM36:AW36"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="AR34:AS34"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AT35:AW35"/>
-    <mergeCell ref="A69:I71"/>
-    <mergeCell ref="AM107:AN107"/>
-    <mergeCell ref="V109:Z109"/>
-    <mergeCell ref="AA109:AG109"/>
-    <mergeCell ref="AH109:AL109"/>
-    <mergeCell ref="AM109:AW109"/>
-    <mergeCell ref="P69:U71"/>
-    <mergeCell ref="V69:Z70"/>
-    <mergeCell ref="AA69:AL70"/>
-    <mergeCell ref="AR70:AS70"/>
-    <mergeCell ref="AT70:AW70"/>
-    <mergeCell ref="V71:Z71"/>
-    <mergeCell ref="AA71:AG71"/>
-    <mergeCell ref="AH71:AL71"/>
-    <mergeCell ref="AM71:AW71"/>
-    <mergeCell ref="AM69:AN69"/>
-    <mergeCell ref="X143:Y143"/>
-    <mergeCell ref="Z143:AV143"/>
-    <mergeCell ref="AR107:AS107"/>
-    <mergeCell ref="AT107:AW107"/>
-    <mergeCell ref="AR108:AS108"/>
-    <mergeCell ref="AM108:AN108"/>
-    <mergeCell ref="AO108:AQ108"/>
-    <mergeCell ref="AO107:AQ107"/>
-    <mergeCell ref="AK128:AM128"/>
-    <mergeCell ref="AN128:AT128"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="AA36:AG36"/>
-    <mergeCell ref="AH36:AL36"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="J107:O109"/>
-    <mergeCell ref="P107:U109"/>
-    <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="AM70:AN70"/>
-    <mergeCell ref="AO70:AQ70"/>
-    <mergeCell ref="V107:Z108"/>
-    <mergeCell ref="AA107:AL108"/>
-    <mergeCell ref="J69:O71"/>
-    <mergeCell ref="AO69:AQ69"/>
-    <mergeCell ref="AR69:AS69"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
